--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="340">
   <si>
     <t>trade_time</t>
   </si>
@@ -445,6 +445,9 @@
     <t>2021-06-11</t>
   </si>
   <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
     <t>2017-04-20</t>
   </si>
   <si>
@@ -746,6 +749,9 @@
   </si>
   <si>
     <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -1385,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P696"/>
+  <dimension ref="A1:P697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1455,7 @@
         <v>1.855441043116508</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>1.575397067571232</v>
@@ -1485,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1499,7 +1505,7 @@
         <v>1.844886436180541</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>1.575397067571232</v>
@@ -1535,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1549,7 +1555,7 @@
         <v>1.879543169394645</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>1.575397067571232</v>
@@ -1585,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1599,7 +1605,7 @@
         <v>1.931893523774336</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>1.575397067571232</v>
@@ -1635,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1649,7 +1655,7 @@
         <v>1.864287853699299</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>1.610229702966436</v>
@@ -1685,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1699,7 +1705,7 @@
         <v>1.420828285447678</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>1.720097776330612</v>
@@ -1735,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1749,7 +1755,7 @@
         <v>1.444930411725815</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>1.720097776330612</v>
@@ -1785,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1799,7 +1805,7 @@
         <v>1.415528994207057</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>1.720097776330612</v>
@@ -1835,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1849,7 +1855,7 @@
         <v>1.417747421950922</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>1.720097776330612</v>
@@ -1885,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1899,7 +1905,7 @@
         <v>1.837391318446252</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>1.556576374761795</v>
@@ -1935,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1949,7 +1955,7 @@
         <v>1.827426275381424</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E12">
         <v>1.556576374761795</v>
@@ -1985,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1999,7 +2005,7 @@
         <v>1.861221338322326</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>1.556576374761795</v>
@@ -2035,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2049,7 +2055,7 @@
         <v>1.913526341635005</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>1.556576374761795</v>
@@ -2085,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2099,7 +2105,7 @@
         <v>1.84664628863214</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>1.593631212440523</v>
@@ -2135,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2149,7 +2155,7 @@
         <v>1.404411199189807</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16">
         <v>1.701186381387154</v>
@@ -2185,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2199,7 +2205,7 @@
         <v>1.428241219065881</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>1.701186381387154</v>
@@ -2235,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2249,7 +2255,7 @@
         <v>1.399021205815165</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18">
         <v>1.701186381387154</v>
@@ -2285,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2299,7 +2305,7 @@
         <v>1.398881378074474</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>1.701186381387154</v>
@@ -2335,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2349,7 +2355,7 @@
         <v>1.772601053603223</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20">
         <v>1.513212850115657</v>
@@ -2385,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2399,7 +2405,7 @@
         <v>1.819007208305362</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>1.513212850115657</v>
@@ -2435,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2449,7 +2455,7 @@
         <v>1.871207721197208</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>1.513212850115657</v>
@@ -2485,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2499,7 +2505,7 @@
         <v>1.805999514927688</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>1.555387718415254</v>
@@ -2535,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2549,7 +2555,7 @@
         <v>1.366585666847875</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>1.657613875899347</v>
@@ -2585,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2599,7 +2605,7 @@
         <v>1.360986692631565</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25">
         <v>1.657613875899347</v>
@@ -2635,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2649,7 +2655,7 @@
         <v>1.355413363007501</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26">
         <v>1.657613875899347</v>
@@ -2685,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2699,7 +2705,7 @@
         <v>1.746707087766096</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>1.485799595466657</v>
@@ -2735,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2749,7 +2755,7 @@
         <v>1.792320570044649</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>1.485799595466657</v>
@@ -2785,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2799,7 +2805,7 @@
         <v>1.780303717196457</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29">
         <v>1.531211209495895</v>
@@ -2835,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2849,7 +2855,7 @@
         <v>1.342673382069711</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30">
         <v>1.63006850917975</v>
@@ -2885,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2899,7 +2905,7 @@
         <v>1.336942295782803</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>1.63006850917975</v>
@@ -2935,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2949,7 +2955,7 @@
         <v>1.327934052323203</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E32">
         <v>1.63006850917975</v>
@@ -2985,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2999,7 +3005,7 @@
         <v>1.724897025074506</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>1.462709860729388</v>
@@ -3035,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3049,7 +3055,7 @@
         <v>1.713714740951758</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>1.462709860729388</v>
@@ -3085,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3099,7 +3105,7 @@
         <v>1.769842852372705</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>1.462709860729388</v>
@@ -3135,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3149,7 +3155,7 @@
         <v>1.758660568249956</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36">
         <v>1.510847732595075</v>
@@ -3185,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3199,7 +3205,7 @@
         <v>1.322532456829009</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>1.606867498612421</v>
@@ -3235,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3249,7 +3255,7 @@
         <v>1.316690094712042</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38">
         <v>1.606867498612421</v>
@@ -3285,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3299,7 +3305,7 @@
         <v>1.304788679670904</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E39">
         <v>1.606867498612421</v>
@@ -3335,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3349,7 +3355,7 @@
         <v>1.698715924927888</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40">
         <v>1.451820073210847</v>
@@ -3385,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3399,7 +3405,7 @@
         <v>1.703822090603589</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41">
         <v>1.451820073210847</v>
@@ -3435,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3449,7 +3455,7 @@
         <v>1.759241709824535</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E42">
         <v>1.451820073210847</v>
@@ -3485,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3499,7 +3505,7 @@
         <v>1.748453032479565</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43">
         <v>1.501243727217277</v>
@@ -3535,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3549,7 +3555,7 @@
         <v>1.313033413258619</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E44">
         <v>1.595925230190177</v>
@@ -3585,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3599,7 +3605,7 @@
         <v>1.307138570237948</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E45">
         <v>1.595925230190177</v>
@@ -3635,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3649,7 +3655,7 @@
         <v>1.293872651700511</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46">
         <v>1.595925230190177</v>
@@ -3685,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3699,7 +3705,7 @@
         <v>1.708440278144118</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47">
         <v>1.445287539361757</v>
@@ -3749,7 +3755,7 @@
         <v>1.75288232747506</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E48">
         <v>1.445287539361757</v>
@@ -3799,7 +3805,7 @@
         <v>1.742329765811383</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49">
         <v>1.495482504593743</v>
@@ -3849,7 +3855,7 @@
         <v>1.307335154816763</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <v>1.589361214250248</v>
@@ -3899,7 +3905,7 @@
         <v>1.301408829705253</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E51">
         <v>1.589361214250248</v>
@@ -3949,7 +3955,7 @@
         <v>1.287324376806003</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>1.589361214250248</v>
@@ -3999,7 +4005,7 @@
         <v>1.741577671463358</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>1.433675083310133</v>
@@ -4049,7 +4055,7 @@
         <v>1.793586527085793</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>1.433675083310133</v>
@@ -4099,7 +4105,7 @@
         <v>1.731444837126847</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55">
         <v>1.485241157810864</v>
@@ -4149,7 +4155,7 @@
         <v>1.297205735321128</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>1.577692794555001</v>
@@ -4199,7 +4205,7 @@
         <v>1.291223446565996</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>1.577692794555001</v>
@@ -4249,7 +4255,7 @@
         <v>1.275683938932566</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58">
         <v>1.577692794555001</v>
@@ -4349,7 +4355,7 @@
         <v>1.725587143730334</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E60">
         <v>1.417249169921011</v>
@@ -4399,7 +4405,7 @@
         <v>1.777556418838578</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61">
         <v>1.417249169921011</v>
@@ -4449,7 +4455,7 @@
         <v>1.716048017106683</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E62">
         <v>1.470754689617085</v>
@@ -4499,7 +4505,7 @@
         <v>1.282877589184112</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63">
         <v>1.561187720137498</v>
@@ -4549,7 +4555,7 @@
         <v>1.276816139400598</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E64">
         <v>1.561187720137498</v>
@@ -4599,7 +4605,7 @@
         <v>1.259218445029255</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65">
         <v>1.561187720137498</v>
@@ -4649,7 +4655,7 @@
         <v>1.799190602173319</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>1.767682200441425</v>
@@ -4699,7 +4705,7 @@
         <v>1.704528128435052</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67">
         <v>1.395616765595412</v>
@@ -4735,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4749,7 +4755,7 @@
         <v>1.756445277267813</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68">
         <v>1.395616765595412</v>
@@ -4785,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4799,7 +4805,7 @@
         <v>1.695770895943651</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E69">
         <v>1.451676472790171</v>
@@ -4835,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4849,7 +4855,7 @@
         <v>1.264007877459131</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E70">
         <v>1.539451063260933</v>
@@ -4885,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4899,7 +4905,7 @@
         <v>1.257842175124651</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E71">
         <v>1.539451063260933</v>
@@ -4935,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4949,7 +4955,7 @@
         <v>1.237533914428172</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E72">
         <v>1.539451063260933</v>
@@ -4985,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5035,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5049,7 +5055,7 @@
         <v>1.678683818930752</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>1.369068774396689</v>
@@ -5085,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5099,7 +5105,7 @@
         <v>1.730536996700383</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E75">
         <v>1.369068774396689</v>
@@ -5135,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5149,7 +5155,7 @@
         <v>1.670886152386294</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <v>1.428263063684791</v>
@@ -5185,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5199,7 +5205,7 @@
         <v>1.240850352606269</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E77">
         <v>1.51277512993595</v>
@@ -5235,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5249,7 +5255,7 @@
         <v>1.234556708145529</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E78">
         <v>1.51277512993595</v>
@@ -5285,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5299,7 +5305,7 @@
         <v>1.210921952166319</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E79">
         <v>1.51277512993595</v>
@@ -5335,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5349,7 +5355,7 @@
         <v>1.661963549027058</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80">
         <v>1.351893249619379</v>
@@ -5385,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5399,7 +5405,7 @@
         <v>1.713775339989997</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E81">
         <v>1.351893249619379</v>
@@ -5435,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5449,7 +5455,7 @@
         <v>1.654786684582984</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E82">
         <v>1.413115492435404</v>
@@ -5485,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5499,7 +5505,7 @@
         <v>1.225868328583652</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E83">
         <v>1.495516831545256</v>
@@ -5535,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5549,7 +5555,7 @@
         <v>1.219491910509528</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E84">
         <v>1.495516831545256</v>
@@ -5585,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5599,7 +5605,7 @@
         <v>1.193705040582317</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E85">
         <v>1.495516831545256</v>
@@ -5635,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5649,7 +5655,7 @@
         <v>1.600429769178104</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>1.338006244585976</v>
@@ -5685,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5699,7 +5705,7 @@
         <v>1.648444633283697</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87">
         <v>1.338006244585976</v>
@@ -5735,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5749,7 +5755,7 @@
         <v>1.700222961583904</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88">
         <v>1.338006244585976</v>
@@ -5785,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5799,7 +5805,7 @@
         <v>1.641769708780589</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E89">
         <v>1.400868157875824</v>
@@ -5835,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5849,7 +5855,7 @@
         <v>1.213754844674996</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E90">
         <v>1.48156290118639</v>
@@ -5885,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5899,7 +5905,7 @@
         <v>1.20731150127541</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E91">
         <v>1.48156290118639</v>
@@ -5935,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5949,7 +5955,7 @@
         <v>1.179784572886182</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E92">
         <v>1.48156290118639</v>
@@ -5985,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5999,7 +6005,7 @@
         <v>1.642770386608872</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>1.332177501095747</v>
@@ -6049,7 +6055,7 @@
         <v>1.636306139581315</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E94">
         <v>1.395727627472394</v>
@@ -6099,7 +6105,7 @@
         <v>1.208670494931713</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E95">
         <v>1.475706067366088</v>
@@ -6149,7 +6155,7 @@
         <v>1.202199061202053</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E96">
         <v>1.475706067366088</v>
@@ -6199,7 +6205,7 @@
         <v>1.173941784230917</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97">
         <v>1.475706067366088</v>
@@ -6249,7 +6255,7 @@
         <v>1.635648220856852</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E98">
         <v>1.324861414989093</v>
@@ -6285,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6299,7 +6305,7 @@
         <v>1.687394874868875</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99">
         <v>1.324861414989093</v>
@@ -6335,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6349,7 +6355,7 @@
         <v>1.629448410676523</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E100">
         <v>1.38927536840002</v>
@@ -6385,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6399,7 +6405,7 @@
         <v>1.202288752351933</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E101">
         <v>1.468354723013138</v>
@@ -6435,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6449,7 +6455,7 @@
         <v>1.195782060375976</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102">
         <v>1.468354723013138</v>
@@ -6485,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6499,7 +6505,7 @@
         <v>1.166608069001115</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103">
         <v>1.468354723013138</v>
@@ -6535,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6549,7 +6555,7 @@
         <v>1.636237432923918</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104">
         <v>1.325466669958976</v>
@@ -6585,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6599,7 +6605,7 @@
         <v>1.687985545381652</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>1.325466669958976</v>
@@ -6635,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6649,7 +6655,7 @@
         <v>1.630015746057932</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106">
         <v>1.389809159530085</v>
@@ -6685,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6699,7 +6705,7 @@
         <v>1.202816709699155</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107">
         <v>1.468962894874441</v>
@@ -6735,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6749,7 +6755,7 @@
         <v>1.19631293461462</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108">
         <v>1.468962894874441</v>
@@ -6785,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6799,7 +6805,7 @@
         <v>1.167214782416708</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E109">
         <v>1.468962894874441</v>
@@ -6835,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6885,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6899,7 +6905,7 @@
         <v>1.686969731933735</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111">
         <v>1.32442577469753</v>
@@ -6949,7 +6955,7 @@
         <v>1.688566437853383</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E112">
         <v>1.388891165154931</v>
@@ -6999,7 +7005,7 @@
         <v>1.116820833577004</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113">
         <v>1.46791698325029</v>
@@ -7049,7 +7055,7 @@
         <v>1.189838416471486</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114">
         <v>1.46791698325029</v>
@@ -7099,7 +7105,7 @@
         <v>1.16617137897391</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E115">
         <v>1.46791698325029</v>
@@ -7199,7 +7205,7 @@
         <v>1.679044765444968</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117">
         <v>1.316305130023856</v>
@@ -7235,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7249,7 +7255,7 @@
         <v>1.681071963371414</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>1.381729343587304</v>
@@ -7285,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7299,7 +7305,7 @@
         <v>1.109345926913525</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E119">
         <v>1.459757202939633</v>
@@ -7335,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7349,7 +7355,7 @@
         <v>1.116606291492413</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E120">
         <v>1.459757202939633</v>
@@ -7385,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7399,7 +7405,7 @@
         <v>1.158031166481744</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E121">
         <v>1.459757202939633</v>
@@ -7435,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7449,7 +7455,7 @@
         <v>1.667785062291963</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122">
         <v>1.323675609160295</v>
@@ -7485,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7535,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7549,7 +7555,7 @@
         <v>1.705523534148037</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124">
         <v>1.306151805217721</v>
@@ -7585,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7599,7 +7605,7 @@
         <v>1.0999999749233</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E125">
         <v>1.449554946447687</v>
@@ -7635,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7649,7 +7655,7 @@
         <v>1.107015681073126</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E126">
         <v>1.449554946447687</v>
@@ -7685,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7699,7 +7705,7 @@
         <v>1.074450234602739</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E127">
         <v>1.449554946447687</v>
@@ -7735,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7749,7 +7755,7 @@
         <v>1.728036618426774</v>
       </c>
       <c r="D128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128">
         <v>1.311858607036529</v>
@@ -7785,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7835,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7849,7 +7855,7 @@
         <v>1.735732764200063</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130">
         <v>1.301215982596513</v>
@@ -7899,7 +7905,7 @@
         <v>1.095456639402092</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E131">
         <v>1.444595336729509</v>
@@ -7949,7 +7955,7 @@
         <v>1.102353410067069</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E132">
         <v>1.444595336729509</v>
@@ -7999,7 +8005,7 @@
         <v>1.069526305530016</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E133">
         <v>1.444595336729509</v>
@@ -8099,7 +8105,7 @@
         <v>1.767688434264066</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135">
         <v>1.290978663803567</v>
@@ -8149,7 +8155,7 @@
         <v>1.08603337246497</v>
       </c>
       <c r="D136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E136">
         <v>1.434308681460452</v>
@@ -8199,7 +8205,7 @@
         <v>1.092683460749394</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E137">
         <v>1.434308681460452</v>
@@ -8249,7 +8255,7 @@
         <v>1.059313654975125</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E138">
         <v>1.434308681460452</v>
@@ -8685,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8735,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8785,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8835,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8885,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8899,7 +8905,7 @@
         <v>1.823420612308294</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E151">
         <v>2.204728303692967</v>
@@ -8935,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8985,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9035,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9085,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9135,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9185,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9235,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9285,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9299,7 +9305,7 @@
         <v>2.07884565528049</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E159">
         <v>2.424795934638657</v>
@@ -9335,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9385,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9435,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9449,7 +9455,7 @@
         <v>2.074698477808512</v>
       </c>
       <c r="D162" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E162">
         <v>2.228712809543505</v>
@@ -9485,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9535,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9585,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9635,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9749,7 +9755,7 @@
         <v>2.045995448659537</v>
       </c>
       <c r="D168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E168">
         <v>2.697722827185737</v>
@@ -9899,7 +9905,7 @@
         <v>2.025703573192318</v>
       </c>
       <c r="D171" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E171">
         <v>2.585859069325287</v>
@@ -9985,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9999,7 +10005,7 @@
         <v>2.002237248721763</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E173">
         <v>2.933150127071722</v>
@@ -10035,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10085,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10099,7 +10105,7 @@
         <v>2.14690100237887</v>
       </c>
       <c r="D175" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E175">
         <v>3.035145626224377</v>
@@ -10135,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10185,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10199,7 +10205,7 @@
         <v>2.113865641885164</v>
       </c>
       <c r="D177" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E177">
         <v>2.99862999271211</v>
@@ -10235,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10285,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10335,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10349,7 +10355,7 @@
         <v>2.224552854469621</v>
       </c>
       <c r="D180" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E180">
         <v>2.747562112891602</v>
@@ -10385,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10399,7 +10405,7 @@
         <v>2.234582155562626</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E181">
         <v>2.747562112891602</v>
@@ -10435,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10449,7 +10455,7 @@
         <v>2.532227490792448</v>
       </c>
       <c r="D182" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E182">
         <v>2.747562112891602</v>
@@ -10485,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10535,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10585,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10599,7 +10605,7 @@
         <v>2.219578642489605</v>
       </c>
       <c r="D185" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E185">
         <v>2.748307309478141</v>
@@ -10635,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10649,7 +10655,7 @@
         <v>2.229273046142372</v>
       </c>
       <c r="D186" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E186">
         <v>2.748307309478141</v>
@@ -10685,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10699,7 +10705,7 @@
         <v>2.526938081221619</v>
       </c>
       <c r="D187" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E187">
         <v>2.748307309478141</v>
@@ -10735,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10785,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10835,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10849,7 +10855,7 @@
         <v>2.223095119495316</v>
       </c>
       <c r="D190" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E190">
         <v>2.585306324177835</v>
@@ -10885,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10899,7 +10905,7 @@
         <v>2.233026276055397</v>
       </c>
       <c r="D191" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E191">
         <v>2.585306324177835</v>
@@ -10935,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10949,7 +10955,7 @@
         <v>2.530677384493038</v>
       </c>
       <c r="D192" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E192">
         <v>2.585306324177835</v>
@@ -10985,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11035,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11085,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11099,7 +11105,7 @@
         <v>2.351296670264901</v>
       </c>
       <c r="D195" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E195">
         <v>2.34477901699545</v>
@@ -11135,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11149,7 +11155,7 @@
         <v>2.531296670264901</v>
       </c>
       <c r="D196" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E196">
         <v>2.34477901699545</v>
@@ -11185,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11235,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11285,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11335,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11349,7 +11355,7 @@
         <v>2.354338556588907</v>
       </c>
       <c r="D200" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E200">
         <v>2.692933327062218</v>
@@ -11385,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11399,7 +11405,7 @@
         <v>2.534338556588906</v>
       </c>
       <c r="D201" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E201">
         <v>2.692933327062218</v>
@@ -11435,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11485,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11535,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11585,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11599,7 +11605,7 @@
         <v>2.353252705775172</v>
       </c>
       <c r="D205" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E205">
         <v>3.037215179660817</v>
@@ -11635,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11649,7 +11655,7 @@
         <v>2.533252705775172</v>
       </c>
       <c r="D206" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E206">
         <v>3.037215179660817</v>
@@ -11685,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11699,7 +11705,7 @@
         <v>-1.066638455738899</v>
       </c>
       <c r="D207" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E207">
         <v>-1.465413797453388</v>
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11749,7 +11755,7 @@
         <v>-1.0366384557389</v>
       </c>
       <c r="D208" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E208">
         <v>-1.465413797453388</v>
@@ -11785,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11799,7 +11805,7 @@
         <v>-0.9510556888450674</v>
       </c>
       <c r="D209" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E209">
         <v>-1.465413797453388</v>
@@ -11835,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11849,7 +11855,7 @@
         <v>-1.819265145803461</v>
       </c>
       <c r="D210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E210">
         <v>-1.307592851757549</v>
@@ -11885,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11899,7 +11905,7 @@
         <v>-1.771950960365871</v>
       </c>
       <c r="D211" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E211">
         <v>-1.297263464992842</v>
@@ -11935,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11949,7 +11955,7 @@
         <v>-1.016934078228135</v>
       </c>
       <c r="D212" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E212">
         <v>-1.07654556696558</v>
@@ -11985,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -11999,7 +12005,7 @@
         <v>-1.083441760674821</v>
       </c>
       <c r="D213" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E213">
         <v>-1.481089607902267</v>
@@ -12035,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12049,7 +12055,7 @@
         <v>-1.053441760674821</v>
       </c>
       <c r="D214" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E214">
         <v>-1.481089607902267</v>
@@ -12085,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12099,7 +12105,7 @@
         <v>-0.9668769824535648</v>
       </c>
       <c r="D215" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E215">
         <v>-1.481089607902267</v>
@@ -12135,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12149,7 +12155,7 @@
         <v>-1.83581385521005</v>
       </c>
       <c r="D216" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E216">
         <v>-1.323195920626619</v>
@@ -12185,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12199,7 +12205,7 @@
         <v>-1.787408546075322</v>
       </c>
       <c r="D217" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E217">
         <v>-1.311375331475824</v>
@@ -12235,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12285,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12299,7 +12305,7 @@
         <v>-1.07759404974841</v>
       </c>
       <c r="D219" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E219">
         <v>-1.503621288834554</v>
@@ -12335,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12349,7 +12355,7 @@
         <v>-0.9896177741137624</v>
       </c>
       <c r="D220" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E220">
         <v>-1.503621288834554</v>
@@ -12385,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12399,7 +12405,7 @@
         <v>-1.859600200509798</v>
       </c>
       <c r="D221" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E221">
         <v>-1.345623046194952</v>
@@ -12435,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12449,7 +12455,7 @@
         <v>-1.809626560915746</v>
       </c>
       <c r="D222" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E222">
         <v>-1.33165907208308</v>
@@ -12485,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12499,7 +12505,7 @@
         <v>-1.047695097971209</v>
       </c>
       <c r="D223" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E223">
         <v>-1.119714428935569</v>
@@ -12535,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12549,7 +12555,7 @@
         <v>-1.107622621715292</v>
       </c>
       <c r="D224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E224">
         <v>-1.53163495662184</v>
@@ -12599,7 +12605,7 @@
         <v>-1.017891429537125</v>
       </c>
       <c r="D225" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E225">
         <v>-1.53163495662184</v>
@@ -12649,7 +12655,7 @@
         <v>-1.889173794113544</v>
       </c>
       <c r="D226" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E226">
         <v>-1.373506720164198</v>
@@ -12699,7 +12705,7 @@
         <v>-1.837250247248916</v>
       </c>
       <c r="D227" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E227">
         <v>-1.356877872782539</v>
@@ -12799,7 +12805,7 @@
         <v>-1.136466558905362</v>
       </c>
       <c r="D229" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E229">
         <v>-1.55854347811301</v>
@@ -12835,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12849,7 +12855,7 @@
         <v>-1.045049682086217</v>
       </c>
       <c r="D230" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E230">
         <v>-1.55854347811301</v>
@@ -12885,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12899,7 +12905,7 @@
         <v>-1.91758070195225</v>
       </c>
       <c r="D231" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E231">
         <v>-1.400290376126407</v>
@@ -12935,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12949,7 +12955,7 @@
         <v>-1.863784172153202</v>
       </c>
       <c r="D232" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E232">
         <v>-1.38110178540104</v>
@@ -12985,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -12999,7 +13005,7 @@
         <v>-1.091913194675672</v>
       </c>
       <c r="D233" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E233">
         <v>-0.942243215869925</v>
@@ -13035,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13049,7 +13055,7 @@
         <v>-1.06938217480964</v>
       </c>
       <c r="D234" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E234">
         <v>-0.942243215869925</v>
@@ -13085,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13099,7 +13105,7 @@
         <v>-1.09938217480964</v>
       </c>
       <c r="D235" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E235">
         <v>-0.942243215869925</v>
@@ -13135,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13149,7 +13155,7 @@
         <v>-1.069955605077879</v>
       </c>
       <c r="D236" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E236">
         <v>-1.583220381123139</v>
@@ -13199,7 +13205,7 @@
         <v>-1.943631724851574</v>
       </c>
       <c r="D237" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E237">
         <v>-1.42485276914577</v>
@@ -13249,7 +13255,7 @@
         <v>-1.888117545191031</v>
       </c>
       <c r="D238" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E238">
         <v>-1.403316723609694</v>
@@ -13299,7 +13305,7 @@
         <v>-1.111780678073619</v>
       </c>
       <c r="D239" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E239">
         <v>-0.8811636624809664</v>
@@ -13349,7 +13355,7 @@
         <v>-1.088104558299923</v>
       </c>
       <c r="D240" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E240">
         <v>-0.8811636624809664</v>
@@ -13399,7 +13405,7 @@
         <v>-1.118104558299923</v>
       </c>
       <c r="D241" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E241">
         <v>-0.8811636624809664</v>
@@ -13449,7 +13455,7 @@
         <v>-1.100958399511376</v>
       </c>
       <c r="D242" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E242">
         <v>-1.613938092389432</v>
@@ -13485,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13499,7 +13505,7 @@
         <v>-1.976059935121095</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E243">
         <v>-1.455427938828461</v>
@@ -13535,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13549,7 +13555,7 @@
         <v>-1.918407631706518</v>
       </c>
       <c r="D244" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E244">
         <v>-1.430969790828538</v>
@@ -13585,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13599,7 +13605,7 @@
         <v>-1.136511642828615</v>
       </c>
       <c r="D245" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E245">
         <v>-1.028859339414037</v>
@@ -13635,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13649,7 +13655,7 @@
         <v>-1.111410107218897</v>
       </c>
       <c r="D246" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E246">
         <v>-1.028859339414037</v>
@@ -13685,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13699,7 +13705,7 @@
         <v>-1.141410107218897</v>
       </c>
       <c r="D247" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E247">
         <v>-1.028859339414037</v>
@@ -13735,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13749,7 +13755,7 @@
         <v>-1.117512484565025</v>
       </c>
       <c r="D248" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E248">
         <v>-1.630339955971323</v>
@@ -13785,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13799,7 +13805,7 @@
         <v>-1.993375127533532</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E249">
         <v>-1.471753691674473</v>
@@ -13835,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13849,7 +13855,7 @@
         <v>-1.934581163080772</v>
       </c>
       <c r="D250" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E250">
         <v>-1.445735273589034</v>
@@ -13885,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13899,7 +13905,7 @@
         <v>-1.149716855503595</v>
       </c>
       <c r="D251" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E251">
         <v>-1.032336626753983</v>
@@ -13935,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13949,7 +13955,7 @@
         <v>-1.123854212535088</v>
       </c>
       <c r="D252" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E252">
         <v>-1.032336626753983</v>
@@ -13985,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -13999,7 +14005,7 @@
         <v>-1.153854212535088</v>
       </c>
       <c r="D253" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E253">
         <v>-1.032336626753983</v>
@@ -14035,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14049,7 +14055,7 @@
         <v>-1.135440729342402</v>
       </c>
       <c r="D254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E254">
         <v>-1.64810334332546</v>
@@ -14085,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14099,7 +14105,7 @@
         <v>-2.012127659427111</v>
       </c>
       <c r="D255" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E255">
         <v>-1.489434650316991</v>
@@ -14135,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14149,7 +14155,7 @@
         <v>-1.95209726430005</v>
       </c>
       <c r="D256" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E256">
         <v>-1.461726443643339</v>
@@ -14185,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14199,7 +14205,7 @@
         <v>-1.164018236969687</v>
       </c>
       <c r="D257" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E257">
         <v>-1.112656534851095</v>
@@ -14235,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14249,7 +14255,7 @@
         <v>-1.137331306884979</v>
       </c>
       <c r="D258" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E258">
         <v>-1.112656534851095</v>
@@ -14285,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14299,7 +14305,7 @@
         <v>-1.167331306884979</v>
       </c>
       <c r="D259" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E259">
         <v>-1.112656534851095</v>
@@ -14335,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14349,7 +14355,7 @@
         <v>-2.029751754240792</v>
       </c>
       <c r="D260" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E260">
         <v>-1.506051653998461</v>
@@ -14399,7 +14405,7 @@
         <v>-1.968559330884256</v>
       </c>
       <c r="D261" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E261">
         <v>-1.476755342077862</v>
@@ -14449,7 +14455,7 @@
         <v>-1.177459030157264</v>
       </c>
       <c r="D262" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E262">
         <v>-1.113758929914932</v>
@@ -14499,7 +14505,7 @@
         <v>-1.149997414586239</v>
       </c>
       <c r="D263" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E263">
         <v>-1.113758929914932</v>
@@ -14549,7 +14555,7 @@
         <v>-1.179997414586239</v>
       </c>
       <c r="D264" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E264">
         <v>-1.113758929914932</v>
@@ -14599,7 +14605,7 @@
         <v>-2.049264235927141</v>
       </c>
       <c r="D265" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E265">
         <v>-1.524449136731304</v>
@@ -14635,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14649,7 +14655,7 @@
         <v>-1.986785275316561</v>
       </c>
       <c r="D266" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E266">
         <v>-1.493394557230178</v>
@@ -14685,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14699,7 +14705,7 @@
         <v>-1.192339977729051</v>
       </c>
       <c r="D267" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E267">
         <v>-0.9807727745942727</v>
@@ -14735,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14749,7 +14755,7 @@
         <v>-1.16402067065533</v>
       </c>
       <c r="D268" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E268">
         <v>-0.9807727745942727</v>
@@ -14785,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -14799,7 +14805,7 @@
         <v>-1.19402067065533</v>
       </c>
       <c r="D269" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E269">
         <v>-0.9807727745942727</v>
@@ -14835,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -14849,7 +14855,7 @@
         <v>-2.083260847634321</v>
       </c>
       <c r="D270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E270">
         <v>-1.55650308491236</v>
@@ -14885,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -14899,7 +14905,7 @@
         <v>-2.018540352185904</v>
       </c>
       <c r="D271" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E271">
         <v>-1.52238507446619</v>
@@ -14935,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -14949,7 +14955,7 @@
         <v>-1.218267064020021</v>
       </c>
       <c r="D272" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E272">
         <v>-1.15072047992809</v>
@@ -14985,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -14999,7 +15005,7 @@
         <v>-1.188453400387743</v>
       </c>
       <c r="D273" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E273">
         <v>-1.15072047992809</v>
@@ -15035,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15049,7 +15055,7 @@
         <v>-1.218453400387743</v>
       </c>
       <c r="D274" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E274">
         <v>-1.15072047992809</v>
@@ -15085,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15099,7 +15105,7 @@
         <v>-2.129173370599524</v>
       </c>
       <c r="D275" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E275">
         <v>-1.599792035136694</v>
@@ -15135,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15149,7 +15155,7 @@
         <v>-2.061425675834721</v>
       </c>
       <c r="D276" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E276">
         <v>-1.561536852291463</v>
@@ -15185,7 +15191,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15199,7 +15205,7 @@
         <v>-1.253281669446231</v>
       </c>
       <c r="D277" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E277">
         <v>-1.285422798224685</v>
@@ -15235,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15249,7 +15255,7 @@
         <v>-1.221449872936362</v>
       </c>
       <c r="D278" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E278">
         <v>-1.285422798224685</v>
@@ -15285,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15299,7 +15305,7 @@
         <v>-1.251449872936362</v>
       </c>
       <c r="D279" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E279">
         <v>-1.285422798224685</v>
@@ -15335,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15349,7 +15355,7 @@
         <v>-2.169540849194301</v>
       </c>
       <c r="D280" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E280">
         <v>-1.637852800668912</v>
@@ -15385,7 +15391,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15399,7 +15405,7 @@
         <v>-2.099131562434238</v>
       </c>
       <c r="D281" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E281">
         <v>-1.595960108763492</v>
@@ -15435,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15449,7 +15455,7 @@
         <v>-1.284067416858071</v>
       </c>
       <c r="D282" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E282">
         <v>-1.430231131562097</v>
@@ -15485,7 +15491,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15499,7 +15505,7 @@
         <v>-1.250461225684695</v>
       </c>
       <c r="D283" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E283">
         <v>-1.430231131562097</v>
@@ -15535,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15549,7 +15555,7 @@
         <v>-1.280461225684695</v>
       </c>
       <c r="D284" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E284">
         <v>-1.430231131562097</v>
@@ -15585,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15599,7 +15605,7 @@
         <v>-2.189959023684696</v>
       </c>
       <c r="D285" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E285">
         <v>-1.657104222331285</v>
@@ -15635,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15649,7 +15655,7 @@
         <v>-2.11820348366153</v>
       </c>
       <c r="D286" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E286">
         <v>-1.613371650966291</v>
@@ -15685,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15699,7 +15705,7 @@
         <v>-1.299639079601296</v>
       </c>
       <c r="D287" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E287">
         <v>-1.362715372273368</v>
@@ -15735,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15749,7 +15755,7 @@
         <v>-1.265135386252518</v>
       </c>
       <c r="D288" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E288">
         <v>-1.362715372273368</v>
@@ -15785,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -15799,7 +15805,7 @@
         <v>-1.295135386252518</v>
       </c>
       <c r="D289" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E289">
         <v>-1.362715372273368</v>
@@ -15835,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -15849,7 +15855,7 @@
         <v>-2.214173184477514</v>
       </c>
       <c r="D290" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E290">
         <v>-1.679934716793084</v>
@@ -15885,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -15899,7 +15905,7 @@
         <v>-2.140821106380096</v>
       </c>
       <c r="D291" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E291">
         <v>-1.634020210059946</v>
@@ -15935,7 +15941,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -15949,7 +15955,7 @@
         <v>-1.318105703326807</v>
       </c>
       <c r="D292" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E292">
         <v>-1.489781742375517</v>
@@ -15985,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -15999,7 +16005,7 @@
         <v>-1.282537651261862</v>
       </c>
       <c r="D293" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E293">
         <v>-1.489781742375517</v>
@@ -16035,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16049,7 +16055,7 @@
         <v>-1.312537651261862</v>
       </c>
       <c r="D294" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E294">
         <v>-1.489781742375517</v>
@@ -16085,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16099,7 +16105,7 @@
         <v>-2.241121102143395</v>
       </c>
       <c r="D295" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E295">
         <v>-1.705342753449486</v>
@@ -16135,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16149,7 +16155,7 @@
         <v>-2.165992238265808</v>
       </c>
       <c r="D296" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E296">
         <v>-1.656999972816785</v>
@@ -16185,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16199,7 +16205,7 @@
         <v>-1.338657192184084</v>
       </c>
       <c r="D297" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E297">
         <v>-1.427033480143279</v>
@@ -16235,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16249,7 +16255,7 @@
         <v>-1.301904616265692</v>
       </c>
       <c r="D298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E298">
         <v>-1.427033480143279</v>
@@ -16285,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16299,7 +16305,7 @@
         <v>-1.331904616265692</v>
       </c>
       <c r="D299" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E299">
         <v>-1.427033480143279</v>
@@ -16335,7 +16341,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16349,7 +16355,7 @@
         <v>1.347720014974502</v>
       </c>
       <c r="D300" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E300">
         <v>1.579062118830282</v>
@@ -16385,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16399,7 +16405,7 @@
         <v>1.334700016044109</v>
       </c>
       <c r="D301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E301">
         <v>1.593089491417174</v>
@@ -16435,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16449,7 +16455,7 @@
         <v>1.841747387561394</v>
       </c>
       <c r="D302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E302">
         <v>1.890874754800249</v>
@@ -16485,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16499,7 +16505,7 @@
         <v>1.862485279427185</v>
       </c>
       <c r="D303" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E303">
         <v>1.890874754800249</v>
@@ -16535,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16549,7 +16555,7 @@
         <v>1.441706845387347</v>
       </c>
       <c r="D304" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E304">
         <v>1.664215600520115</v>
@@ -16585,7 +16591,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16599,7 +16605,7 @@
         <v>1.435400191486443</v>
       </c>
       <c r="D305" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E305">
         <v>1.704389685327122</v>
@@ -16635,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16649,7 +16655,7 @@
         <v>1.856584782452771</v>
       </c>
       <c r="D306" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E306">
         <v>1.861880930194354</v>
@@ -16685,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16699,7 +16705,7 @@
         <v>1.9645987906652</v>
       </c>
       <c r="D307" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E307">
         <v>1.861880930194354</v>
@@ -16735,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16749,7 +16755,7 @@
         <v>2.014804950663784</v>
       </c>
       <c r="D308" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E308">
         <v>1.689180786611569</v>
@@ -16785,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -16799,7 +16805,7 @@
         <v>1.927301606872644</v>
       </c>
       <c r="D309" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E309">
         <v>1.689180786611569</v>
@@ -16835,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -16849,7 +16855,7 @@
         <v>1.922617032689892</v>
       </c>
       <c r="D310" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E310">
         <v>1.689180786611569</v>
@@ -16885,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -16899,7 +16905,7 @@
         <v>1.696992868637676</v>
       </c>
       <c r="D311" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E311">
         <v>1.791368704585461</v>
@@ -16935,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -16985,7 +16991,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17035,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17085,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17135,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17185,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17235,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17249,7 +17255,7 @@
         <v>1.869784887916945</v>
       </c>
       <c r="D318" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E318">
         <v>1.868536559812515</v>
@@ -17285,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17299,7 +17305,7 @@
         <v>1.892281544125805</v>
       </c>
       <c r="D319" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E319">
         <v>1.868536559812515</v>
@@ -17335,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17349,7 +17355,7 @@
         <v>1.879784887916945</v>
       </c>
       <c r="D320" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E320">
         <v>1.868536559812515</v>
@@ -17385,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17399,7 +17405,7 @@
         <v>1.830509026107986</v>
       </c>
       <c r="D321" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E321">
         <v>1.588842690067986</v>
@@ -17435,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17449,7 +17455,7 @@
         <v>1.823342590879987</v>
       </c>
       <c r="D322" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E322">
         <v>1.588842690067986</v>
@@ -17485,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17499,7 +17505,7 @@
         <v>1.597009323671986</v>
       </c>
       <c r="D323" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E323">
         <v>1.690676056463986</v>
@@ -17535,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17549,7 +17555,7 @@
         <v>1.564008728543987</v>
       </c>
       <c r="D324" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E324">
         <v>1.690841103059988</v>
@@ -17585,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17599,7 +17605,7 @@
         <v>1.612175362147987</v>
       </c>
       <c r="D325" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E325">
         <v>1.690841103059988</v>
@@ -17635,7 +17641,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17649,7 +17655,7 @@
         <v>1.608508629355987</v>
       </c>
       <c r="D326" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E326">
         <v>1.690841103059988</v>
@@ -17685,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17699,7 +17705,7 @@
         <v>1.611175163771987</v>
       </c>
       <c r="D327" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E327">
         <v>1.690841103059988</v>
@@ -17735,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17785,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -17799,7 +17805,7 @@
         <v>1.787174370267988</v>
       </c>
       <c r="D329" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E329">
         <v>1.578675659711986</v>
@@ -17835,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -17849,7 +17855,7 @@
         <v>1.812507439099989</v>
       </c>
       <c r="D330" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E330">
         <v>1.578675659711986</v>
@@ -17885,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -17899,7 +17905,7 @@
         <v>1.783507637475988</v>
       </c>
       <c r="D331" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E331">
         <v>1.578675659711986</v>
@@ -17935,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -17949,7 +17955,7 @@
         <v>1.797174370267989</v>
       </c>
       <c r="D332" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E332">
         <v>1.578675659711986</v>
@@ -17985,7 +17991,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -17999,7 +18005,7 @@
         <v>1.796508232603987</v>
       </c>
       <c r="D333" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E333">
         <v>1.578675659711986</v>
@@ -18035,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18049,7 +18055,7 @@
         <v>1.60619577124814</v>
       </c>
       <c r="D334" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E334">
         <v>1.409496709559184</v>
@@ -18085,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18099,7 +18105,7 @@
         <v>1.639829926132983</v>
       </c>
       <c r="D335" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E335">
         <v>1.409496709559184</v>
@@ -18135,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18149,7 +18155,7 @@
         <v>1.641634855442047</v>
       </c>
       <c r="D336" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E336">
         <v>1.409496709559184</v>
@@ -18185,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18199,7 +18205,7 @@
         <v>1.294651169712725</v>
       </c>
       <c r="D337" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E337">
         <v>1.17011455017335</v>
@@ -18235,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18249,7 +18255,7 @@
         <v>1.309805629866267</v>
       </c>
       <c r="D338" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E338">
         <v>1.17011455017335</v>
@@ -18285,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18299,7 +18305,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D339" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E339">
         <v>1.17011455017335</v>
@@ -18335,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18349,7 +18355,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D340" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E340">
         <v>1.17011455017335</v>
@@ -18385,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18399,7 +18405,7 @@
         <v>1.306789315595589</v>
       </c>
       <c r="D341" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E341">
         <v>1.17011455017335</v>
@@ -18435,7 +18441,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18449,7 +18455,7 @@
         <v>1.225269010326891</v>
       </c>
       <c r="D342" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E342">
         <v>1.17011455017335</v>
@@ -18485,7 +18491,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18499,7 +18505,7 @@
         <v>1.444294269397325</v>
       </c>
       <c r="D343" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E343">
         <v>1.256000185094495</v>
@@ -18549,7 +18555,7 @@
         <v>1.501117816501946</v>
       </c>
       <c r="D344" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E344">
         <v>1.256000185094495</v>
@@ -18599,7 +18605,7 @@
         <v>1.083058995014017</v>
       </c>
       <c r="D345" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E345">
         <v>1.093353102453659</v>
@@ -18649,7 +18655,7 @@
         <v>1.408730452400234</v>
       </c>
       <c r="D346" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E346">
         <v>1.224172692200284</v>
@@ -18685,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18699,7 +18705,7 @@
         <v>1.47198161896276</v>
       </c>
       <c r="D347" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E347">
         <v>1.224172692200284</v>
@@ -18735,7 +18741,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18785,7 +18791,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -18799,7 +18805,7 @@
         <v>1.382122760311682</v>
       </c>
       <c r="D349" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E349">
         <v>1.191863351807043</v>
@@ -18835,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -18849,7 +18855,7 @@
         <v>1.442404318382183</v>
       </c>
       <c r="D350" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E350">
         <v>1.191863351807043</v>
@@ -18885,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -18935,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -18949,7 +18955,7 @@
         <v>1.370401955803482</v>
       </c>
       <c r="D352" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E352">
         <v>1.1776309463328</v>
@@ -18999,7 +19005,7 @@
         <v>1.429375388370835</v>
       </c>
       <c r="D353" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E353">
         <v>1.1776309463328</v>
@@ -19049,7 +19055,7 @@
         <v>1.010452200278918</v>
       </c>
       <c r="D354" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E354">
         <v>1.015068140738506</v>
@@ -19099,7 +19105,7 @@
         <v>1.025068140738506</v>
       </c>
       <c r="D355" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E355">
         <v>1.015068140738506</v>
@@ -19149,7 +19155,7 @@
         <v>1.355513343522262</v>
       </c>
       <c r="D356" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E356">
         <v>1.159551917134175</v>
@@ -19185,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19199,7 +19205,7 @@
         <v>1.4128251006118</v>
       </c>
       <c r="D357" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E357">
         <v>1.159551917134175</v>
@@ -19235,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19249,7 +19255,7 @@
         <v>0.9937025114625451</v>
       </c>
       <c r="D358" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E358">
         <v>1.019315457208822</v>
@@ -19285,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19299,7 +19305,7 @@
         <v>1.009315457208822</v>
       </c>
       <c r="D359" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E359">
         <v>1.019315457208822</v>
@@ -19335,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19349,7 +19355,7 @@
         <v>1.344301537527252</v>
       </c>
       <c r="D360" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E360">
         <v>1.145937581283092</v>
@@ -19399,7 +19405,7 @@
         <v>1.400361976983419</v>
       </c>
       <c r="D361" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E361">
         <v>1.145937581283092</v>
@@ -19549,7 +19555,7 @@
         <v>1.32595157423566</v>
       </c>
       <c r="D364" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E364">
         <v>1.123655483000445</v>
@@ -19585,7 +19591,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19599,7 +19605,7 @@
         <v>1.379964026717319</v>
       </c>
       <c r="D365" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E365">
         <v>1.123655483000445</v>
@@ -19635,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19649,7 +19655,7 @@
         <v>0.9604455210151182</v>
       </c>
       <c r="D366" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E366">
         <v>0.9494825324195202</v>
@@ -19685,7 +19691,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19699,7 +19705,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D367" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E367">
         <v>0.9494825324195202</v>
@@ -19735,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19749,7 +19755,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D368" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E368">
         <v>0.9494825324195202</v>
@@ -19785,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -19799,7 +19805,7 @@
         <v>0.93948253241952</v>
       </c>
       <c r="D369" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E369">
         <v>0.9494825324195202</v>
@@ -19835,7 +19841,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -19849,7 +19855,7 @@
         <v>1.346901155844391</v>
       </c>
       <c r="D370" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E370">
         <v>1.225539647019887</v>
@@ -19885,7 +19891,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -19899,7 +19905,7 @@
         <v>1.331298641136886</v>
       </c>
       <c r="D371" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E371">
         <v>1.225539647019887</v>
@@ -19935,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -19949,7 +19955,7 @@
         <v>1.154256377900131</v>
       </c>
       <c r="D372" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E372">
         <v>1.26001537201713</v>
@@ -19985,7 +19991,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -19999,7 +20005,7 @@
         <v>1.14857562348788</v>
       </c>
       <c r="D373" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E373">
         <v>1.274334617604878</v>
@@ -20035,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20049,7 +20055,7 @@
         <v>1.324412857309625</v>
       </c>
       <c r="D374" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E374">
         <v>1.205852605838874</v>
@@ -20085,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20099,7 +20105,7 @@
         <v>1.043943419081145</v>
       </c>
       <c r="D375" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E375">
         <v>1.269702413198143</v>
@@ -20135,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20149,7 +20155,7 @@
         <v>1.36666643673015</v>
       </c>
       <c r="D376" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E376">
         <v>1.400907442613152</v>
@@ -20185,7 +20191,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20199,7 +20205,7 @@
         <v>1.3381061852594</v>
       </c>
       <c r="D377" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E377">
         <v>1.400907442613152</v>
@@ -20235,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20249,7 +20255,7 @@
         <v>1.337921514632137</v>
       </c>
       <c r="D378" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E378">
         <v>1.216329758597064</v>
@@ -20299,7 +20305,7 @@
         <v>1.321935254573682</v>
       </c>
       <c r="D379" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E379">
         <v>1.216329758597064</v>
@@ -20349,7 +20355,7 @@
         <v>1.144547620521072</v>
       </c>
       <c r="D380" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E380">
         <v>1.250153116497689</v>
@@ -20399,7 +20405,7 @@
         <v>1.138751742503535</v>
       </c>
       <c r="D381" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E381">
         <v>1.264357238480152</v>
@@ -20449,7 +20455,7 @@
         <v>1.314166856439233</v>
       </c>
       <c r="D382" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E382">
         <v>1.195568230433388</v>
@@ -20499,7 +20505,7 @@
         <v>1.035309148684748</v>
       </c>
       <c r="D383" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E383">
         <v>1.260914644661365</v>
@@ -20649,7 +20655,7 @@
         <v>1.326338641239302</v>
       </c>
       <c r="D386" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E386">
         <v>1.204449888450566</v>
@@ -20685,7 +20691,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20699,7 +20705,7 @@
         <v>1.309857386591409</v>
       </c>
       <c r="D387" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E387">
         <v>1.204449888450566</v>
@@ -20735,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20749,7 +20755,7 @@
         <v>1.132024257408305</v>
       </c>
       <c r="D388" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E388">
         <v>1.237431755549148</v>
@@ -20785,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -20799,7 +20805,7 @@
         <v>1.126079881013937</v>
       </c>
       <c r="D389" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E389">
         <v>1.25148737915478</v>
@@ -20835,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -20849,7 +20855,7 @@
         <v>1.300950500901255</v>
       </c>
       <c r="D390" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E390">
         <v>1.182302375436465</v>
@@ -20885,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -20899,7 +20905,7 @@
         <v>1.024171770422406</v>
       </c>
       <c r="D391" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E391">
         <v>1.249579268563249</v>
@@ -20935,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -20949,7 +20955,7 @@
         <v>1.347949275999877</v>
       </c>
       <c r="D392" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E392">
         <v>1.407134279718192</v>
@@ -20985,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -20999,7 +21005,7 @@
         <v>1.319301150535088</v>
       </c>
       <c r="D393" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E393">
         <v>1.407134279718192</v>
@@ -21035,7 +21041,7 @@
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21049,7 +21055,7 @@
         <v>1.31894662096582</v>
       </c>
       <c r="D394" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E394">
         <v>1.196868329195712</v>
@@ -21085,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21099,7 +21105,7 @@
         <v>1.302149468015641</v>
       </c>
       <c r="D395" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E395">
         <v>1.196868329195712</v>
@@ -21135,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21149,7 +21155,7 @@
         <v>1.12403203036048</v>
       </c>
       <c r="D396" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E396">
         <v>1.229313169180409</v>
@@ -21185,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21199,7 +21205,7 @@
         <v>1.117992884475426</v>
       </c>
       <c r="D397" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E397">
         <v>1.243274023295355</v>
@@ -21235,7 +21241,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21249,7 +21255,7 @@
         <v>1.017064058620981</v>
       </c>
       <c r="D398" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E398">
         <v>1.242345197440909</v>
@@ -21285,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21335,7 +21341,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21385,7 +21391,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -21399,7 +21405,7 @@
         <v>1.309314370259902</v>
       </c>
       <c r="D401" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E401">
         <v>1.212105582664171</v>
@@ -21435,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -21449,7 +21455,7 @@
         <v>1.113617673828013</v>
       </c>
       <c r="D402" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E402">
         <v>1.218734158789721</v>
@@ -21485,7 +21491,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -21499,7 +21505,7 @@
         <v>1.107455037549294</v>
       </c>
       <c r="D403" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E403">
         <v>1.232571522511002</v>
@@ -21535,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -21549,7 +21555,7 @@
         <v>1.00780227909606</v>
       </c>
       <c r="D404" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E404">
         <v>1.232918764057767</v>
@@ -21585,7 +21591,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -21635,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -21685,7 +21691,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -21735,7 +21741,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -21749,7 +21755,7 @@
         <v>1.096911392393543</v>
       </c>
       <c r="D408" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E408">
         <v>1.20176374642348</v>
@@ -21785,7 +21791,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -21799,7 +21805,7 @@
         <v>1.090550657915995</v>
       </c>
       <c r="D409" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E409">
         <v>1.215403011945933</v>
@@ -21835,7 +21841,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -21849,7 +21855,7 @@
         <v>0.9929449141839808</v>
       </c>
       <c r="D410" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E410">
         <v>1.217797268213918</v>
@@ -21885,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -21935,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -21985,7 +21991,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -21999,7 +22005,7 @@
         <v>1.076787728620787</v>
       </c>
       <c r="D413" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E413">
         <v>1.194722566962074</v>
@@ -22035,7 +22041,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22049,7 +22055,7 @@
         <v>1.070188373624195</v>
       </c>
       <c r="D414" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E414">
         <v>1.194722566962074</v>
@@ -22085,7 +22091,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22099,7 +22105,7 @@
         <v>0.9750483752556411</v>
       </c>
       <c r="D415" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E415">
         <v>1.199582568593519</v>
@@ -22135,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22149,7 +22155,7 @@
         <v>1.06618192359011</v>
       </c>
       <c r="D416" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E416">
         <v>1.199582568593519</v>
@@ -22185,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22199,7 +22205,7 @@
         <v>1.301445795242007</v>
       </c>
       <c r="D417" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E417">
         <v>1.466305796873452</v>
@@ -22235,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22249,7 +22255,7 @@
         <v>1.325778053569659</v>
       </c>
       <c r="D418" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E418">
         <v>1.466305796873452</v>
@@ -22285,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22299,7 +22305,7 @@
         <v>1.061021828820504</v>
       </c>
       <c r="D419" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E419">
         <v>1.178520456495379</v>
@@ -22335,7 +22341,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22349,7 +22355,7 @@
         <v>1.05423552639545</v>
       </c>
       <c r="D420" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E420">
         <v>1.178520456495379</v>
@@ -22385,7 +22391,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22399,7 +22405,7 @@
         <v>0.9610273181210012</v>
       </c>
       <c r="D421" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E421">
         <v>1.18531224822093</v>
@@ -22435,7 +22441,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22449,7 +22455,7 @@
         <v>1.052098550645983</v>
       </c>
       <c r="D422" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E422">
         <v>1.18531224822093</v>
@@ -22485,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -22499,7 +22505,7 @@
         <v>1.288172527821214</v>
       </c>
       <c r="D423" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E423">
         <v>1.460679389446836</v>
@@ -22535,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -22549,7 +22555,7 @@
         <v>1.312816365196303</v>
       </c>
       <c r="D424" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E424">
         <v>1.460679389446836</v>
@@ -22585,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -22699,7 +22705,7 @@
         <v>0.8755952802088971</v>
       </c>
       <c r="D427" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E427">
         <v>1.122137607315365</v>
@@ -22749,7 +22755,7 @@
         <v>1.266605330685716</v>
       </c>
       <c r="D428" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E428">
         <v>1.559580979333694</v>
@@ -22835,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -22849,7 +22855,7 @@
         <v>0.8602148664207081</v>
       </c>
       <c r="D430" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E430">
         <v>1.107098980500247</v>
@@ -22885,7 +22891,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -22899,7 +22905,7 @@
         <v>1.280896373713855</v>
       </c>
       <c r="D431" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E431">
         <v>1.524099754797897</v>
@@ -22935,7 +22941,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23099,7 +23105,7 @@
         <v>1.302688953291221</v>
       </c>
       <c r="D435" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E435">
         <v>1.419681456386476</v>
@@ -23185,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23235,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23285,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23299,7 +23305,7 @@
         <v>1.257626439327654</v>
       </c>
       <c r="D439" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E439">
         <v>1.411664944525371</v>
@@ -23335,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23349,7 +23355,7 @@
         <v>1.840766780529548</v>
       </c>
       <c r="D440" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E440">
         <v>2.000338151296236</v>
@@ -23385,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23399,7 +23405,7 @@
         <v>2.174266578212954</v>
       </c>
       <c r="D441" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E441">
         <v>2.309284269167179</v>
@@ -23435,7 +23441,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23449,7 +23455,7 @@
         <v>2.096677111858851</v>
       </c>
       <c r="D442" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E442">
         <v>1.937337746663046</v>
@@ -23485,7 +23491,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23499,7 +23505,7 @@
         <v>1.86232005570882</v>
       </c>
       <c r="D443" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E443">
         <v>1.975355842250461</v>
@@ -23535,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -23549,7 +23555,7 @@
         <v>1.842592596122513</v>
       </c>
       <c r="D444" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E444">
         <v>2.002261997256608</v>
@@ -23585,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -23599,7 +23605,7 @@
         <v>2.176435500091845</v>
       </c>
       <c r="D445" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E445">
         <v>2.311735028352367</v>
@@ -23635,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -23649,7 +23655,7 @@
         <v>2.099152378635891</v>
       </c>
       <c r="D446" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E446">
         <v>1.939947805195271</v>
@@ -23685,7 +23691,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -23699,7 +23705,7 @@
         <v>1.864648276934749</v>
       </c>
       <c r="D447" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E447">
         <v>1.97756152551713</v>
@@ -23735,7 +23741,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -23749,7 +23755,7 @@
         <v>1.84474004582061</v>
       </c>
       <c r="D448" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E448">
         <v>2.004524746267355</v>
@@ -23785,7 +23791,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -23799,7 +23805,7 @@
         <v>2.178986497384215</v>
       </c>
       <c r="D449" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E449">
         <v>2.314617511168604</v>
@@ -23835,7 +23841,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -23849,7 +23855,7 @@
         <v>2.102063686280291</v>
       </c>
       <c r="D450" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E450">
         <v>1.943017649394564</v>
@@ -23885,7 +23891,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -23899,7 +23905,7 @@
         <v>1.867386635610175</v>
       </c>
       <c r="D451" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E451">
         <v>1.980155760051744</v>
@@ -23935,7 +23941,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -23949,7 +23955,7 @@
         <v>2.182944230037506</v>
       </c>
       <c r="D452" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E452">
         <v>2.319089525466108</v>
@@ -23985,7 +23991,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -23999,7 +24005,7 @@
         <v>2.106580420720769</v>
       </c>
       <c r="D453" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E453">
         <v>1.947780344621405</v>
@@ -24035,7 +24041,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24049,7 +24055,7 @@
         <v>1.871635049192803</v>
       </c>
       <c r="D454" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E454">
         <v>1.984180572919497</v>
@@ -24085,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24099,7 +24105,7 @@
         <v>2.18904965856885</v>
       </c>
       <c r="D455" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E455">
         <v>2.325988314767062</v>
@@ -24135,7 +24141,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24149,7 +24155,7 @@
         <v>2.113548197914732</v>
       </c>
       <c r="D456" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E456">
         <v>1.955127555226921</v>
@@ -24185,7 +24191,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24199,7 +24205,7 @@
         <v>1.878188899028709</v>
       </c>
       <c r="D457" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E457">
         <v>2.015269716995014</v>
@@ -24235,7 +24241,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24249,7 +24255,7 @@
         <v>1.88583444385064</v>
       </c>
       <c r="D458" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E458">
         <v>2.125307034142769</v>
@@ -24285,7 +24291,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24299,7 +24305,7 @@
         <v>2.298073483752043</v>
       </c>
       <c r="D459" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E459">
         <v>2.037664496092738</v>
@@ -24335,7 +24341,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24349,7 +24355,7 @@
         <v>1.897427651995606</v>
       </c>
       <c r="D460" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E460">
         <v>2.100495646236972</v>
@@ -24385,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24399,7 +24405,7 @@
         <v>1.886668859096591</v>
       </c>
       <c r="D461" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E461">
         <v>2.126294507806616</v>
@@ -24435,7 +24441,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24449,7 +24455,7 @@
         <v>2.29919426636051</v>
       </c>
       <c r="D462" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E462">
         <v>2.038997585538931</v>
@@ -24485,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -24499,7 +24505,7 @@
         <v>1.898642244602138</v>
       </c>
       <c r="D463" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E463">
         <v>2.102411345144836</v>
@@ -24535,7 +24541,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -24549,7 +24555,7 @@
         <v>1.887695818378956</v>
       </c>
       <c r="D464" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E464">
         <v>2.127509844235451</v>
@@ -24585,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -24635,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -24649,7 +24655,7 @@
         <v>1.900137108409605</v>
       </c>
       <c r="D466" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E466">
         <v>2.104769097816775</v>
@@ -24685,7 +24691,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -24699,7 +24705,7 @@
         <v>1.882492570308907</v>
       </c>
       <c r="D467" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E467">
         <v>2.121352154211724</v>
@@ -24735,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -24785,7 +24791,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -24799,7 +24805,7 @@
         <v>1.911660475077831</v>
       </c>
       <c r="D469" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E469">
         <v>2.092823179170745</v>
@@ -24835,7 +24841,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -24849,7 +24855,7 @@
         <v>1.879971436092785</v>
       </c>
       <c r="D470" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E470">
         <v>2.118368563423415</v>
@@ -24885,7 +24891,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -24935,7 +24941,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -24949,7 +24955,7 @@
         <v>1.90788623273062</v>
       </c>
       <c r="D472" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E472">
         <v>2.087035013041425</v>
@@ -24985,7 +24991,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25049,7 +25055,7 @@
         <v>1.89858988459332</v>
       </c>
       <c r="D474" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E474">
         <v>2.07277816293363</v>
@@ -25099,7 +25105,7 @@
         <v>2.27342525786704</v>
       </c>
       <c r="D475" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E475">
         <v>2.050890844436287</v>
@@ -25135,7 +25141,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25149,7 +25155,7 @@
         <v>1.889192027490578</v>
       </c>
       <c r="D476" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E476">
         <v>2.058365638997408</v>
@@ -25185,7 +25191,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25199,7 +25205,7 @@
         <v>2.266210657543448</v>
       </c>
       <c r="D477" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E477">
         <v>2.042055342718407</v>
@@ -25235,7 +25241,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25249,7 +25255,7 @@
         <v>1.881151085279702</v>
       </c>
       <c r="D478" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E478">
         <v>2.046034075448713</v>
@@ -25285,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25299,7 +25305,7 @@
         <v>2.259792939301354</v>
       </c>
       <c r="D479" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E479">
         <v>2.034195758263333</v>
@@ -25335,7 +25341,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25349,7 +25355,7 @@
         <v>1.873998297987854</v>
       </c>
       <c r="D480" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E480">
         <v>2.061056685064424</v>
@@ -25385,7 +25391,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25399,7 +25405,7 @@
         <v>2.247400638043782</v>
       </c>
       <c r="D481" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E481">
         <v>2.019019283595469</v>
@@ -25435,7 +25441,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25449,7 +25455,7 @@
         <v>1.860186614207387</v>
       </c>
       <c r="D482" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E482">
         <v>2.039929722127505</v>
@@ -25485,7 +25491,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25499,7 +25505,7 @@
         <v>2.218696305669633</v>
       </c>
       <c r="D483" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E483">
         <v>1.983865960247392</v>
@@ -25535,7 +25541,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25549,7 +25555,7 @@
         <v>1.828194560944569</v>
       </c>
       <c r="D484" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E484">
         <v>1.990993261207699</v>
@@ -25585,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -25599,7 +25605,7 @@
         <v>1.830127541068264</v>
       </c>
       <c r="D485" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E485">
         <v>2.018032125375022</v>
@@ -25635,7 +25641,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -25685,7 +25691,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -25699,7 +25705,7 @@
         <v>1.78228507381279</v>
       </c>
       <c r="D487" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E487">
         <v>2.022800472072064</v>
@@ -25735,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -25749,7 +25755,7 @@
         <v>1.783722556644772</v>
       </c>
       <c r="D488" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E488">
         <v>1.972929321636883</v>
@@ -25785,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -25799,7 +25805,7 @@
         <v>2.163345062458509</v>
       </c>
       <c r="D489" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E489">
         <v>1.877414831999107</v>
@@ -25835,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -25849,7 +25855,7 @@
         <v>1.693507313006611</v>
       </c>
       <c r="D490" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E490">
         <v>1.978388335287718</v>
@@ -25885,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -25899,7 +25905,7 @@
         <v>1.734543015346852</v>
       </c>
       <c r="D491" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E491">
         <v>1.925129818487629</v>
@@ -25935,7 +25941,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -25949,7 +25955,7 @@
         <v>1.684218514250647</v>
       </c>
       <c r="D492" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E492">
         <v>1.570048693213578</v>
@@ -25985,7 +25991,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -25999,7 +26005,7 @@
         <v>2.132031608016207</v>
       </c>
       <c r="D493" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E493">
         <v>1.840169754028087</v>
@@ -26035,7 +26041,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26049,7 +26055,7 @@
         <v>1.660262632299145</v>
       </c>
       <c r="D494" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E494">
         <v>1.929555899725715</v>
@@ -26085,7 +26091,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26099,7 +26105,7 @@
         <v>1.680468679922261</v>
       </c>
       <c r="D495" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E495">
         <v>1.872572875128523</v>
@@ -26135,7 +26141,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26149,7 +26155,7 @@
         <v>1.634006631356384</v>
       </c>
       <c r="D496" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E496">
         <v>1.60382087481427</v>
@@ -26185,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26199,7 +26205,7 @@
         <v>2.09863804467423</v>
       </c>
       <c r="D497" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E497">
         <v>1.800450537718246</v>
@@ -26235,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26249,7 +26255,7 @@
         <v>1.624809554037398</v>
       </c>
       <c r="D498" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E498">
         <v>1.877479593897257</v>
@@ -26285,7 +26291,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26299,7 +26305,7 @@
         <v>1.622802262168714</v>
       </c>
       <c r="D499" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E499">
         <v>1.752483946759322</v>
@@ -26335,7 +26341,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26349,7 +26355,7 @@
         <v>1.580459243442377</v>
       </c>
       <c r="D500" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E500">
         <v>1.752483946759322</v>
@@ -26385,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26399,7 +26405,7 @@
         <v>2.071221135479056</v>
       </c>
       <c r="D501" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E501">
         <v>1.767840117089625</v>
@@ -26435,7 +26441,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26449,7 +26455,7 @@
         <v>1.595701734142962</v>
       </c>
       <c r="D502" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E502">
         <v>1.834723709073065</v>
@@ -26485,7 +26491,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26535,7 +26541,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26585,7 +26591,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -26599,7 +26605,7 @@
         <v>2.041322179557651</v>
       </c>
       <c r="D505" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E505">
         <v>1.73227748229324</v>
@@ -26635,7 +26641,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -26649,7 +26655,7 @@
         <v>1.563958789750633</v>
       </c>
       <c r="D506" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E506">
         <v>1.788097143451137</v>
@@ -26685,7 +26691,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -26699,7 +26705,7 @@
         <v>1.472686344256899</v>
       </c>
       <c r="D507" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E507">
         <v>1.788097143451137</v>
@@ -26735,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -26749,7 +26755,7 @@
         <v>1.523825085403519</v>
       </c>
       <c r="D508" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E508">
         <v>1.630370751283219</v>
@@ -26785,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -26799,7 +26805,7 @@
         <v>1.56168905637971</v>
       </c>
       <c r="D509" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E509">
         <v>1.630370751283219</v>
@@ -26835,7 +26841,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -26849,7 +26855,7 @@
         <v>1.565051671294496</v>
       </c>
       <c r="D510" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E510">
         <v>1.630370751283219</v>
@@ -26885,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -26899,7 +26905,7 @@
         <v>1.866585623391427</v>
       </c>
       <c r="D511" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E511">
         <v>1.689366599623595</v>
@@ -26935,7 +26941,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -26949,7 +26955,7 @@
         <v>2.005245252276134</v>
       </c>
       <c r="D512" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E512">
         <v>1.689366599623595</v>
@@ -26985,7 +26991,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -26999,7 +27005,7 @@
         <v>1.4318415411232</v>
       </c>
       <c r="D513" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E513">
         <v>1.73183620839538</v>
@@ -27035,7 +27041,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -27049,7 +27055,7 @@
         <v>1.461524840934997</v>
       </c>
       <c r="D514" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E514">
         <v>1.564205583165584</v>
@@ -27085,7 +27091,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -27099,7 +27105,7 @@
         <v>1.496369157204806</v>
       </c>
       <c r="D515" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E515">
         <v>1.564205583165584</v>
@@ -27135,7 +27141,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -27149,7 +27155,7 @@
         <v>1.508949665433811</v>
       </c>
       <c r="D516" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E516">
         <v>1.564205583165584</v>
@@ -27185,7 +27191,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -27199,7 +27205,7 @@
         <v>1.973924573324424</v>
       </c>
       <c r="D517" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E517">
         <v>1.612872963807592</v>
@@ -27249,7 +27255,7 @@
         <v>1.396381565393731</v>
       </c>
       <c r="D518" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E518">
         <v>1.682992506417824</v>
@@ -27299,7 +27305,7 @@
         <v>1.467141600577559</v>
       </c>
       <c r="D519" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E519">
         <v>1.682992506417824</v>
@@ -27349,7 +27355,7 @@
         <v>1.407438029705613</v>
       </c>
       <c r="D520" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E520">
         <v>1.521706666475579</v>
@@ -27399,7 +27405,7 @@
         <v>1.439660791349507</v>
       </c>
       <c r="D521" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E521">
         <v>1.521706666475579</v>
@@ -27449,7 +27455,7 @@
         <v>1.460243940015513</v>
       </c>
       <c r="D522" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E522">
         <v>1.521706666475579</v>
@@ -27499,7 +27505,7 @@
         <v>1.940579116805523</v>
       </c>
       <c r="D523" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E523">
         <v>1.574239241056619</v>
@@ -27535,7 +27541,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -27549,7 +27555,7 @@
         <v>1.781069303182167</v>
       </c>
       <c r="D524" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E524">
         <v>1.574239241056619</v>
@@ -27585,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -27599,7 +27605,7 @@
         <v>1.358629220348103</v>
       </c>
       <c r="D525" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E525">
         <v>1.630991221802445</v>
@@ -27635,7 +27641,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -27649,7 +27655,7 @@
         <v>1.349854686289714</v>
       </c>
       <c r="D526" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E526">
         <v>1.479202912629048</v>
@@ -27685,7 +27691,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -27699,7 +27705,7 @@
         <v>1.379286418533347</v>
       </c>
       <c r="D527" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E527">
         <v>1.479202912629048</v>
@@ -27735,7 +27741,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -27749,7 +27755,7 @@
         <v>1.408389551684359</v>
       </c>
       <c r="D528" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E528">
         <v>1.479202912629048</v>
@@ -27785,7 +27791,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -27799,7 +27805,7 @@
         <v>1.74645545085387</v>
       </c>
       <c r="D529" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E529">
         <v>1.54184264617284</v>
@@ -27849,7 +27855,7 @@
         <v>1.326971711279163</v>
       </c>
       <c r="D530" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E530">
         <v>1.58738515872694</v>
@@ -28049,7 +28055,7 @@
         <v>1.276676327166428</v>
       </c>
       <c r="D534" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E534">
         <v>1.518106691894613</v>
@@ -28085,7 +28091,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28099,7 +28105,7 @@
         <v>1.224852607973696</v>
       </c>
       <c r="D535" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E535">
         <v>1.33929930838555</v>
@@ -28135,7 +28141,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -28149,7 +28155,7 @@
         <v>1.248225566013237</v>
       </c>
       <c r="D536" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E536">
         <v>1.33929930838555</v>
@@ -28185,7 +28191,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -28199,7 +28205,7 @@
         <v>1.263762437199394</v>
       </c>
       <c r="D537" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E537">
         <v>1.33929930838555</v>
@@ -28235,7 +28241,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -28249,7 +28255,7 @@
         <v>1.212947744952629</v>
       </c>
       <c r="D538" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E538">
         <v>1.430324909390002</v>
@@ -28285,7 +28291,7 @@
         <v>1</v>
       </c>
       <c r="P538" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -28299,7 +28305,7 @@
         <v>1.146309428698562</v>
       </c>
       <c r="D539" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E539">
         <v>1.238758183620087</v>
@@ -28335,7 +28341,7 @@
         <v>1</v>
       </c>
       <c r="P539" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -28349,7 +28355,7 @@
         <v>1.216483509339664</v>
       </c>
       <c r="D540" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E540">
         <v>1.238758183620087</v>
@@ -28385,7 +28391,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -28399,7 +28405,7 @@
         <v>1.171021231954409</v>
       </c>
       <c r="D541" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E541">
         <v>1.238758183620087</v>
@@ -28435,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -28485,7 +28491,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -28535,7 +28541,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -28585,7 +28591,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -28599,7 +28605,7 @@
         <v>0.913889681656368</v>
       </c>
       <c r="D545" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E545">
         <v>0.9422215166785484</v>
@@ -28635,7 +28641,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -28649,7 +28655,7 @@
         <v>0.9595249171276929</v>
       </c>
       <c r="D546" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E546">
         <v>0.9422215166785484</v>
@@ -28685,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -28699,7 +28705,7 @@
         <v>0.9589976550364385</v>
       </c>
       <c r="D547" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E547">
         <v>0.9422215166785484</v>
@@ -28735,7 +28741,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -28749,7 +28755,7 @@
         <v>0.8504189521355614</v>
       </c>
       <c r="D548" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E548">
         <v>0.937857691146331</v>
@@ -28785,7 +28791,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -28799,7 +28805,7 @@
         <v>0.9017680975637474</v>
       </c>
       <c r="D549" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E549">
         <v>0.937857691146331</v>
@@ -28835,7 +28841,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -28849,7 +28855,7 @@
         <v>0.908653475416529</v>
       </c>
       <c r="D550" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E550">
         <v>0.937857691146331</v>
@@ -28885,7 +28891,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -28935,7 +28941,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -28985,7 +28991,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29035,7 +29041,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29049,7 +29055,7 @@
         <v>0.7994059700977925</v>
       </c>
       <c r="D554" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E554">
         <v>0.9510460107817367</v>
@@ -29085,7 +29091,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29099,7 +29105,7 @@
         <v>0.8553475251011551</v>
       </c>
       <c r="D555" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E555">
         <v>0.9510460107817367</v>
@@ -29135,7 +29141,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29149,7 +29155,7 @@
         <v>0.8681906234838945</v>
       </c>
       <c r="D556" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E556">
         <v>0.9510460107817367</v>
@@ -29185,7 +29191,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29235,7 +29241,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29249,7 +29255,7 @@
         <v>0.7963844516425689</v>
       </c>
       <c r="D558" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E558">
         <v>0.9293442447455118</v>
@@ -29285,7 +29291,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29299,7 +29305,7 @@
         <v>0.9077462565202601</v>
       </c>
       <c r="D559" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E559">
         <v>0.9293442447455118</v>
@@ -29335,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29349,7 +29355,7 @@
         <v>0.8525980168231655</v>
       </c>
       <c r="D560" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E560">
         <v>0.9293442447455118</v>
@@ -29385,7 +29391,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29399,7 +29405,7 @@
         <v>0.8657939932736682</v>
       </c>
       <c r="D561" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E561">
         <v>0.9293442447455118</v>
@@ -29435,7 +29441,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29485,7 +29491,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29535,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29585,7 +29591,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -29635,7 +29641,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -29685,7 +29691,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -29735,7 +29741,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -29785,7 +29791,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -29835,7 +29841,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -29885,7 +29891,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -29935,7 +29941,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -29985,7 +29991,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30035,7 +30041,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30085,7 +30091,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30135,7 +30141,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30185,7 +30191,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30235,7 +30241,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30285,7 +30291,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30335,7 +30341,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30385,7 +30391,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30435,7 +30441,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30485,7 +30491,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30499,7 +30505,7 @@
         <v>0.751468861471289</v>
       </c>
       <c r="D583" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E583">
         <v>0.9385035221553486</v>
@@ -30535,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30549,7 +30555,7 @@
         <v>0.7709845877750583</v>
       </c>
       <c r="D584" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E584">
         <v>0.9385035221553486</v>
@@ -30585,7 +30591,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -30599,7 +30605,7 @@
         <v>0.8117259226040443</v>
       </c>
       <c r="D585" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E585">
         <v>0.9385035221553486</v>
@@ -30635,7 +30641,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -30649,7 +30655,7 @@
         <v>0.830167515424916</v>
       </c>
       <c r="D586" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E586">
         <v>0.9385035221553486</v>
@@ -30685,7 +30691,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -30699,7 +30705,7 @@
         <v>0.8384277846341899</v>
       </c>
       <c r="D587" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E587">
         <v>0.9385035221553486</v>
@@ -30735,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31099,7 +31105,7 @@
         <v>0.8616555364163685</v>
       </c>
       <c r="D595" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E595">
         <v>0.9487042537756789</v>
@@ -31149,7 +31155,7 @@
         <v>0.8685708400378545</v>
       </c>
       <c r="D596" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E596">
         <v>0.9487042537756789</v>
@@ -31199,7 +31205,7 @@
         <v>0.9283666743289771</v>
       </c>
       <c r="D597" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E597">
         <v>0.9487042537756789</v>
@@ -31249,7 +31255,7 @@
         <v>0.9119931158630705</v>
       </c>
       <c r="D598" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E598">
         <v>0.9487042537756789</v>
@@ -31299,7 +31305,7 @@
         <v>0.917566191902035</v>
       </c>
       <c r="D599" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E599">
         <v>0.9487042537756789</v>
@@ -31349,7 +31355,7 @@
         <v>0.8850151504748149</v>
       </c>
       <c r="D600" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E600">
         <v>0.9487042537756789</v>
@@ -31399,7 +31405,7 @@
         <v>0.9303840608049012</v>
       </c>
       <c r="D601" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E601">
         <v>0.9487042537756789</v>
@@ -31449,7 +31455,7 @@
         <v>0.9319931158630701</v>
       </c>
       <c r="D602" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E602">
         <v>0.9487042537756789</v>
@@ -31535,7 +31541,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31585,7 +31591,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31635,7 +31641,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -31685,7 +31691,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -31735,7 +31741,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -31785,7 +31791,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -31835,7 +31841,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -31885,7 +31891,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -31935,7 +31941,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -31985,7 +31991,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32035,7 +32041,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32085,7 +32091,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32135,7 +32141,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32185,7 +32191,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32235,7 +32241,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32285,7 +32291,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32335,7 +32341,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32385,7 +32391,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32435,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32485,7 +32491,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32535,7 +32541,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -32585,7 +32591,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -32635,7 +32641,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -32685,7 +32691,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -32735,7 +32741,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -32785,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -32835,7 +32841,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -32885,7 +32891,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -32935,7 +32941,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -32985,7 +32991,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33035,7 +33041,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33085,7 +33091,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33135,7 +33141,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33185,7 +33191,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33235,7 +33241,7 @@
         <v>1</v>
       </c>
       <c r="P637" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -33285,7 +33291,7 @@
         <v>1</v>
       </c>
       <c r="P638" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -33299,7 +33305,7 @@
         <v>0.9426739735459577</v>
       </c>
       <c r="D639" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E639">
         <v>1.155481591635229</v>
@@ -33335,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -33349,7 +33355,7 @@
         <v>0.9523699059372155</v>
       </c>
       <c r="D640" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E640">
         <v>0.9617333668754942</v>
@@ -33385,7 +33391,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33399,7 +33405,7 @@
         <v>0.9489115468641032</v>
       </c>
       <c r="D641" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E641">
         <v>0.9617333668754942</v>
@@ -33435,7 +33441,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33449,7 +33455,7 @@
         <v>0.994540984964766</v>
       </c>
       <c r="D642" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E642">
         <v>0.9617333668754942</v>
@@ -33485,7 +33491,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -33499,7 +33505,7 @@
         <v>0.9895196820815877</v>
       </c>
       <c r="D643" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E643">
         <v>0.9617333668754942</v>
@@ -33535,7 +33541,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -33549,7 +33555,7 @@
         <v>0.9598379516124478</v>
       </c>
       <c r="D644" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E644">
         <v>0.9617333668754942</v>
@@ -33585,7 +33591,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -33599,7 +33605,7 @@
         <v>1.006089726852713</v>
       </c>
       <c r="D645" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E645">
         <v>0.9617333668754942</v>
@@ -33635,7 +33641,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -33649,7 +33655,7 @@
         <v>0.9848592544956265</v>
       </c>
       <c r="D646" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E646">
         <v>0.9617333668754942</v>
@@ -33685,7 +33691,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -33949,7 +33955,7 @@
         <v>0.9734565125913943</v>
       </c>
       <c r="D652" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E652">
         <v>1.185400334942146</v>
@@ -33999,7 +34005,7 @@
         <v>0.9846444558037319</v>
       </c>
       <c r="D653" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E653">
         <v>1.181231801994401</v>
@@ -34049,7 +34055,7 @@
         <v>0.9774953331205798</v>
       </c>
       <c r="D654" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E654">
         <v>1.181231801994401</v>
@@ -34099,7 +34105,7 @@
         <v>1.023910040074443</v>
       </c>
       <c r="D655" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E655">
         <v>1.181231801994401</v>
@@ -34149,7 +34155,7 @@
         <v>1.015119446695905</v>
       </c>
       <c r="D656" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E656">
         <v>1.181231801994401</v>
@@ -34199,7 +34205,7 @@
         <v>0.9864585657359251</v>
       </c>
       <c r="D657" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E657">
         <v>1.181231801994401</v>
@@ -34249,7 +34255,7 @@
         <v>1.007646508948263</v>
       </c>
       <c r="D658" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E658">
         <v>1.181231801994401</v>
@@ -34299,7 +34305,7 @@
         <v>1.015249159114463</v>
       </c>
       <c r="D659" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E659">
         <v>0.9834565125913941</v>
@@ -34385,7 +34391,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34435,7 +34441,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34485,7 +34491,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34535,7 +34541,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -34585,7 +34591,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -34599,7 +34605,7 @@
         <v>0.9989502799212269</v>
       </c>
       <c r="D665" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E665">
         <v>1.210178715943846</v>
@@ -34635,7 +34641,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -34649,7 +34655,7 @@
         <v>1.011373890427612</v>
       </c>
       <c r="D666" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E666">
         <v>1.203864024011701</v>
@@ -34685,7 +34691,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -34699,7 +34705,7 @@
         <v>1.00116811706971</v>
       </c>
       <c r="D667" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E667">
         <v>1.203864024011701</v>
@@ -34735,7 +34741,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -34749,7 +34755,7 @@
         <v>1.048233175230966</v>
       </c>
       <c r="D668" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E668">
         <v>1.203864024011701</v>
@@ -34785,7 +34791,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -34799,7 +34805,7 @@
         <v>1.036320896056939</v>
       </c>
       <c r="D669" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E669">
         <v>1.203864024011701</v>
@@ -34835,7 +34841,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -34849,7 +34855,7 @@
         <v>1.008505471666571</v>
       </c>
       <c r="D670" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E670">
         <v>1.203864024011701</v>
@@ -34885,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -34899,7 +34905,7 @@
         <v>1.030929082172957</v>
       </c>
       <c r="D671" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E671">
         <v>1.203864024011701</v>
@@ -34935,7 +34941,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -34949,7 +34955,7 @@
         <v>1.040417750840599</v>
       </c>
       <c r="D672" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E672">
         <v>0.9957763031857296</v>
@@ -34985,7 +34991,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35035,7 +35041,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35085,7 +35091,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35135,7 +35141,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35185,7 +35191,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35199,7 +35205,7 @@
         <v>1.019721542843001</v>
       </c>
       <c r="D677" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E677">
         <v>1.230367111793835</v>
@@ -35235,7 +35241,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35249,7 +35255,7 @@
         <v>1.033151923746106</v>
       </c>
       <c r="D678" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E678">
         <v>1.222303818646338</v>
@@ -35285,7 +35291,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35299,7 +35305,7 @@
         <v>1.020455718354215</v>
       </c>
       <c r="D679" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E679">
         <v>1.222303818646338</v>
@@ -35335,7 +35341,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -35349,7 +35355,7 @@
         <v>1.053594956548007</v>
       </c>
       <c r="D680" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E680">
         <v>1.222303818646338</v>
@@ -35385,7 +35391,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -35399,7 +35405,7 @@
         <v>1.026468375060656</v>
       </c>
       <c r="D681" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E681">
         <v>1.222303818646338</v>
@@ -35435,7 +35441,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -35449,7 +35455,7 @@
         <v>1.049898755963761</v>
       </c>
       <c r="D682" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E682">
         <v>1.222303818646338</v>
@@ -35485,7 +35491,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -35499,7 +35505,7 @@
         <v>1.060924074184289</v>
       </c>
       <c r="D683" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E683">
         <v>1.017873442550878</v>
@@ -35535,7 +35541,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -35585,7 +35591,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -35635,7 +35641,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -35685,7 +35691,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -35735,7 +35741,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -35749,7 +35755,7 @@
         <v>1.047332978384417</v>
       </c>
       <c r="D688" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E688">
         <v>1.257203736644038</v>
@@ -35785,7 +35791,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -35799,7 +35805,7 @@
         <v>1.062101668663253</v>
       </c>
       <c r="D689" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E689">
         <v>1.2468160114229</v>
@@ -35835,7 +35841,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -35849,7 +35855,7 @@
         <v>1.046094908499815</v>
       </c>
       <c r="D690" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E690">
         <v>1.2468160114229</v>
@@ -35885,7 +35891,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -35899,7 +35905,7 @@
         <v>1.076557527942143</v>
       </c>
       <c r="D691" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E691">
         <v>1.2468160114229</v>
@@ -35935,7 +35941,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -35949,7 +35955,7 @@
         <v>1.050346631817136</v>
       </c>
       <c r="D692" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E692">
         <v>1.2468160114229</v>
@@ -35985,7 +35991,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -35999,7 +36005,7 @@
         <v>1.075115322095972</v>
       </c>
       <c r="D693" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E693">
         <v>1.2468160114229</v>
@@ -36035,7 +36041,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36049,7 +36055,7 @@
         <v>1.043673116249803</v>
       </c>
       <c r="D694" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E694">
         <v>1.123802357990182</v>
@@ -36085,7 +36091,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36099,7 +36105,7 @@
         <v>2.896153804967225</v>
       </c>
       <c r="D695" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E695">
         <v>2.453793284427995</v>
@@ -36135,7 +36141,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36149,7 +36155,7 @@
         <v>2.828321640879296</v>
       </c>
       <c r="D696" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E696">
         <v>2.453793284427995</v>
@@ -36185,7 +36191,57 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16">
+      <c r="A697" s="1">
+        <v>2</v>
+      </c>
+      <c r="B697" t="s">
+        <v>143</v>
+      </c>
+      <c r="C697">
+        <v>3.139280458423625</v>
+      </c>
+      <c r="D697" t="s">
+        <v>245</v>
+      </c>
+      <c r="E697">
+        <v>3.013454506514468</v>
+      </c>
+      <c r="F697">
+        <v>-1</v>
+      </c>
+      <c r="G697">
+        <v>0.008580719541576375</v>
+      </c>
+      <c r="H697">
+        <v>0.008466545493485534</v>
+      </c>
+      <c r="I697">
+        <v>0.1258259519091571</v>
+      </c>
+      <c r="J697">
+        <v>0.5825951909157121</v>
+      </c>
+      <c r="K697">
+        <v>4.67</v>
+      </c>
+      <c r="L697">
+        <v>5.86</v>
+      </c>
+      <c r="M697">
+        <v>4.68</v>
+      </c>
+      <c r="N697">
+        <v>5.74</v>
+      </c>
+      <c r="O697">
+        <v>1</v>
+      </c>
+      <c r="P697" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="339">
   <si>
     <t>trade_time</t>
   </si>
@@ -442,9 +442,6 @@
     <t>2021-05-11</t>
   </si>
   <si>
-    <t>2021-06-11</t>
-  </si>
-  <si>
     <t>2021-07-09</t>
   </si>
   <si>
@@ -751,7 +748,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -1391,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P697"/>
+  <dimension ref="A1:P696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,7 +1452,7 @@
         <v>1.855441043116508</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>1.575397067571232</v>
@@ -1491,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1505,7 +1502,7 @@
         <v>1.844886436180541</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>1.575397067571232</v>
@@ -1541,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1555,7 +1552,7 @@
         <v>1.879543169394645</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>1.575397067571232</v>
@@ -1591,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1605,7 +1602,7 @@
         <v>1.931893523774336</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>1.575397067571232</v>
@@ -1641,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1655,7 +1652,7 @@
         <v>1.864287853699299</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>1.610229702966436</v>
@@ -1691,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1705,7 +1702,7 @@
         <v>1.420828285447678</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>1.720097776330612</v>
@@ -1741,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1755,7 +1752,7 @@
         <v>1.444930411725815</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>1.720097776330612</v>
@@ -1791,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1805,7 +1802,7 @@
         <v>1.415528994207057</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>1.720097776330612</v>
@@ -1841,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1855,7 +1852,7 @@
         <v>1.417747421950922</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>1.720097776330612</v>
@@ -1891,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1905,7 +1902,7 @@
         <v>1.837391318446252</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>1.556576374761795</v>
@@ -1941,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1955,7 +1952,7 @@
         <v>1.827426275381424</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12">
         <v>1.556576374761795</v>
@@ -1991,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2005,7 +2002,7 @@
         <v>1.861221338322326</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13">
         <v>1.556576374761795</v>
@@ -2041,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2055,7 +2052,7 @@
         <v>1.913526341635005</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14">
         <v>1.556576374761795</v>
@@ -2091,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2105,7 +2102,7 @@
         <v>1.84664628863214</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15">
         <v>1.593631212440523</v>
@@ -2141,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2155,7 +2152,7 @@
         <v>1.404411199189807</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>1.701186381387154</v>
@@ -2191,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2205,7 +2202,7 @@
         <v>1.428241219065881</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>1.701186381387154</v>
@@ -2241,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2255,7 +2252,7 @@
         <v>1.399021205815165</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18">
         <v>1.701186381387154</v>
@@ -2291,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2305,7 +2302,7 @@
         <v>1.398881378074474</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19">
         <v>1.701186381387154</v>
@@ -2341,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2355,7 +2352,7 @@
         <v>1.772601053603223</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>1.513212850115657</v>
@@ -2391,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2405,7 +2402,7 @@
         <v>1.819007208305362</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21">
         <v>1.513212850115657</v>
@@ -2441,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2455,7 +2452,7 @@
         <v>1.871207721197208</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>1.513212850115657</v>
@@ -2491,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2505,7 +2502,7 @@
         <v>1.805999514927688</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>1.555387718415254</v>
@@ -2541,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2555,7 +2552,7 @@
         <v>1.366585666847875</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24">
         <v>1.657613875899347</v>
@@ -2591,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2605,7 +2602,7 @@
         <v>1.360986692631565</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25">
         <v>1.657613875899347</v>
@@ -2641,7 +2638,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2655,7 +2652,7 @@
         <v>1.355413363007501</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>1.657613875899347</v>
@@ -2691,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2705,7 +2702,7 @@
         <v>1.746707087766096</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27">
         <v>1.485799595466657</v>
@@ -2741,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2755,7 +2752,7 @@
         <v>1.792320570044649</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28">
         <v>1.485799595466657</v>
@@ -2791,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2805,7 +2802,7 @@
         <v>1.780303717196457</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29">
         <v>1.531211209495895</v>
@@ -2841,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2855,7 +2852,7 @@
         <v>1.342673382069711</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30">
         <v>1.63006850917975</v>
@@ -2891,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2905,7 +2902,7 @@
         <v>1.336942295782803</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31">
         <v>1.63006850917975</v>
@@ -2941,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2955,7 +2952,7 @@
         <v>1.327934052323203</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32">
         <v>1.63006850917975</v>
@@ -2991,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3005,7 +3002,7 @@
         <v>1.724897025074506</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>1.462709860729388</v>
@@ -3041,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3055,7 +3052,7 @@
         <v>1.713714740951758</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34">
         <v>1.462709860729388</v>
@@ -3091,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3105,7 +3102,7 @@
         <v>1.769842852372705</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35">
         <v>1.462709860729388</v>
@@ -3141,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3155,7 +3152,7 @@
         <v>1.758660568249956</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36">
         <v>1.510847732595075</v>
@@ -3191,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3205,7 +3202,7 @@
         <v>1.322532456829009</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37">
         <v>1.606867498612421</v>
@@ -3241,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3255,7 +3252,7 @@
         <v>1.316690094712042</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38">
         <v>1.606867498612421</v>
@@ -3291,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3305,7 +3302,7 @@
         <v>1.304788679670904</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39">
         <v>1.606867498612421</v>
@@ -3341,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3355,7 +3352,7 @@
         <v>1.698715924927888</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40">
         <v>1.451820073210847</v>
@@ -3391,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3405,7 +3402,7 @@
         <v>1.703822090603589</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41">
         <v>1.451820073210847</v>
@@ -3441,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3455,7 +3452,7 @@
         <v>1.759241709824535</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E42">
         <v>1.451820073210847</v>
@@ -3491,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3505,7 +3502,7 @@
         <v>1.748453032479565</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E43">
         <v>1.501243727217277</v>
@@ -3541,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3555,7 +3552,7 @@
         <v>1.313033413258619</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E44">
         <v>1.595925230190177</v>
@@ -3591,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3605,7 +3602,7 @@
         <v>1.307138570237948</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45">
         <v>1.595925230190177</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3655,7 +3652,7 @@
         <v>1.293872651700511</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46">
         <v>1.595925230190177</v>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3705,7 +3702,7 @@
         <v>1.708440278144118</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47">
         <v>1.445287539361757</v>
@@ -3755,7 +3752,7 @@
         <v>1.75288232747506</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48">
         <v>1.445287539361757</v>
@@ -3805,7 +3802,7 @@
         <v>1.742329765811383</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49">
         <v>1.495482504593743</v>
@@ -3855,7 +3852,7 @@
         <v>1.307335154816763</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50">
         <v>1.589361214250248</v>
@@ -3905,7 +3902,7 @@
         <v>1.301408829705253</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51">
         <v>1.589361214250248</v>
@@ -3955,7 +3952,7 @@
         <v>1.287324376806003</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52">
         <v>1.589361214250248</v>
@@ -4005,7 +4002,7 @@
         <v>1.741577671463358</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53">
         <v>1.433675083310133</v>
@@ -4055,7 +4052,7 @@
         <v>1.793586527085793</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>1.433675083310133</v>
@@ -4105,7 +4102,7 @@
         <v>1.731444837126847</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>1.485241157810864</v>
@@ -4155,7 +4152,7 @@
         <v>1.297205735321128</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>1.577692794555001</v>
@@ -4205,7 +4202,7 @@
         <v>1.291223446565996</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57">
         <v>1.577692794555001</v>
@@ -4255,7 +4252,7 @@
         <v>1.275683938932566</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>1.577692794555001</v>
@@ -4355,7 +4352,7 @@
         <v>1.725587143730334</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60">
         <v>1.417249169921011</v>
@@ -4405,7 +4402,7 @@
         <v>1.777556418838578</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61">
         <v>1.417249169921011</v>
@@ -4455,7 +4452,7 @@
         <v>1.716048017106683</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62">
         <v>1.470754689617085</v>
@@ -4505,7 +4502,7 @@
         <v>1.282877589184112</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63">
         <v>1.561187720137498</v>
@@ -4555,7 +4552,7 @@
         <v>1.276816139400598</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64">
         <v>1.561187720137498</v>
@@ -4605,7 +4602,7 @@
         <v>1.259218445029255</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65">
         <v>1.561187720137498</v>
@@ -4655,7 +4652,7 @@
         <v>1.799190602173319</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E66">
         <v>1.767682200441425</v>
@@ -4705,7 +4702,7 @@
         <v>1.704528128435052</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67">
         <v>1.395616765595412</v>
@@ -4741,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4755,7 +4752,7 @@
         <v>1.756445277267813</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>1.395616765595412</v>
@@ -4791,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4805,7 +4802,7 @@
         <v>1.695770895943651</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E69">
         <v>1.451676472790171</v>
@@ -4841,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4855,7 +4852,7 @@
         <v>1.264007877459131</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E70">
         <v>1.539451063260933</v>
@@ -4891,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4905,7 +4902,7 @@
         <v>1.257842175124651</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71">
         <v>1.539451063260933</v>
@@ -4941,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4955,7 +4952,7 @@
         <v>1.237533914428172</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E72">
         <v>1.539451063260933</v>
@@ -4991,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5041,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5055,7 +5052,7 @@
         <v>1.678683818930752</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E74">
         <v>1.369068774396689</v>
@@ -5091,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5105,7 +5102,7 @@
         <v>1.730536996700383</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E75">
         <v>1.369068774396689</v>
@@ -5141,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5155,7 +5152,7 @@
         <v>1.670886152386294</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E76">
         <v>1.428263063684791</v>
@@ -5191,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5205,7 +5202,7 @@
         <v>1.240850352606269</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77">
         <v>1.51277512993595</v>
@@ -5241,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5255,7 +5252,7 @@
         <v>1.234556708145529</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78">
         <v>1.51277512993595</v>
@@ -5291,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5305,7 +5302,7 @@
         <v>1.210921952166319</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E79">
         <v>1.51277512993595</v>
@@ -5341,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5355,7 +5352,7 @@
         <v>1.661963549027058</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E80">
         <v>1.351893249619379</v>
@@ -5391,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5405,7 +5402,7 @@
         <v>1.713775339989997</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E81">
         <v>1.351893249619379</v>
@@ -5441,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5455,7 +5452,7 @@
         <v>1.654786684582984</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E82">
         <v>1.413115492435404</v>
@@ -5491,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5505,7 +5502,7 @@
         <v>1.225868328583652</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E83">
         <v>1.495516831545256</v>
@@ -5541,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5555,7 +5552,7 @@
         <v>1.219491910509528</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84">
         <v>1.495516831545256</v>
@@ -5591,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5605,7 +5602,7 @@
         <v>1.193705040582317</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85">
         <v>1.495516831545256</v>
@@ -5641,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5655,7 +5652,7 @@
         <v>1.600429769178104</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86">
         <v>1.338006244585976</v>
@@ -5691,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5705,7 +5702,7 @@
         <v>1.648444633283697</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E87">
         <v>1.338006244585976</v>
@@ -5741,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5755,7 +5752,7 @@
         <v>1.700222961583904</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E88">
         <v>1.338006244585976</v>
@@ -5791,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5805,7 +5802,7 @@
         <v>1.641769708780589</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89">
         <v>1.400868157875824</v>
@@ -5841,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5855,7 +5852,7 @@
         <v>1.213754844674996</v>
       </c>
       <c r="D90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E90">
         <v>1.48156290118639</v>
@@ -5891,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5905,7 +5902,7 @@
         <v>1.20731150127541</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91">
         <v>1.48156290118639</v>
@@ -5941,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5955,7 +5952,7 @@
         <v>1.179784572886182</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E92">
         <v>1.48156290118639</v>
@@ -5991,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6005,7 +6002,7 @@
         <v>1.642770386608872</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E93">
         <v>1.332177501095747</v>
@@ -6055,7 +6052,7 @@
         <v>1.636306139581315</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E94">
         <v>1.395727627472394</v>
@@ -6105,7 +6102,7 @@
         <v>1.208670494931713</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E95">
         <v>1.475706067366088</v>
@@ -6155,7 +6152,7 @@
         <v>1.202199061202053</v>
       </c>
       <c r="D96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E96">
         <v>1.475706067366088</v>
@@ -6205,7 +6202,7 @@
         <v>1.173941784230917</v>
       </c>
       <c r="D97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E97">
         <v>1.475706067366088</v>
@@ -6255,7 +6252,7 @@
         <v>1.635648220856852</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98">
         <v>1.324861414989093</v>
@@ -6291,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6305,7 +6302,7 @@
         <v>1.687394874868875</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E99">
         <v>1.324861414989093</v>
@@ -6341,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6355,7 +6352,7 @@
         <v>1.629448410676523</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E100">
         <v>1.38927536840002</v>
@@ -6391,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6405,7 +6402,7 @@
         <v>1.202288752351933</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E101">
         <v>1.468354723013138</v>
@@ -6441,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6455,7 +6452,7 @@
         <v>1.195782060375976</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E102">
         <v>1.468354723013138</v>
@@ -6491,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6505,7 +6502,7 @@
         <v>1.166608069001115</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E103">
         <v>1.468354723013138</v>
@@ -6541,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6555,7 +6552,7 @@
         <v>1.636237432923918</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E104">
         <v>1.325466669958976</v>
@@ -6591,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6605,7 +6602,7 @@
         <v>1.687985545381652</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E105">
         <v>1.325466669958976</v>
@@ -6641,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6655,7 +6652,7 @@
         <v>1.630015746057932</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E106">
         <v>1.389809159530085</v>
@@ -6691,7 +6688,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6705,7 +6702,7 @@
         <v>1.202816709699155</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107">
         <v>1.468962894874441</v>
@@ -6741,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6755,7 +6752,7 @@
         <v>1.19631293461462</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E108">
         <v>1.468962894874441</v>
@@ -6791,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6805,7 +6802,7 @@
         <v>1.167214782416708</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E109">
         <v>1.468962894874441</v>
@@ -6841,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6891,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6905,7 +6902,7 @@
         <v>1.686969731933735</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E111">
         <v>1.32442577469753</v>
@@ -6955,7 +6952,7 @@
         <v>1.688566437853383</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E112">
         <v>1.388891165154931</v>
@@ -7005,7 +7002,7 @@
         <v>1.116820833577004</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E113">
         <v>1.46791698325029</v>
@@ -7055,7 +7052,7 @@
         <v>1.189838416471486</v>
       </c>
       <c r="D114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E114">
         <v>1.46791698325029</v>
@@ -7105,7 +7102,7 @@
         <v>1.16617137897391</v>
       </c>
       <c r="D115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E115">
         <v>1.46791698325029</v>
@@ -7205,7 +7202,7 @@
         <v>1.679044765444968</v>
       </c>
       <c r="D117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E117">
         <v>1.316305130023856</v>
@@ -7241,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7255,7 +7252,7 @@
         <v>1.681071963371414</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E118">
         <v>1.381729343587304</v>
@@ -7291,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7305,7 +7302,7 @@
         <v>1.109345926913525</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E119">
         <v>1.459757202939633</v>
@@ -7341,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7355,7 +7352,7 @@
         <v>1.116606291492413</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E120">
         <v>1.459757202939633</v>
@@ -7391,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7405,7 +7402,7 @@
         <v>1.158031166481744</v>
       </c>
       <c r="D121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E121">
         <v>1.459757202939633</v>
@@ -7441,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7455,7 +7452,7 @@
         <v>1.667785062291963</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E122">
         <v>1.323675609160295</v>
@@ -7491,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7541,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7555,7 +7552,7 @@
         <v>1.705523534148037</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E124">
         <v>1.306151805217721</v>
@@ -7591,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7605,7 +7602,7 @@
         <v>1.0999999749233</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E125">
         <v>1.449554946447687</v>
@@ -7641,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7655,7 +7652,7 @@
         <v>1.107015681073126</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E126">
         <v>1.449554946447687</v>
@@ -7691,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7705,7 +7702,7 @@
         <v>1.074450234602739</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E127">
         <v>1.449554946447687</v>
@@ -7741,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7755,7 +7752,7 @@
         <v>1.728036618426774</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E128">
         <v>1.311858607036529</v>
@@ -7791,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7841,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7855,7 +7852,7 @@
         <v>1.735732764200063</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E130">
         <v>1.301215982596513</v>
@@ -7905,7 +7902,7 @@
         <v>1.095456639402092</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E131">
         <v>1.444595336729509</v>
@@ -7955,7 +7952,7 @@
         <v>1.102353410067069</v>
       </c>
       <c r="D132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E132">
         <v>1.444595336729509</v>
@@ -8005,7 +8002,7 @@
         <v>1.069526305530016</v>
       </c>
       <c r="D133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E133">
         <v>1.444595336729509</v>
@@ -8105,7 +8102,7 @@
         <v>1.767688434264066</v>
       </c>
       <c r="D135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E135">
         <v>1.290978663803567</v>
@@ -8155,7 +8152,7 @@
         <v>1.08603337246497</v>
       </c>
       <c r="D136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E136">
         <v>1.434308681460452</v>
@@ -8205,7 +8202,7 @@
         <v>1.092683460749394</v>
       </c>
       <c r="D137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E137">
         <v>1.434308681460452</v>
@@ -8255,7 +8252,7 @@
         <v>1.059313654975125</v>
       </c>
       <c r="D138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E138">
         <v>1.434308681460452</v>
@@ -8691,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8741,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8791,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8841,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8891,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8905,7 +8902,7 @@
         <v>1.823420612308294</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E151">
         <v>2.204728303692967</v>
@@ -8941,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8991,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9041,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9091,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9141,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9191,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9241,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9291,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9305,7 +9302,7 @@
         <v>2.07884565528049</v>
       </c>
       <c r="D159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E159">
         <v>2.424795934638657</v>
@@ -9341,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9391,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9441,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9455,7 +9452,7 @@
         <v>2.074698477808512</v>
       </c>
       <c r="D162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E162">
         <v>2.228712809543505</v>
@@ -9491,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9541,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9591,7 +9588,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9641,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9755,7 +9752,7 @@
         <v>2.045995448659537</v>
       </c>
       <c r="D168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E168">
         <v>2.697722827185737</v>
@@ -9905,7 +9902,7 @@
         <v>2.025703573192318</v>
       </c>
       <c r="D171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E171">
         <v>2.585859069325287</v>
@@ -9991,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10005,7 +10002,7 @@
         <v>2.002237248721763</v>
       </c>
       <c r="D173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E173">
         <v>2.933150127071722</v>
@@ -10041,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10091,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10105,7 +10102,7 @@
         <v>2.14690100237887</v>
       </c>
       <c r="D175" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E175">
         <v>3.035145626224377</v>
@@ -10141,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10191,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10205,7 +10202,7 @@
         <v>2.113865641885164</v>
       </c>
       <c r="D177" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E177">
         <v>2.99862999271211</v>
@@ -10241,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10291,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10341,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10355,7 +10352,7 @@
         <v>2.224552854469621</v>
       </c>
       <c r="D180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E180">
         <v>2.747562112891602</v>
@@ -10391,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10405,7 +10402,7 @@
         <v>2.234582155562626</v>
       </c>
       <c r="D181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E181">
         <v>2.747562112891602</v>
@@ -10441,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10455,7 +10452,7 @@
         <v>2.532227490792448</v>
       </c>
       <c r="D182" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E182">
         <v>2.747562112891602</v>
@@ -10491,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10541,7 +10538,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10591,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10605,7 +10602,7 @@
         <v>2.219578642489605</v>
       </c>
       <c r="D185" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E185">
         <v>2.748307309478141</v>
@@ -10641,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10655,7 +10652,7 @@
         <v>2.229273046142372</v>
       </c>
       <c r="D186" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E186">
         <v>2.748307309478141</v>
@@ -10691,7 +10688,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10705,7 +10702,7 @@
         <v>2.526938081221619</v>
       </c>
       <c r="D187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E187">
         <v>2.748307309478141</v>
@@ -10741,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10791,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10841,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10855,7 +10852,7 @@
         <v>2.223095119495316</v>
       </c>
       <c r="D190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E190">
         <v>2.585306324177835</v>
@@ -10891,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10905,7 +10902,7 @@
         <v>2.233026276055397</v>
       </c>
       <c r="D191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E191">
         <v>2.585306324177835</v>
@@ -10941,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10955,7 +10952,7 @@
         <v>2.530677384493038</v>
       </c>
       <c r="D192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E192">
         <v>2.585306324177835</v>
@@ -10991,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11041,7 +11038,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11091,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11105,7 +11102,7 @@
         <v>2.351296670264901</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E195">
         <v>2.34477901699545</v>
@@ -11141,7 +11138,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11155,7 +11152,7 @@
         <v>2.531296670264901</v>
       </c>
       <c r="D196" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E196">
         <v>2.34477901699545</v>
@@ -11191,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11241,7 +11238,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11291,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11341,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11355,7 +11352,7 @@
         <v>2.354338556588907</v>
       </c>
       <c r="D200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E200">
         <v>2.692933327062218</v>
@@ -11391,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11405,7 +11402,7 @@
         <v>2.534338556588906</v>
       </c>
       <c r="D201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E201">
         <v>2.692933327062218</v>
@@ -11441,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11491,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11541,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11591,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11605,7 +11602,7 @@
         <v>2.353252705775172</v>
       </c>
       <c r="D205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E205">
         <v>3.037215179660817</v>
@@ -11641,7 +11638,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11655,7 +11652,7 @@
         <v>2.533252705775172</v>
       </c>
       <c r="D206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E206">
         <v>3.037215179660817</v>
@@ -11691,7 +11688,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11705,7 +11702,7 @@
         <v>-1.066638455738899</v>
       </c>
       <c r="D207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E207">
         <v>-1.465413797453388</v>
@@ -11741,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11755,7 +11752,7 @@
         <v>-1.0366384557389</v>
       </c>
       <c r="D208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E208">
         <v>-1.465413797453388</v>
@@ -11791,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11805,7 +11802,7 @@
         <v>-0.9510556888450674</v>
       </c>
       <c r="D209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E209">
         <v>-1.465413797453388</v>
@@ -11841,7 +11838,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11855,7 +11852,7 @@
         <v>-1.819265145803461</v>
       </c>
       <c r="D210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E210">
         <v>-1.307592851757549</v>
@@ -11891,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11905,7 +11902,7 @@
         <v>-1.771950960365871</v>
       </c>
       <c r="D211" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E211">
         <v>-1.297263464992842</v>
@@ -11941,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11955,7 +11952,7 @@
         <v>-1.016934078228135</v>
       </c>
       <c r="D212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E212">
         <v>-1.07654556696558</v>
@@ -11991,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12005,7 +12002,7 @@
         <v>-1.083441760674821</v>
       </c>
       <c r="D213" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E213">
         <v>-1.481089607902267</v>
@@ -12041,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12055,7 +12052,7 @@
         <v>-1.053441760674821</v>
       </c>
       <c r="D214" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E214">
         <v>-1.481089607902267</v>
@@ -12091,7 +12088,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12105,7 +12102,7 @@
         <v>-0.9668769824535648</v>
       </c>
       <c r="D215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E215">
         <v>-1.481089607902267</v>
@@ -12141,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12155,7 +12152,7 @@
         <v>-1.83581385521005</v>
       </c>
       <c r="D216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E216">
         <v>-1.323195920626619</v>
@@ -12191,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12205,7 +12202,7 @@
         <v>-1.787408546075322</v>
       </c>
       <c r="D217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E217">
         <v>-1.311375331475824</v>
@@ -12241,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12291,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12305,7 +12302,7 @@
         <v>-1.07759404974841</v>
       </c>
       <c r="D219" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E219">
         <v>-1.503621288834554</v>
@@ -12341,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12355,7 +12352,7 @@
         <v>-0.9896177741137624</v>
       </c>
       <c r="D220" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E220">
         <v>-1.503621288834554</v>
@@ -12391,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12405,7 +12402,7 @@
         <v>-1.859600200509798</v>
       </c>
       <c r="D221" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E221">
         <v>-1.345623046194952</v>
@@ -12441,7 +12438,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12455,7 +12452,7 @@
         <v>-1.809626560915746</v>
       </c>
       <c r="D222" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E222">
         <v>-1.33165907208308</v>
@@ -12491,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12505,7 +12502,7 @@
         <v>-1.047695097971209</v>
       </c>
       <c r="D223" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E223">
         <v>-1.119714428935569</v>
@@ -12541,7 +12538,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12555,7 +12552,7 @@
         <v>-1.107622621715292</v>
       </c>
       <c r="D224" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E224">
         <v>-1.53163495662184</v>
@@ -12605,7 +12602,7 @@
         <v>-1.017891429537125</v>
       </c>
       <c r="D225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E225">
         <v>-1.53163495662184</v>
@@ -12655,7 +12652,7 @@
         <v>-1.889173794113544</v>
       </c>
       <c r="D226" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E226">
         <v>-1.373506720164198</v>
@@ -12705,7 +12702,7 @@
         <v>-1.837250247248916</v>
       </c>
       <c r="D227" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E227">
         <v>-1.356877872782539</v>
@@ -12805,7 +12802,7 @@
         <v>-1.136466558905362</v>
       </c>
       <c r="D229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E229">
         <v>-1.55854347811301</v>
@@ -12841,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12855,7 +12852,7 @@
         <v>-1.045049682086217</v>
       </c>
       <c r="D230" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E230">
         <v>-1.55854347811301</v>
@@ -12891,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12905,7 +12902,7 @@
         <v>-1.91758070195225</v>
       </c>
       <c r="D231" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E231">
         <v>-1.400290376126407</v>
@@ -12941,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12955,7 +12952,7 @@
         <v>-1.863784172153202</v>
       </c>
       <c r="D232" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E232">
         <v>-1.38110178540104</v>
@@ -12991,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13005,7 +13002,7 @@
         <v>-1.091913194675672</v>
       </c>
       <c r="D233" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E233">
         <v>-0.942243215869925</v>
@@ -13041,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13055,7 +13052,7 @@
         <v>-1.06938217480964</v>
       </c>
       <c r="D234" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E234">
         <v>-0.942243215869925</v>
@@ -13091,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13105,7 +13102,7 @@
         <v>-1.09938217480964</v>
       </c>
       <c r="D235" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E235">
         <v>-0.942243215869925</v>
@@ -13141,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13155,7 +13152,7 @@
         <v>-1.069955605077879</v>
       </c>
       <c r="D236" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E236">
         <v>-1.583220381123139</v>
@@ -13205,7 +13202,7 @@
         <v>-1.943631724851574</v>
       </c>
       <c r="D237" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E237">
         <v>-1.42485276914577</v>
@@ -13255,7 +13252,7 @@
         <v>-1.888117545191031</v>
       </c>
       <c r="D238" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E238">
         <v>-1.403316723609694</v>
@@ -13305,7 +13302,7 @@
         <v>-1.111780678073619</v>
       </c>
       <c r="D239" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E239">
         <v>-0.8811636624809664</v>
@@ -13355,7 +13352,7 @@
         <v>-1.088104558299923</v>
       </c>
       <c r="D240" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E240">
         <v>-0.8811636624809664</v>
@@ -13405,7 +13402,7 @@
         <v>-1.118104558299923</v>
       </c>
       <c r="D241" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E241">
         <v>-0.8811636624809664</v>
@@ -13455,7 +13452,7 @@
         <v>-1.100958399511376</v>
       </c>
       <c r="D242" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E242">
         <v>-1.613938092389432</v>
@@ -13491,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13505,7 +13502,7 @@
         <v>-1.976059935121095</v>
       </c>
       <c r="D243" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E243">
         <v>-1.455427938828461</v>
@@ -13541,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13555,7 +13552,7 @@
         <v>-1.918407631706518</v>
       </c>
       <c r="D244" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E244">
         <v>-1.430969790828538</v>
@@ -13591,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13605,7 +13602,7 @@
         <v>-1.136511642828615</v>
       </c>
       <c r="D245" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E245">
         <v>-1.028859339414037</v>
@@ -13641,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13655,7 +13652,7 @@
         <v>-1.111410107218897</v>
       </c>
       <c r="D246" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E246">
         <v>-1.028859339414037</v>
@@ -13691,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13705,7 +13702,7 @@
         <v>-1.141410107218897</v>
       </c>
       <c r="D247" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E247">
         <v>-1.028859339414037</v>
@@ -13741,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13755,7 +13752,7 @@
         <v>-1.117512484565025</v>
       </c>
       <c r="D248" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E248">
         <v>-1.630339955971323</v>
@@ -13791,7 +13788,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13805,7 +13802,7 @@
         <v>-1.993375127533532</v>
       </c>
       <c r="D249" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E249">
         <v>-1.471753691674473</v>
@@ -13841,7 +13838,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13855,7 +13852,7 @@
         <v>-1.934581163080772</v>
       </c>
       <c r="D250" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E250">
         <v>-1.445735273589034</v>
@@ -13891,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13905,7 +13902,7 @@
         <v>-1.149716855503595</v>
       </c>
       <c r="D251" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E251">
         <v>-1.032336626753983</v>
@@ -13941,7 +13938,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13955,7 +13952,7 @@
         <v>-1.123854212535088</v>
       </c>
       <c r="D252" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E252">
         <v>-1.032336626753983</v>
@@ -13991,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14005,7 +14002,7 @@
         <v>-1.153854212535088</v>
       </c>
       <c r="D253" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E253">
         <v>-1.032336626753983</v>
@@ -14041,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14055,7 +14052,7 @@
         <v>-1.135440729342402</v>
       </c>
       <c r="D254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E254">
         <v>-1.64810334332546</v>
@@ -14091,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14105,7 +14102,7 @@
         <v>-2.012127659427111</v>
       </c>
       <c r="D255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E255">
         <v>-1.489434650316991</v>
@@ -14141,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14155,7 +14152,7 @@
         <v>-1.95209726430005</v>
       </c>
       <c r="D256" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E256">
         <v>-1.461726443643339</v>
@@ -14191,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14205,7 +14202,7 @@
         <v>-1.164018236969687</v>
       </c>
       <c r="D257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E257">
         <v>-1.112656534851095</v>
@@ -14241,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14255,7 +14252,7 @@
         <v>-1.137331306884979</v>
       </c>
       <c r="D258" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E258">
         <v>-1.112656534851095</v>
@@ -14291,7 +14288,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14305,7 +14302,7 @@
         <v>-1.167331306884979</v>
       </c>
       <c r="D259" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E259">
         <v>-1.112656534851095</v>
@@ -14341,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14355,7 +14352,7 @@
         <v>-2.029751754240792</v>
       </c>
       <c r="D260" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E260">
         <v>-1.506051653998461</v>
@@ -14405,7 +14402,7 @@
         <v>-1.968559330884256</v>
       </c>
       <c r="D261" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E261">
         <v>-1.476755342077862</v>
@@ -14455,7 +14452,7 @@
         <v>-1.177459030157264</v>
       </c>
       <c r="D262" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E262">
         <v>-1.113758929914932</v>
@@ -14505,7 +14502,7 @@
         <v>-1.149997414586239</v>
       </c>
       <c r="D263" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E263">
         <v>-1.113758929914932</v>
@@ -14555,7 +14552,7 @@
         <v>-1.179997414586239</v>
       </c>
       <c r="D264" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E264">
         <v>-1.113758929914932</v>
@@ -14605,7 +14602,7 @@
         <v>-2.049264235927141</v>
       </c>
       <c r="D265" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E265">
         <v>-1.524449136731304</v>
@@ -14641,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14655,7 +14652,7 @@
         <v>-1.986785275316561</v>
       </c>
       <c r="D266" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E266">
         <v>-1.493394557230178</v>
@@ -14691,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14705,7 +14702,7 @@
         <v>-1.192339977729051</v>
       </c>
       <c r="D267" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E267">
         <v>-0.9807727745942727</v>
@@ -14741,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14755,7 +14752,7 @@
         <v>-1.16402067065533</v>
       </c>
       <c r="D268" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E268">
         <v>-0.9807727745942727</v>
@@ -14791,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -14805,7 +14802,7 @@
         <v>-1.19402067065533</v>
       </c>
       <c r="D269" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E269">
         <v>-0.9807727745942727</v>
@@ -14841,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -14855,7 +14852,7 @@
         <v>-2.083260847634321</v>
       </c>
       <c r="D270" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E270">
         <v>-1.55650308491236</v>
@@ -14891,7 +14888,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -14905,7 +14902,7 @@
         <v>-2.018540352185904</v>
       </c>
       <c r="D271" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E271">
         <v>-1.52238507446619</v>
@@ -14941,7 +14938,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -14955,7 +14952,7 @@
         <v>-1.218267064020021</v>
       </c>
       <c r="D272" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E272">
         <v>-1.15072047992809</v>
@@ -14991,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15005,7 +15002,7 @@
         <v>-1.188453400387743</v>
       </c>
       <c r="D273" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E273">
         <v>-1.15072047992809</v>
@@ -15041,7 +15038,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15055,7 +15052,7 @@
         <v>-1.218453400387743</v>
       </c>
       <c r="D274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E274">
         <v>-1.15072047992809</v>
@@ -15091,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15105,7 +15102,7 @@
         <v>-2.129173370599524</v>
       </c>
       <c r="D275" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E275">
         <v>-1.599792035136694</v>
@@ -15141,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15155,7 +15152,7 @@
         <v>-2.061425675834721</v>
       </c>
       <c r="D276" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E276">
         <v>-1.561536852291463</v>
@@ -15191,7 +15188,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15205,7 +15202,7 @@
         <v>-1.253281669446231</v>
       </c>
       <c r="D277" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E277">
         <v>-1.285422798224685</v>
@@ -15241,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15255,7 +15252,7 @@
         <v>-1.221449872936362</v>
       </c>
       <c r="D278" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E278">
         <v>-1.285422798224685</v>
@@ -15291,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15305,7 +15302,7 @@
         <v>-1.251449872936362</v>
       </c>
       <c r="D279" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E279">
         <v>-1.285422798224685</v>
@@ -15341,7 +15338,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15355,7 +15352,7 @@
         <v>-2.169540849194301</v>
       </c>
       <c r="D280" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E280">
         <v>-1.637852800668912</v>
@@ -15391,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15405,7 +15402,7 @@
         <v>-2.099131562434238</v>
       </c>
       <c r="D281" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E281">
         <v>-1.595960108763492</v>
@@ -15441,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15455,7 +15452,7 @@
         <v>-1.284067416858071</v>
       </c>
       <c r="D282" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E282">
         <v>-1.430231131562097</v>
@@ -15491,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15505,7 +15502,7 @@
         <v>-1.250461225684695</v>
       </c>
       <c r="D283" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E283">
         <v>-1.430231131562097</v>
@@ -15541,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15555,7 +15552,7 @@
         <v>-1.280461225684695</v>
       </c>
       <c r="D284" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E284">
         <v>-1.430231131562097</v>
@@ -15591,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15605,7 +15602,7 @@
         <v>-2.189959023684696</v>
       </c>
       <c r="D285" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E285">
         <v>-1.657104222331285</v>
@@ -15641,7 +15638,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15655,7 +15652,7 @@
         <v>-2.11820348366153</v>
       </c>
       <c r="D286" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E286">
         <v>-1.613371650966291</v>
@@ -15691,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15705,7 +15702,7 @@
         <v>-1.299639079601296</v>
       </c>
       <c r="D287" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E287">
         <v>-1.362715372273368</v>
@@ -15741,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15755,7 +15752,7 @@
         <v>-1.265135386252518</v>
       </c>
       <c r="D288" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E288">
         <v>-1.362715372273368</v>
@@ -15791,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -15805,7 +15802,7 @@
         <v>-1.295135386252518</v>
       </c>
       <c r="D289" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E289">
         <v>-1.362715372273368</v>
@@ -15841,7 +15838,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -15855,7 +15852,7 @@
         <v>-2.214173184477514</v>
       </c>
       <c r="D290" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E290">
         <v>-1.679934716793084</v>
@@ -15891,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -15905,7 +15902,7 @@
         <v>-2.140821106380096</v>
       </c>
       <c r="D291" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E291">
         <v>-1.634020210059946</v>
@@ -15941,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -15955,7 +15952,7 @@
         <v>-1.318105703326807</v>
       </c>
       <c r="D292" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E292">
         <v>-1.489781742375517</v>
@@ -15991,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16005,7 +16002,7 @@
         <v>-1.282537651261862</v>
       </c>
       <c r="D293" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E293">
         <v>-1.489781742375517</v>
@@ -16041,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16055,7 +16052,7 @@
         <v>-1.312537651261862</v>
       </c>
       <c r="D294" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E294">
         <v>-1.489781742375517</v>
@@ -16091,7 +16088,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16105,7 +16102,7 @@
         <v>-2.241121102143395</v>
       </c>
       <c r="D295" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E295">
         <v>-1.705342753449486</v>
@@ -16141,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16155,7 +16152,7 @@
         <v>-2.165992238265808</v>
       </c>
       <c r="D296" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E296">
         <v>-1.656999972816785</v>
@@ -16191,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16205,7 +16202,7 @@
         <v>-1.338657192184084</v>
       </c>
       <c r="D297" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E297">
         <v>-1.427033480143279</v>
@@ -16241,7 +16238,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16255,7 +16252,7 @@
         <v>-1.301904616265692</v>
       </c>
       <c r="D298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E298">
         <v>-1.427033480143279</v>
@@ -16291,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16305,7 +16302,7 @@
         <v>-1.331904616265692</v>
       </c>
       <c r="D299" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E299">
         <v>-1.427033480143279</v>
@@ -16341,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16355,7 +16352,7 @@
         <v>1.347720014974502</v>
       </c>
       <c r="D300" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E300">
         <v>1.579062118830282</v>
@@ -16391,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16405,7 +16402,7 @@
         <v>1.334700016044109</v>
       </c>
       <c r="D301" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E301">
         <v>1.593089491417174</v>
@@ -16441,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16455,7 +16452,7 @@
         <v>1.841747387561394</v>
       </c>
       <c r="D302" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E302">
         <v>1.890874754800249</v>
@@ -16491,7 +16488,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16505,7 +16502,7 @@
         <v>1.862485279427185</v>
       </c>
       <c r="D303" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E303">
         <v>1.890874754800249</v>
@@ -16541,7 +16538,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16555,7 +16552,7 @@
         <v>1.441706845387347</v>
       </c>
       <c r="D304" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E304">
         <v>1.664215600520115</v>
@@ -16591,7 +16588,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16605,7 +16602,7 @@
         <v>1.435400191486443</v>
       </c>
       <c r="D305" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E305">
         <v>1.704389685327122</v>
@@ -16641,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16655,7 +16652,7 @@
         <v>1.856584782452771</v>
       </c>
       <c r="D306" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E306">
         <v>1.861880930194354</v>
@@ -16691,7 +16688,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16705,7 +16702,7 @@
         <v>1.9645987906652</v>
       </c>
       <c r="D307" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E307">
         <v>1.861880930194354</v>
@@ -16741,7 +16738,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16755,7 +16752,7 @@
         <v>2.014804950663784</v>
       </c>
       <c r="D308" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E308">
         <v>1.689180786611569</v>
@@ -16791,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -16805,7 +16802,7 @@
         <v>1.927301606872644</v>
       </c>
       <c r="D309" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E309">
         <v>1.689180786611569</v>
@@ -16841,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -16855,7 +16852,7 @@
         <v>1.922617032689892</v>
       </c>
       <c r="D310" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E310">
         <v>1.689180786611569</v>
@@ -16891,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -16905,7 +16902,7 @@
         <v>1.696992868637676</v>
       </c>
       <c r="D311" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E311">
         <v>1.791368704585461</v>
@@ -16941,7 +16938,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -16991,7 +16988,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17041,7 +17038,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17091,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17141,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17191,7 +17188,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17241,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17255,7 +17252,7 @@
         <v>1.869784887916945</v>
       </c>
       <c r="D318" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E318">
         <v>1.868536559812515</v>
@@ -17291,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17305,7 +17302,7 @@
         <v>1.892281544125805</v>
       </c>
       <c r="D319" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E319">
         <v>1.868536559812515</v>
@@ -17341,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17355,7 +17352,7 @@
         <v>1.879784887916945</v>
       </c>
       <c r="D320" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E320">
         <v>1.868536559812515</v>
@@ -17391,7 +17388,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17405,7 +17402,7 @@
         <v>1.830509026107986</v>
       </c>
       <c r="D321" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E321">
         <v>1.588842690067986</v>
@@ -17441,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17455,7 +17452,7 @@
         <v>1.823342590879987</v>
       </c>
       <c r="D322" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E322">
         <v>1.588842690067986</v>
@@ -17491,7 +17488,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17505,7 +17502,7 @@
         <v>1.597009323671986</v>
       </c>
       <c r="D323" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E323">
         <v>1.690676056463986</v>
@@ -17541,7 +17538,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17555,7 +17552,7 @@
         <v>1.564008728543987</v>
       </c>
       <c r="D324" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E324">
         <v>1.690841103059988</v>
@@ -17591,7 +17588,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17605,7 +17602,7 @@
         <v>1.612175362147987</v>
       </c>
       <c r="D325" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E325">
         <v>1.690841103059988</v>
@@ -17641,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17655,7 +17652,7 @@
         <v>1.608508629355987</v>
       </c>
       <c r="D326" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E326">
         <v>1.690841103059988</v>
@@ -17691,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17705,7 +17702,7 @@
         <v>1.611175163771987</v>
       </c>
       <c r="D327" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E327">
         <v>1.690841103059988</v>
@@ -17741,7 +17738,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17791,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -17805,7 +17802,7 @@
         <v>1.787174370267988</v>
       </c>
       <c r="D329" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E329">
         <v>1.578675659711986</v>
@@ -17841,7 +17838,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -17855,7 +17852,7 @@
         <v>1.812507439099989</v>
       </c>
       <c r="D330" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E330">
         <v>1.578675659711986</v>
@@ -17891,7 +17888,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -17905,7 +17902,7 @@
         <v>1.783507637475988</v>
       </c>
       <c r="D331" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E331">
         <v>1.578675659711986</v>
@@ -17941,7 +17938,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -17955,7 +17952,7 @@
         <v>1.797174370267989</v>
       </c>
       <c r="D332" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E332">
         <v>1.578675659711986</v>
@@ -17991,7 +17988,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18005,7 +18002,7 @@
         <v>1.796508232603987</v>
       </c>
       <c r="D333" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E333">
         <v>1.578675659711986</v>
@@ -18041,7 +18038,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18055,7 +18052,7 @@
         <v>1.60619577124814</v>
       </c>
       <c r="D334" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E334">
         <v>1.409496709559184</v>
@@ -18091,7 +18088,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18105,7 +18102,7 @@
         <v>1.639829926132983</v>
       </c>
       <c r="D335" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E335">
         <v>1.409496709559184</v>
@@ -18141,7 +18138,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18155,7 +18152,7 @@
         <v>1.641634855442047</v>
       </c>
       <c r="D336" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E336">
         <v>1.409496709559184</v>
@@ -18191,7 +18188,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18205,7 +18202,7 @@
         <v>1.294651169712725</v>
       </c>
       <c r="D337" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E337">
         <v>1.17011455017335</v>
@@ -18241,7 +18238,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18255,7 +18252,7 @@
         <v>1.309805629866267</v>
       </c>
       <c r="D338" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E338">
         <v>1.17011455017335</v>
@@ -18291,7 +18288,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18305,7 +18302,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D339" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E339">
         <v>1.17011455017335</v>
@@ -18341,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18355,7 +18352,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D340" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E340">
         <v>1.17011455017335</v>
@@ -18391,7 +18388,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18405,7 +18402,7 @@
         <v>1.306789315595589</v>
       </c>
       <c r="D341" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E341">
         <v>1.17011455017335</v>
@@ -18441,7 +18438,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18455,7 +18452,7 @@
         <v>1.225269010326891</v>
       </c>
       <c r="D342" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E342">
         <v>1.17011455017335</v>
@@ -18491,7 +18488,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18505,7 +18502,7 @@
         <v>1.444294269397325</v>
       </c>
       <c r="D343" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E343">
         <v>1.256000185094495</v>
@@ -18555,7 +18552,7 @@
         <v>1.501117816501946</v>
       </c>
       <c r="D344" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E344">
         <v>1.256000185094495</v>
@@ -18605,7 +18602,7 @@
         <v>1.083058995014017</v>
       </c>
       <c r="D345" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E345">
         <v>1.093353102453659</v>
@@ -18655,7 +18652,7 @@
         <v>1.408730452400234</v>
       </c>
       <c r="D346" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E346">
         <v>1.224172692200284</v>
@@ -18691,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18705,7 +18702,7 @@
         <v>1.47198161896276</v>
       </c>
       <c r="D347" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E347">
         <v>1.224172692200284</v>
@@ -18741,7 +18738,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18791,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -18805,7 +18802,7 @@
         <v>1.382122760311682</v>
       </c>
       <c r="D349" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E349">
         <v>1.191863351807043</v>
@@ -18841,7 +18838,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -18855,7 +18852,7 @@
         <v>1.442404318382183</v>
       </c>
       <c r="D350" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E350">
         <v>1.191863351807043</v>
@@ -18891,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -18941,7 +18938,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -18955,7 +18952,7 @@
         <v>1.370401955803482</v>
       </c>
       <c r="D352" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E352">
         <v>1.1776309463328</v>
@@ -19005,7 +19002,7 @@
         <v>1.429375388370835</v>
       </c>
       <c r="D353" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E353">
         <v>1.1776309463328</v>
@@ -19055,7 +19052,7 @@
         <v>1.010452200278918</v>
       </c>
       <c r="D354" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E354">
         <v>1.015068140738506</v>
@@ -19105,7 +19102,7 @@
         <v>1.025068140738506</v>
       </c>
       <c r="D355" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E355">
         <v>1.015068140738506</v>
@@ -19155,7 +19152,7 @@
         <v>1.355513343522262</v>
       </c>
       <c r="D356" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E356">
         <v>1.159551917134175</v>
@@ -19191,7 +19188,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19205,7 +19202,7 @@
         <v>1.4128251006118</v>
       </c>
       <c r="D357" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E357">
         <v>1.159551917134175</v>
@@ -19241,7 +19238,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19255,7 +19252,7 @@
         <v>0.9937025114625451</v>
       </c>
       <c r="D358" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E358">
         <v>1.019315457208822</v>
@@ -19291,7 +19288,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19305,7 +19302,7 @@
         <v>1.009315457208822</v>
       </c>
       <c r="D359" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E359">
         <v>1.019315457208822</v>
@@ -19341,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19355,7 +19352,7 @@
         <v>1.344301537527252</v>
       </c>
       <c r="D360" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E360">
         <v>1.145937581283092</v>
@@ -19405,7 +19402,7 @@
         <v>1.400361976983419</v>
       </c>
       <c r="D361" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E361">
         <v>1.145937581283092</v>
@@ -19555,7 +19552,7 @@
         <v>1.32595157423566</v>
       </c>
       <c r="D364" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E364">
         <v>1.123655483000445</v>
@@ -19591,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19605,7 +19602,7 @@
         <v>1.379964026717319</v>
       </c>
       <c r="D365" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E365">
         <v>1.123655483000445</v>
@@ -19641,7 +19638,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19655,7 +19652,7 @@
         <v>0.9604455210151182</v>
       </c>
       <c r="D366" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E366">
         <v>0.9494825324195202</v>
@@ -19691,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19705,7 +19702,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D367" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E367">
         <v>0.9494825324195202</v>
@@ -19741,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19755,7 +19752,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D368" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E368">
         <v>0.9494825324195202</v>
@@ -19791,7 +19788,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -19805,7 +19802,7 @@
         <v>0.93948253241952</v>
       </c>
       <c r="D369" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E369">
         <v>0.9494825324195202</v>
@@ -19841,7 +19838,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -19855,7 +19852,7 @@
         <v>1.346901155844391</v>
       </c>
       <c r="D370" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E370">
         <v>1.225539647019887</v>
@@ -19891,7 +19888,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -19905,7 +19902,7 @@
         <v>1.331298641136886</v>
       </c>
       <c r="D371" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E371">
         <v>1.225539647019887</v>
@@ -19941,7 +19938,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -19955,7 +19952,7 @@
         <v>1.154256377900131</v>
       </c>
       <c r="D372" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E372">
         <v>1.26001537201713</v>
@@ -19991,7 +19988,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20005,7 +20002,7 @@
         <v>1.14857562348788</v>
       </c>
       <c r="D373" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E373">
         <v>1.274334617604878</v>
@@ -20041,7 +20038,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20055,7 +20052,7 @@
         <v>1.324412857309625</v>
       </c>
       <c r="D374" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E374">
         <v>1.205852605838874</v>
@@ -20091,7 +20088,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20105,7 +20102,7 @@
         <v>1.043943419081145</v>
       </c>
       <c r="D375" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E375">
         <v>1.269702413198143</v>
@@ -20141,7 +20138,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20155,7 +20152,7 @@
         <v>1.36666643673015</v>
       </c>
       <c r="D376" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E376">
         <v>1.400907442613152</v>
@@ -20191,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20205,7 +20202,7 @@
         <v>1.3381061852594</v>
       </c>
       <c r="D377" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E377">
         <v>1.400907442613152</v>
@@ -20241,7 +20238,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20255,7 +20252,7 @@
         <v>1.337921514632137</v>
       </c>
       <c r="D378" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E378">
         <v>1.216329758597064</v>
@@ -20305,7 +20302,7 @@
         <v>1.321935254573682</v>
       </c>
       <c r="D379" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E379">
         <v>1.216329758597064</v>
@@ -20355,7 +20352,7 @@
         <v>1.144547620521072</v>
       </c>
       <c r="D380" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E380">
         <v>1.250153116497689</v>
@@ -20405,7 +20402,7 @@
         <v>1.138751742503535</v>
       </c>
       <c r="D381" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E381">
         <v>1.264357238480152</v>
@@ -20455,7 +20452,7 @@
         <v>1.314166856439233</v>
       </c>
       <c r="D382" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E382">
         <v>1.195568230433388</v>
@@ -20505,7 +20502,7 @@
         <v>1.035309148684748</v>
       </c>
       <c r="D383" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E383">
         <v>1.260914644661365</v>
@@ -20655,7 +20652,7 @@
         <v>1.326338641239302</v>
       </c>
       <c r="D386" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E386">
         <v>1.204449888450566</v>
@@ -20691,7 +20688,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20705,7 +20702,7 @@
         <v>1.309857386591409</v>
       </c>
       <c r="D387" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E387">
         <v>1.204449888450566</v>
@@ -20741,7 +20738,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20755,7 +20752,7 @@
         <v>1.132024257408305</v>
       </c>
       <c r="D388" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E388">
         <v>1.237431755549148</v>
@@ -20791,7 +20788,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -20805,7 +20802,7 @@
         <v>1.126079881013937</v>
       </c>
       <c r="D389" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E389">
         <v>1.25148737915478</v>
@@ -20841,7 +20838,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -20855,7 +20852,7 @@
         <v>1.300950500901255</v>
       </c>
       <c r="D390" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E390">
         <v>1.182302375436465</v>
@@ -20891,7 +20888,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -20905,7 +20902,7 @@
         <v>1.024171770422406</v>
       </c>
       <c r="D391" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E391">
         <v>1.249579268563249</v>
@@ -20941,7 +20938,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -20955,7 +20952,7 @@
         <v>1.347949275999877</v>
       </c>
       <c r="D392" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E392">
         <v>1.407134279718192</v>
@@ -20991,7 +20988,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21005,7 +21002,7 @@
         <v>1.319301150535088</v>
       </c>
       <c r="D393" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E393">
         <v>1.407134279718192</v>
@@ -21041,7 +21038,7 @@
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21055,7 +21052,7 @@
         <v>1.31894662096582</v>
       </c>
       <c r="D394" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E394">
         <v>1.196868329195712</v>
@@ -21091,7 +21088,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21105,7 +21102,7 @@
         <v>1.302149468015641</v>
       </c>
       <c r="D395" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E395">
         <v>1.196868329195712</v>
@@ -21141,7 +21138,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21155,7 +21152,7 @@
         <v>1.12403203036048</v>
       </c>
       <c r="D396" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E396">
         <v>1.229313169180409</v>
@@ -21191,7 +21188,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21205,7 +21202,7 @@
         <v>1.117992884475426</v>
       </c>
       <c r="D397" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E397">
         <v>1.243274023295355</v>
@@ -21241,7 +21238,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21255,7 +21252,7 @@
         <v>1.017064058620981</v>
       </c>
       <c r="D398" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E398">
         <v>1.242345197440909</v>
@@ -21291,7 +21288,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21341,7 +21338,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21391,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -21405,7 +21402,7 @@
         <v>1.309314370259902</v>
       </c>
       <c r="D401" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E401">
         <v>1.212105582664171</v>
@@ -21441,7 +21438,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -21455,7 +21452,7 @@
         <v>1.113617673828013</v>
       </c>
       <c r="D402" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E402">
         <v>1.218734158789721</v>
@@ -21491,7 +21488,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -21505,7 +21502,7 @@
         <v>1.107455037549294</v>
       </c>
       <c r="D403" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E403">
         <v>1.232571522511002</v>
@@ -21541,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -21555,7 +21552,7 @@
         <v>1.00780227909606</v>
       </c>
       <c r="D404" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E404">
         <v>1.232918764057767</v>
@@ -21591,7 +21588,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -21641,7 +21638,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -21691,7 +21688,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -21741,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -21755,7 +21752,7 @@
         <v>1.096911392393543</v>
       </c>
       <c r="D408" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E408">
         <v>1.20176374642348</v>
@@ -21791,7 +21788,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -21805,7 +21802,7 @@
         <v>1.090550657915995</v>
       </c>
       <c r="D409" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E409">
         <v>1.215403011945933</v>
@@ -21841,7 +21838,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -21855,7 +21852,7 @@
         <v>0.9929449141839808</v>
       </c>
       <c r="D410" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E410">
         <v>1.217797268213918</v>
@@ -21891,7 +21888,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -21941,7 +21938,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -21991,7 +21988,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22005,7 +22002,7 @@
         <v>1.076787728620787</v>
       </c>
       <c r="D413" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E413">
         <v>1.194722566962074</v>
@@ -22041,7 +22038,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22055,7 +22052,7 @@
         <v>1.070188373624195</v>
       </c>
       <c r="D414" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E414">
         <v>1.194722566962074</v>
@@ -22091,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22105,7 +22102,7 @@
         <v>0.9750483752556411</v>
       </c>
       <c r="D415" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E415">
         <v>1.199582568593519</v>
@@ -22141,7 +22138,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22155,7 +22152,7 @@
         <v>1.06618192359011</v>
       </c>
       <c r="D416" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E416">
         <v>1.199582568593519</v>
@@ -22191,7 +22188,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22205,7 +22202,7 @@
         <v>1.301445795242007</v>
       </c>
       <c r="D417" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E417">
         <v>1.466305796873452</v>
@@ -22241,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22255,7 +22252,7 @@
         <v>1.325778053569659</v>
       </c>
       <c r="D418" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E418">
         <v>1.466305796873452</v>
@@ -22291,7 +22288,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22305,7 +22302,7 @@
         <v>1.061021828820504</v>
       </c>
       <c r="D419" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E419">
         <v>1.178520456495379</v>
@@ -22341,7 +22338,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22355,7 +22352,7 @@
         <v>1.05423552639545</v>
       </c>
       <c r="D420" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E420">
         <v>1.178520456495379</v>
@@ -22391,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22405,7 +22402,7 @@
         <v>0.9610273181210012</v>
       </c>
       <c r="D421" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E421">
         <v>1.18531224822093</v>
@@ -22441,7 +22438,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22455,7 +22452,7 @@
         <v>1.052098550645983</v>
       </c>
       <c r="D422" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E422">
         <v>1.18531224822093</v>
@@ -22491,7 +22488,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -22505,7 +22502,7 @@
         <v>1.288172527821214</v>
       </c>
       <c r="D423" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E423">
         <v>1.460679389446836</v>
@@ -22541,7 +22538,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -22555,7 +22552,7 @@
         <v>1.312816365196303</v>
       </c>
       <c r="D424" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E424">
         <v>1.460679389446836</v>
@@ -22591,7 +22588,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -22705,7 +22702,7 @@
         <v>0.8755952802088971</v>
       </c>
       <c r="D427" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E427">
         <v>1.122137607315365</v>
@@ -22755,7 +22752,7 @@
         <v>1.266605330685716</v>
       </c>
       <c r="D428" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E428">
         <v>1.559580979333694</v>
@@ -22841,7 +22838,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -22855,7 +22852,7 @@
         <v>0.8602148664207081</v>
       </c>
       <c r="D430" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E430">
         <v>1.107098980500247</v>
@@ -22891,7 +22888,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -22905,7 +22902,7 @@
         <v>1.280896373713855</v>
       </c>
       <c r="D431" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E431">
         <v>1.524099754797897</v>
@@ -22941,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23105,7 +23102,7 @@
         <v>1.302688953291221</v>
       </c>
       <c r="D435" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E435">
         <v>1.419681456386476</v>
@@ -23191,7 +23188,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23241,7 +23238,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23291,7 +23288,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23305,7 +23302,7 @@
         <v>1.257626439327654</v>
       </c>
       <c r="D439" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E439">
         <v>1.411664944525371</v>
@@ -23341,7 +23338,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23355,7 +23352,7 @@
         <v>1.840766780529548</v>
       </c>
       <c r="D440" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E440">
         <v>2.000338151296236</v>
@@ -23391,7 +23388,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23405,7 +23402,7 @@
         <v>2.174266578212954</v>
       </c>
       <c r="D441" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E441">
         <v>2.309284269167179</v>
@@ -23441,7 +23438,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23455,7 +23452,7 @@
         <v>2.096677111858851</v>
       </c>
       <c r="D442" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E442">
         <v>1.937337746663046</v>
@@ -23491,7 +23488,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23505,7 +23502,7 @@
         <v>1.86232005570882</v>
       </c>
       <c r="D443" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E443">
         <v>1.975355842250461</v>
@@ -23541,7 +23538,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -23555,7 +23552,7 @@
         <v>1.842592596122513</v>
       </c>
       <c r="D444" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E444">
         <v>2.002261997256608</v>
@@ -23591,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -23605,7 +23602,7 @@
         <v>2.176435500091845</v>
       </c>
       <c r="D445" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E445">
         <v>2.311735028352367</v>
@@ -23641,7 +23638,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -23655,7 +23652,7 @@
         <v>2.099152378635891</v>
       </c>
       <c r="D446" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E446">
         <v>1.939947805195271</v>
@@ -23691,7 +23688,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -23705,7 +23702,7 @@
         <v>1.864648276934749</v>
       </c>
       <c r="D447" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E447">
         <v>1.97756152551713</v>
@@ -23741,7 +23738,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -23755,7 +23752,7 @@
         <v>1.84474004582061</v>
       </c>
       <c r="D448" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E448">
         <v>2.004524746267355</v>
@@ -23791,7 +23788,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -23805,7 +23802,7 @@
         <v>2.178986497384215</v>
       </c>
       <c r="D449" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E449">
         <v>2.314617511168604</v>
@@ -23841,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -23855,7 +23852,7 @@
         <v>2.102063686280291</v>
       </c>
       <c r="D450" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E450">
         <v>1.943017649394564</v>
@@ -23891,7 +23888,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -23905,7 +23902,7 @@
         <v>1.867386635610175</v>
       </c>
       <c r="D451" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E451">
         <v>1.980155760051744</v>
@@ -23941,7 +23938,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -23955,7 +23952,7 @@
         <v>2.182944230037506</v>
       </c>
       <c r="D452" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E452">
         <v>2.319089525466108</v>
@@ -23991,7 +23988,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24005,7 +24002,7 @@
         <v>2.106580420720769</v>
       </c>
       <c r="D453" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E453">
         <v>1.947780344621405</v>
@@ -24041,7 +24038,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24055,7 +24052,7 @@
         <v>1.871635049192803</v>
       </c>
       <c r="D454" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E454">
         <v>1.984180572919497</v>
@@ -24091,7 +24088,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24105,7 +24102,7 @@
         <v>2.18904965856885</v>
       </c>
       <c r="D455" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E455">
         <v>2.325988314767062</v>
@@ -24141,7 +24138,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24155,7 +24152,7 @@
         <v>2.113548197914732</v>
       </c>
       <c r="D456" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E456">
         <v>1.955127555226921</v>
@@ -24191,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24205,7 +24202,7 @@
         <v>1.878188899028709</v>
       </c>
       <c r="D457" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E457">
         <v>2.015269716995014</v>
@@ -24241,7 +24238,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24255,7 +24252,7 @@
         <v>1.88583444385064</v>
       </c>
       <c r="D458" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E458">
         <v>2.125307034142769</v>
@@ -24291,7 +24288,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24305,7 +24302,7 @@
         <v>2.298073483752043</v>
       </c>
       <c r="D459" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E459">
         <v>2.037664496092738</v>
@@ -24341,7 +24338,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24355,7 +24352,7 @@
         <v>1.897427651995606</v>
       </c>
       <c r="D460" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E460">
         <v>2.100495646236972</v>
@@ -24391,7 +24388,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24405,7 +24402,7 @@
         <v>1.886668859096591</v>
       </c>
       <c r="D461" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E461">
         <v>2.126294507806616</v>
@@ -24441,7 +24438,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24455,7 +24452,7 @@
         <v>2.29919426636051</v>
       </c>
       <c r="D462" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E462">
         <v>2.038997585538931</v>
@@ -24491,7 +24488,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -24505,7 +24502,7 @@
         <v>1.898642244602138</v>
       </c>
       <c r="D463" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E463">
         <v>2.102411345144836</v>
@@ -24541,7 +24538,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -24555,7 +24552,7 @@
         <v>1.887695818378956</v>
       </c>
       <c r="D464" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E464">
         <v>2.127509844235451</v>
@@ -24591,7 +24588,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -24641,7 +24638,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -24655,7 +24652,7 @@
         <v>1.900137108409605</v>
       </c>
       <c r="D466" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E466">
         <v>2.104769097816775</v>
@@ -24691,7 +24688,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -24705,7 +24702,7 @@
         <v>1.882492570308907</v>
       </c>
       <c r="D467" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E467">
         <v>2.121352154211724</v>
@@ -24741,7 +24738,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -24791,7 +24788,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -24805,7 +24802,7 @@
         <v>1.911660475077831</v>
       </c>
       <c r="D469" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E469">
         <v>2.092823179170745</v>
@@ -24841,7 +24838,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -24855,7 +24852,7 @@
         <v>1.879971436092785</v>
       </c>
       <c r="D470" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E470">
         <v>2.118368563423415</v>
@@ -24891,7 +24888,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -24941,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -24955,7 +24952,7 @@
         <v>1.90788623273062</v>
       </c>
       <c r="D472" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E472">
         <v>2.087035013041425</v>
@@ -24991,7 +24988,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25055,7 +25052,7 @@
         <v>1.89858988459332</v>
       </c>
       <c r="D474" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E474">
         <v>2.07277816293363</v>
@@ -25105,7 +25102,7 @@
         <v>2.27342525786704</v>
       </c>
       <c r="D475" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E475">
         <v>2.050890844436287</v>
@@ -25141,7 +25138,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25155,7 +25152,7 @@
         <v>1.889192027490578</v>
       </c>
       <c r="D476" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E476">
         <v>2.058365638997408</v>
@@ -25191,7 +25188,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25205,7 +25202,7 @@
         <v>2.266210657543448</v>
       </c>
       <c r="D477" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E477">
         <v>2.042055342718407</v>
@@ -25241,7 +25238,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25255,7 +25252,7 @@
         <v>1.881151085279702</v>
       </c>
       <c r="D478" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E478">
         <v>2.046034075448713</v>
@@ -25291,7 +25288,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25305,7 +25302,7 @@
         <v>2.259792939301354</v>
       </c>
       <c r="D479" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E479">
         <v>2.034195758263333</v>
@@ -25341,7 +25338,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25355,7 +25352,7 @@
         <v>1.873998297987854</v>
       </c>
       <c r="D480" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E480">
         <v>2.061056685064424</v>
@@ -25391,7 +25388,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25405,7 +25402,7 @@
         <v>2.247400638043782</v>
       </c>
       <c r="D481" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E481">
         <v>2.019019283595469</v>
@@ -25441,7 +25438,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25455,7 +25452,7 @@
         <v>1.860186614207387</v>
       </c>
       <c r="D482" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E482">
         <v>2.039929722127505</v>
@@ -25491,7 +25488,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25505,7 +25502,7 @@
         <v>2.218696305669633</v>
       </c>
       <c r="D483" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E483">
         <v>1.983865960247392</v>
@@ -25541,7 +25538,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25555,7 +25552,7 @@
         <v>1.828194560944569</v>
       </c>
       <c r="D484" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E484">
         <v>1.990993261207699</v>
@@ -25591,7 +25588,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -25605,7 +25602,7 @@
         <v>1.830127541068264</v>
       </c>
       <c r="D485" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E485">
         <v>2.018032125375022</v>
@@ -25641,7 +25638,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -25691,7 +25688,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -25705,7 +25702,7 @@
         <v>1.78228507381279</v>
       </c>
       <c r="D487" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E487">
         <v>2.022800472072064</v>
@@ -25741,7 +25738,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -25755,7 +25752,7 @@
         <v>1.783722556644772</v>
       </c>
       <c r="D488" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E488">
         <v>1.972929321636883</v>
@@ -25791,7 +25788,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -25805,7 +25802,7 @@
         <v>2.163345062458509</v>
       </c>
       <c r="D489" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E489">
         <v>1.877414831999107</v>
@@ -25841,7 +25838,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -25855,7 +25852,7 @@
         <v>1.693507313006611</v>
       </c>
       <c r="D490" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E490">
         <v>1.978388335287718</v>
@@ -25891,7 +25888,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -25905,7 +25902,7 @@
         <v>1.734543015346852</v>
       </c>
       <c r="D491" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E491">
         <v>1.925129818487629</v>
@@ -25941,7 +25938,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -25955,7 +25952,7 @@
         <v>1.684218514250647</v>
       </c>
       <c r="D492" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E492">
         <v>1.570048693213578</v>
@@ -25991,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -26005,7 +26002,7 @@
         <v>2.132031608016207</v>
       </c>
       <c r="D493" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E493">
         <v>1.840169754028087</v>
@@ -26041,7 +26038,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26055,7 +26052,7 @@
         <v>1.660262632299145</v>
       </c>
       <c r="D494" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E494">
         <v>1.929555899725715</v>
@@ -26091,7 +26088,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26105,7 +26102,7 @@
         <v>1.680468679922261</v>
       </c>
       <c r="D495" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E495">
         <v>1.872572875128523</v>
@@ -26141,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26155,7 +26152,7 @@
         <v>1.634006631356384</v>
       </c>
       <c r="D496" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E496">
         <v>1.60382087481427</v>
@@ -26191,7 +26188,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26205,7 +26202,7 @@
         <v>2.09863804467423</v>
       </c>
       <c r="D497" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E497">
         <v>1.800450537718246</v>
@@ -26241,7 +26238,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26255,7 +26252,7 @@
         <v>1.624809554037398</v>
       </c>
       <c r="D498" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E498">
         <v>1.877479593897257</v>
@@ -26291,7 +26288,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26305,7 +26302,7 @@
         <v>1.622802262168714</v>
       </c>
       <c r="D499" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E499">
         <v>1.752483946759322</v>
@@ -26341,7 +26338,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26355,7 +26352,7 @@
         <v>1.580459243442377</v>
       </c>
       <c r="D500" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E500">
         <v>1.752483946759322</v>
@@ -26391,7 +26388,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26405,7 +26402,7 @@
         <v>2.071221135479056</v>
       </c>
       <c r="D501" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E501">
         <v>1.767840117089625</v>
@@ -26441,7 +26438,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26455,7 +26452,7 @@
         <v>1.595701734142962</v>
       </c>
       <c r="D502" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E502">
         <v>1.834723709073065</v>
@@ -26491,7 +26488,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26541,7 +26538,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26591,7 +26588,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -26605,7 +26602,7 @@
         <v>2.041322179557651</v>
       </c>
       <c r="D505" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E505">
         <v>1.73227748229324</v>
@@ -26641,7 +26638,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -26655,7 +26652,7 @@
         <v>1.563958789750633</v>
       </c>
       <c r="D506" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E506">
         <v>1.788097143451137</v>
@@ -26691,7 +26688,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -26705,7 +26702,7 @@
         <v>1.472686344256899</v>
       </c>
       <c r="D507" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E507">
         <v>1.788097143451137</v>
@@ -26741,7 +26738,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -26755,7 +26752,7 @@
         <v>1.523825085403519</v>
       </c>
       <c r="D508" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E508">
         <v>1.630370751283219</v>
@@ -26791,7 +26788,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -26805,7 +26802,7 @@
         <v>1.56168905637971</v>
       </c>
       <c r="D509" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E509">
         <v>1.630370751283219</v>
@@ -26841,7 +26838,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -26855,7 +26852,7 @@
         <v>1.565051671294496</v>
       </c>
       <c r="D510" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E510">
         <v>1.630370751283219</v>
@@ -26891,7 +26888,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -26905,7 +26902,7 @@
         <v>1.866585623391427</v>
       </c>
       <c r="D511" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E511">
         <v>1.689366599623595</v>
@@ -26941,7 +26938,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -26955,7 +26952,7 @@
         <v>2.005245252276134</v>
       </c>
       <c r="D512" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E512">
         <v>1.689366599623595</v>
@@ -26991,7 +26988,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -27005,7 +27002,7 @@
         <v>1.4318415411232</v>
       </c>
       <c r="D513" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E513">
         <v>1.73183620839538</v>
@@ -27041,7 +27038,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -27055,7 +27052,7 @@
         <v>1.461524840934997</v>
       </c>
       <c r="D514" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E514">
         <v>1.564205583165584</v>
@@ -27091,7 +27088,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -27105,7 +27102,7 @@
         <v>1.496369157204806</v>
       </c>
       <c r="D515" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E515">
         <v>1.564205583165584</v>
@@ -27141,7 +27138,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -27155,7 +27152,7 @@
         <v>1.508949665433811</v>
       </c>
       <c r="D516" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E516">
         <v>1.564205583165584</v>
@@ -27191,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -27205,7 +27202,7 @@
         <v>1.973924573324424</v>
       </c>
       <c r="D517" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E517">
         <v>1.612872963807592</v>
@@ -27255,7 +27252,7 @@
         <v>1.396381565393731</v>
       </c>
       <c r="D518" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E518">
         <v>1.682992506417824</v>
@@ -27305,7 +27302,7 @@
         <v>1.467141600577559</v>
       </c>
       <c r="D519" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E519">
         <v>1.682992506417824</v>
@@ -27355,7 +27352,7 @@
         <v>1.407438029705613</v>
       </c>
       <c r="D520" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E520">
         <v>1.521706666475579</v>
@@ -27405,7 +27402,7 @@
         <v>1.439660791349507</v>
       </c>
       <c r="D521" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E521">
         <v>1.521706666475579</v>
@@ -27455,7 +27452,7 @@
         <v>1.460243940015513</v>
       </c>
       <c r="D522" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E522">
         <v>1.521706666475579</v>
@@ -27505,7 +27502,7 @@
         <v>1.940579116805523</v>
       </c>
       <c r="D523" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E523">
         <v>1.574239241056619</v>
@@ -27541,7 +27538,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -27555,7 +27552,7 @@
         <v>1.781069303182167</v>
       </c>
       <c r="D524" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E524">
         <v>1.574239241056619</v>
@@ -27591,7 +27588,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -27605,7 +27602,7 @@
         <v>1.358629220348103</v>
       </c>
       <c r="D525" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E525">
         <v>1.630991221802445</v>
@@ -27641,7 +27638,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -27655,7 +27652,7 @@
         <v>1.349854686289714</v>
       </c>
       <c r="D526" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E526">
         <v>1.479202912629048</v>
@@ -27691,7 +27688,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -27705,7 +27702,7 @@
         <v>1.379286418533347</v>
       </c>
       <c r="D527" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E527">
         <v>1.479202912629048</v>
@@ -27741,7 +27738,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -27755,7 +27752,7 @@
         <v>1.408389551684359</v>
       </c>
       <c r="D528" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E528">
         <v>1.479202912629048</v>
@@ -27791,7 +27788,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -27805,7 +27802,7 @@
         <v>1.74645545085387</v>
       </c>
       <c r="D529" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E529">
         <v>1.54184264617284</v>
@@ -27855,7 +27852,7 @@
         <v>1.326971711279163</v>
       </c>
       <c r="D530" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E530">
         <v>1.58738515872694</v>
@@ -28055,7 +28052,7 @@
         <v>1.276676327166428</v>
       </c>
       <c r="D534" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E534">
         <v>1.518106691894613</v>
@@ -28091,7 +28088,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28105,7 +28102,7 @@
         <v>1.224852607973696</v>
       </c>
       <c r="D535" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E535">
         <v>1.33929930838555</v>
@@ -28141,7 +28138,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -28155,7 +28152,7 @@
         <v>1.248225566013237</v>
       </c>
       <c r="D536" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E536">
         <v>1.33929930838555</v>
@@ -28191,7 +28188,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -28205,7 +28202,7 @@
         <v>1.263762437199394</v>
       </c>
       <c r="D537" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E537">
         <v>1.33929930838555</v>
@@ -28241,7 +28238,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -28255,7 +28252,7 @@
         <v>1.212947744952629</v>
       </c>
       <c r="D538" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E538">
         <v>1.430324909390002</v>
@@ -28291,7 +28288,7 @@
         <v>1</v>
       </c>
       <c r="P538" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -28305,7 +28302,7 @@
         <v>1.146309428698562</v>
       </c>
       <c r="D539" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E539">
         <v>1.238758183620087</v>
@@ -28341,7 +28338,7 @@
         <v>1</v>
       </c>
       <c r="P539" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -28355,7 +28352,7 @@
         <v>1.216483509339664</v>
       </c>
       <c r="D540" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E540">
         <v>1.238758183620087</v>
@@ -28391,7 +28388,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -28405,7 +28402,7 @@
         <v>1.171021231954409</v>
       </c>
       <c r="D541" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E541">
         <v>1.238758183620087</v>
@@ -28441,7 +28438,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -28491,7 +28488,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -28541,7 +28538,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -28591,7 +28588,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -28605,7 +28602,7 @@
         <v>0.913889681656368</v>
       </c>
       <c r="D545" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E545">
         <v>0.9422215166785484</v>
@@ -28641,7 +28638,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -28655,7 +28652,7 @@
         <v>0.9595249171276929</v>
       </c>
       <c r="D546" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E546">
         <v>0.9422215166785484</v>
@@ -28691,7 +28688,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -28705,7 +28702,7 @@
         <v>0.9589976550364385</v>
       </c>
       <c r="D547" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E547">
         <v>0.9422215166785484</v>
@@ -28741,7 +28738,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -28755,7 +28752,7 @@
         <v>0.8504189521355614</v>
       </c>
       <c r="D548" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E548">
         <v>0.937857691146331</v>
@@ -28791,7 +28788,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -28805,7 +28802,7 @@
         <v>0.9017680975637474</v>
       </c>
       <c r="D549" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E549">
         <v>0.937857691146331</v>
@@ -28841,7 +28838,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -28855,7 +28852,7 @@
         <v>0.908653475416529</v>
       </c>
       <c r="D550" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E550">
         <v>0.937857691146331</v>
@@ -28891,7 +28888,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -28941,7 +28938,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -28991,7 +28988,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29041,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29055,7 +29052,7 @@
         <v>0.7994059700977925</v>
       </c>
       <c r="D554" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E554">
         <v>0.9510460107817367</v>
@@ -29091,7 +29088,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29105,7 +29102,7 @@
         <v>0.8553475251011551</v>
       </c>
       <c r="D555" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E555">
         <v>0.9510460107817367</v>
@@ -29141,7 +29138,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29155,7 +29152,7 @@
         <v>0.8681906234838945</v>
       </c>
       <c r="D556" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E556">
         <v>0.9510460107817367</v>
@@ -29191,7 +29188,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29241,7 +29238,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29255,7 +29252,7 @@
         <v>0.7963844516425689</v>
       </c>
       <c r="D558" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E558">
         <v>0.9293442447455118</v>
@@ -29291,7 +29288,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29305,7 +29302,7 @@
         <v>0.9077462565202601</v>
       </c>
       <c r="D559" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E559">
         <v>0.9293442447455118</v>
@@ -29341,7 +29338,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29355,7 +29352,7 @@
         <v>0.8525980168231655</v>
       </c>
       <c r="D560" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E560">
         <v>0.9293442447455118</v>
@@ -29391,7 +29388,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29405,7 +29402,7 @@
         <v>0.8657939932736682</v>
       </c>
       <c r="D561" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E561">
         <v>0.9293442447455118</v>
@@ -29441,7 +29438,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29491,7 +29488,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29541,7 +29538,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29591,7 +29588,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -29641,7 +29638,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -29691,7 +29688,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -29741,7 +29738,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -29791,7 +29788,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -29841,7 +29838,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -29891,7 +29888,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -29941,7 +29938,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -29991,7 +29988,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30041,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30091,7 +30088,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30141,7 +30138,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30191,7 +30188,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30241,7 +30238,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30291,7 +30288,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30341,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30391,7 +30388,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30441,7 +30438,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30491,7 +30488,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30505,7 +30502,7 @@
         <v>0.751468861471289</v>
       </c>
       <c r="D583" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E583">
         <v>0.9385035221553486</v>
@@ -30541,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30555,7 +30552,7 @@
         <v>0.7709845877750583</v>
       </c>
       <c r="D584" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E584">
         <v>0.9385035221553486</v>
@@ -30591,7 +30588,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -30605,7 +30602,7 @@
         <v>0.8117259226040443</v>
       </c>
       <c r="D585" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E585">
         <v>0.9385035221553486</v>
@@ -30641,7 +30638,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -30655,7 +30652,7 @@
         <v>0.830167515424916</v>
       </c>
       <c r="D586" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E586">
         <v>0.9385035221553486</v>
@@ -30691,7 +30688,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -30705,7 +30702,7 @@
         <v>0.8384277846341899</v>
       </c>
       <c r="D587" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E587">
         <v>0.9385035221553486</v>
@@ -30741,7 +30738,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31105,7 +31102,7 @@
         <v>0.8616555364163685</v>
       </c>
       <c r="D595" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E595">
         <v>0.9487042537756789</v>
@@ -31155,7 +31152,7 @@
         <v>0.8685708400378545</v>
       </c>
       <c r="D596" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E596">
         <v>0.9487042537756789</v>
@@ -31205,7 +31202,7 @@
         <v>0.9283666743289771</v>
       </c>
       <c r="D597" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E597">
         <v>0.9487042537756789</v>
@@ -31255,7 +31252,7 @@
         <v>0.9119931158630705</v>
       </c>
       <c r="D598" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E598">
         <v>0.9487042537756789</v>
@@ -31305,7 +31302,7 @@
         <v>0.917566191902035</v>
       </c>
       <c r="D599" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E599">
         <v>0.9487042537756789</v>
@@ -31355,7 +31352,7 @@
         <v>0.8850151504748149</v>
       </c>
       <c r="D600" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E600">
         <v>0.9487042537756789</v>
@@ -31405,7 +31402,7 @@
         <v>0.9303840608049012</v>
       </c>
       <c r="D601" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E601">
         <v>0.9487042537756789</v>
@@ -31455,7 +31452,7 @@
         <v>0.9319931158630701</v>
       </c>
       <c r="D602" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E602">
         <v>0.9487042537756789</v>
@@ -31541,7 +31538,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31591,7 +31588,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31641,7 +31638,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -31691,7 +31688,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -31741,7 +31738,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -31791,7 +31788,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -31841,7 +31838,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -31891,7 +31888,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -31941,7 +31938,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -31991,7 +31988,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32041,7 +32038,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32091,7 +32088,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32141,7 +32138,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32191,7 +32188,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32241,7 +32238,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32291,7 +32288,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32341,7 +32338,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32391,7 +32388,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32441,7 +32438,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32491,7 +32488,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32541,7 +32538,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -32591,7 +32588,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -32641,7 +32638,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -32691,7 +32688,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -32741,7 +32738,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -32791,7 +32788,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -32841,7 +32838,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -32891,7 +32888,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -32941,7 +32938,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -32991,7 +32988,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33041,7 +33038,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33091,7 +33088,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33141,7 +33138,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33191,7 +33188,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33241,7 +33238,7 @@
         <v>1</v>
       </c>
       <c r="P637" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -33291,7 +33288,7 @@
         <v>1</v>
       </c>
       <c r="P638" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -33305,7 +33302,7 @@
         <v>0.9426739735459577</v>
       </c>
       <c r="D639" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E639">
         <v>1.155481591635229</v>
@@ -33341,7 +33338,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -33355,7 +33352,7 @@
         <v>0.9523699059372155</v>
       </c>
       <c r="D640" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E640">
         <v>0.9617333668754942</v>
@@ -33391,7 +33388,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33405,7 +33402,7 @@
         <v>0.9489115468641032</v>
       </c>
       <c r="D641" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E641">
         <v>0.9617333668754942</v>
@@ -33441,7 +33438,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33455,7 +33452,7 @@
         <v>0.994540984964766</v>
       </c>
       <c r="D642" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E642">
         <v>0.9617333668754942</v>
@@ -33491,7 +33488,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -33505,7 +33502,7 @@
         <v>0.9895196820815877</v>
       </c>
       <c r="D643" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E643">
         <v>0.9617333668754942</v>
@@ -33541,7 +33538,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -33555,7 +33552,7 @@
         <v>0.9598379516124478</v>
       </c>
       <c r="D644" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E644">
         <v>0.9617333668754942</v>
@@ -33591,7 +33588,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -33605,7 +33602,7 @@
         <v>1.006089726852713</v>
       </c>
       <c r="D645" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E645">
         <v>0.9617333668754942</v>
@@ -33641,7 +33638,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -33655,7 +33652,7 @@
         <v>0.9848592544956265</v>
       </c>
       <c r="D646" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E646">
         <v>0.9617333668754942</v>
@@ -33691,7 +33688,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -33955,7 +33952,7 @@
         <v>0.9734565125913943</v>
       </c>
       <c r="D652" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E652">
         <v>1.185400334942146</v>
@@ -34005,7 +34002,7 @@
         <v>0.9846444558037319</v>
       </c>
       <c r="D653" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E653">
         <v>1.181231801994401</v>
@@ -34055,7 +34052,7 @@
         <v>0.9774953331205798</v>
       </c>
       <c r="D654" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E654">
         <v>1.181231801994401</v>
@@ -34105,7 +34102,7 @@
         <v>1.023910040074443</v>
       </c>
       <c r="D655" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E655">
         <v>1.181231801994401</v>
@@ -34155,7 +34152,7 @@
         <v>1.015119446695905</v>
       </c>
       <c r="D656" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E656">
         <v>1.181231801994401</v>
@@ -34205,7 +34202,7 @@
         <v>0.9864585657359251</v>
       </c>
       <c r="D657" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E657">
         <v>1.181231801994401</v>
@@ -34255,7 +34252,7 @@
         <v>1.007646508948263</v>
       </c>
       <c r="D658" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E658">
         <v>1.181231801994401</v>
@@ -34305,7 +34302,7 @@
         <v>1.015249159114463</v>
       </c>
       <c r="D659" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E659">
         <v>0.9834565125913941</v>
@@ -34391,7 +34388,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34441,7 +34438,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34491,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34541,7 +34538,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -34591,7 +34588,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -34605,7 +34602,7 @@
         <v>0.9989502799212269</v>
       </c>
       <c r="D665" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E665">
         <v>1.210178715943846</v>
@@ -34641,7 +34638,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -34655,7 +34652,7 @@
         <v>1.011373890427612</v>
       </c>
       <c r="D666" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E666">
         <v>1.203864024011701</v>
@@ -34691,7 +34688,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -34705,7 +34702,7 @@
         <v>1.00116811706971</v>
       </c>
       <c r="D667" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E667">
         <v>1.203864024011701</v>
@@ -34741,7 +34738,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -34755,7 +34752,7 @@
         <v>1.048233175230966</v>
       </c>
       <c r="D668" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E668">
         <v>1.203864024011701</v>
@@ -34791,7 +34788,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -34805,7 +34802,7 @@
         <v>1.036320896056939</v>
       </c>
       <c r="D669" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E669">
         <v>1.203864024011701</v>
@@ -34841,7 +34838,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -34855,7 +34852,7 @@
         <v>1.008505471666571</v>
       </c>
       <c r="D670" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E670">
         <v>1.203864024011701</v>
@@ -34891,7 +34888,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -34905,7 +34902,7 @@
         <v>1.030929082172957</v>
       </c>
       <c r="D671" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E671">
         <v>1.203864024011701</v>
@@ -34941,7 +34938,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -34955,7 +34952,7 @@
         <v>1.040417750840599</v>
       </c>
       <c r="D672" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E672">
         <v>0.9957763031857296</v>
@@ -34991,7 +34988,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35041,7 +35038,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35091,7 +35088,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35141,7 +35138,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35191,7 +35188,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35205,7 +35202,7 @@
         <v>1.019721542843001</v>
       </c>
       <c r="D677" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E677">
         <v>1.230367111793835</v>
@@ -35241,7 +35238,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35255,7 +35252,7 @@
         <v>1.033151923746106</v>
       </c>
       <c r="D678" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E678">
         <v>1.222303818646338</v>
@@ -35291,7 +35288,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35305,7 +35302,7 @@
         <v>1.020455718354215</v>
       </c>
       <c r="D679" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E679">
         <v>1.222303818646338</v>
@@ -35341,7 +35338,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -35355,7 +35352,7 @@
         <v>1.053594956548007</v>
       </c>
       <c r="D680" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E680">
         <v>1.222303818646338</v>
@@ -35391,7 +35388,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -35405,7 +35402,7 @@
         <v>1.026468375060656</v>
       </c>
       <c r="D681" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E681">
         <v>1.222303818646338</v>
@@ -35441,7 +35438,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -35455,7 +35452,7 @@
         <v>1.049898755963761</v>
       </c>
       <c r="D682" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E682">
         <v>1.222303818646338</v>
@@ -35491,7 +35488,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -35505,7 +35502,7 @@
         <v>1.060924074184289</v>
       </c>
       <c r="D683" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E683">
         <v>1.017873442550878</v>
@@ -35541,7 +35538,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -35591,7 +35588,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -35641,7 +35638,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -35691,7 +35688,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -35741,7 +35738,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -35755,7 +35752,7 @@
         <v>1.047332978384417</v>
       </c>
       <c r="D688" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E688">
         <v>1.257203736644038</v>
@@ -35791,7 +35788,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -35805,7 +35802,7 @@
         <v>1.062101668663253</v>
       </c>
       <c r="D689" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E689">
         <v>1.2468160114229</v>
@@ -35841,7 +35838,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -35855,7 +35852,7 @@
         <v>1.046094908499815</v>
       </c>
       <c r="D690" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E690">
         <v>1.2468160114229</v>
@@ -35891,7 +35888,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -35905,7 +35902,7 @@
         <v>1.076557527942143</v>
       </c>
       <c r="D691" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E691">
         <v>1.2468160114229</v>
@@ -35941,7 +35938,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -35955,7 +35952,7 @@
         <v>1.050346631817136</v>
       </c>
       <c r="D692" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E692">
         <v>1.2468160114229</v>
@@ -35991,7 +35988,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36005,7 +36002,7 @@
         <v>1.075115322095972</v>
       </c>
       <c r="D693" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E693">
         <v>1.2468160114229</v>
@@ -36041,7 +36038,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36055,7 +36052,7 @@
         <v>1.043673116249803</v>
       </c>
       <c r="D694" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E694">
         <v>1.123802357990182</v>
@@ -36091,7 +36088,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36105,7 +36102,7 @@
         <v>2.896153804967225</v>
       </c>
       <c r="D695" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E695">
         <v>2.453793284427995</v>
@@ -36141,7 +36138,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36152,96 +36149,46 @@
         <v>142</v>
       </c>
       <c r="C696">
-        <v>2.828321640879296</v>
+        <v>3.139280458423625</v>
       </c>
       <c r="D696" t="s">
         <v>244</v>
       </c>
       <c r="E696">
-        <v>2.453793284427995</v>
+        <v>3.020150698877838</v>
       </c>
       <c r="F696">
         <v>-1</v>
       </c>
       <c r="G696">
-        <v>0.008071678359120706</v>
+        <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.007126206715572005</v>
+        <v>0.008519849301122161</v>
       </c>
       <c r="I696">
-        <v>0.3745283564513011</v>
+        <v>0.1191297595457863</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
       </c>
       <c r="K696">
-        <v>4.5</v>
+        <v>4.67</v>
       </c>
       <c r="L696">
-        <v>5.45</v>
+        <v>5.86</v>
       </c>
       <c r="M696">
-        <v>4.01</v>
+        <v>4.72</v>
       </c>
       <c r="N696">
-        <v>4.79</v>
+        <v>5.77</v>
       </c>
       <c r="O696">
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="697" spans="1:16">
-      <c r="A697" s="1">
-        <v>2</v>
-      </c>
-      <c r="B697" t="s">
-        <v>143</v>
-      </c>
-      <c r="C697">
-        <v>3.139280458423625</v>
-      </c>
-      <c r="D697" t="s">
-        <v>245</v>
-      </c>
-      <c r="E697">
-        <v>3.013454506514468</v>
-      </c>
-      <c r="F697">
-        <v>-1</v>
-      </c>
-      <c r="G697">
-        <v>0.008580719541576375</v>
-      </c>
-      <c r="H697">
-        <v>0.008466545493485534</v>
-      </c>
-      <c r="I697">
-        <v>0.1258259519091571</v>
-      </c>
-      <c r="J697">
-        <v>0.5825951909157121</v>
-      </c>
-      <c r="K697">
-        <v>4.67</v>
-      </c>
-      <c r="L697">
-        <v>5.86</v>
-      </c>
-      <c r="M697">
-        <v>4.68</v>
-      </c>
-      <c r="N697">
-        <v>5.74</v>
-      </c>
-      <c r="O697">
-        <v>1</v>
-      </c>
-      <c r="P697" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -748,7 +748,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-07-14</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -36155,7 +36155,7 @@
         <v>244</v>
       </c>
       <c r="E696">
-        <v>3.020150698877838</v>
+        <v>2.845017833242667</v>
       </c>
       <c r="F696">
         <v>-1</v>
@@ -36164,10 +36164,10 @@
         <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.008519849301122161</v>
+        <v>0.008134982166757333</v>
       </c>
       <c r="I696">
-        <v>0.1191297595457863</v>
+        <v>0.2942626251809575</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
@@ -36179,10 +36179,10 @@
         <v>5.86</v>
       </c>
       <c r="M696">
-        <v>4.72</v>
+        <v>4.54</v>
       </c>
       <c r="N696">
-        <v>5.77</v>
+        <v>5.49</v>
       </c>
       <c r="O696">
         <v>1</v>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -748,7 +748,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -36155,7 +36155,7 @@
         <v>244</v>
       </c>
       <c r="E696">
-        <v>2.845017833242667</v>
+        <v>2.93919188133351</v>
       </c>
       <c r="F696">
         <v>-1</v>
@@ -36164,10 +36164,10 @@
         <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.008134982166757333</v>
+        <v>0.00824080811866649</v>
       </c>
       <c r="I696">
-        <v>0.2942626251809575</v>
+        <v>0.2000885770901148</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
@@ -36179,10 +36179,10 @@
         <v>5.86</v>
       </c>
       <c r="M696">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="N696">
-        <v>5.49</v>
+        <v>5.59</v>
       </c>
       <c r="O696">
         <v>1</v>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="340">
   <si>
     <t>trade_time</t>
   </si>
@@ -445,6 +445,9 @@
     <t>2021-07-09</t>
   </si>
   <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
     <t>2017-04-20</t>
   </si>
   <si>
@@ -748,7 +751,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-15</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -1388,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P696"/>
+  <dimension ref="A1:P697"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1452,7 +1455,7 @@
         <v>1.855441043116508</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>1.575397067571232</v>
@@ -1488,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1502,7 +1505,7 @@
         <v>1.844886436180541</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>1.575397067571232</v>
@@ -1538,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1552,7 +1555,7 @@
         <v>1.879543169394645</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>1.575397067571232</v>
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1602,7 +1605,7 @@
         <v>1.931893523774336</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>1.575397067571232</v>
@@ -1638,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1652,7 +1655,7 @@
         <v>1.864287853699299</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6">
         <v>1.610229702966436</v>
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1702,7 +1705,7 @@
         <v>1.420828285447678</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7">
         <v>1.720097776330612</v>
@@ -1738,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1752,7 +1755,7 @@
         <v>1.444930411725815</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>1.720097776330612</v>
@@ -1788,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1802,7 +1805,7 @@
         <v>1.415528994207057</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>1.720097776330612</v>
@@ -1838,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1852,7 +1855,7 @@
         <v>1.417747421950922</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>1.720097776330612</v>
@@ -1888,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1902,7 +1905,7 @@
         <v>1.837391318446252</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>1.556576374761795</v>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1952,7 +1955,7 @@
         <v>1.827426275381424</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E12">
         <v>1.556576374761795</v>
@@ -1988,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2002,7 +2005,7 @@
         <v>1.861221338322326</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>1.556576374761795</v>
@@ -2038,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2052,7 +2055,7 @@
         <v>1.913526341635005</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>1.556576374761795</v>
@@ -2088,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2102,7 +2105,7 @@
         <v>1.84664628863214</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>1.593631212440523</v>
@@ -2138,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2152,7 +2155,7 @@
         <v>1.404411199189807</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16">
         <v>1.701186381387154</v>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2202,7 +2205,7 @@
         <v>1.428241219065881</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>1.701186381387154</v>
@@ -2238,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2252,7 +2255,7 @@
         <v>1.399021205815165</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18">
         <v>1.701186381387154</v>
@@ -2288,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2302,7 +2305,7 @@
         <v>1.398881378074474</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>1.701186381387154</v>
@@ -2338,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2352,7 +2355,7 @@
         <v>1.772601053603223</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20">
         <v>1.513212850115657</v>
@@ -2388,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2402,7 +2405,7 @@
         <v>1.819007208305362</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>1.513212850115657</v>
@@ -2438,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2452,7 +2455,7 @@
         <v>1.871207721197208</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22">
         <v>1.513212850115657</v>
@@ -2488,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2502,7 +2505,7 @@
         <v>1.805999514927688</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>1.555387718415254</v>
@@ -2538,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2552,7 +2555,7 @@
         <v>1.366585666847875</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E24">
         <v>1.657613875899347</v>
@@ -2588,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2602,7 +2605,7 @@
         <v>1.360986692631565</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25">
         <v>1.657613875899347</v>
@@ -2638,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2652,7 +2655,7 @@
         <v>1.355413363007501</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26">
         <v>1.657613875899347</v>
@@ -2688,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2702,7 +2705,7 @@
         <v>1.746707087766096</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>1.485799595466657</v>
@@ -2738,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2752,7 +2755,7 @@
         <v>1.792320570044649</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28">
         <v>1.485799595466657</v>
@@ -2788,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2802,7 +2805,7 @@
         <v>1.780303717196457</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29">
         <v>1.531211209495895</v>
@@ -2838,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2852,7 +2855,7 @@
         <v>1.342673382069711</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30">
         <v>1.63006850917975</v>
@@ -2888,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2902,7 +2905,7 @@
         <v>1.336942295782803</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>1.63006850917975</v>
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2952,7 +2955,7 @@
         <v>1.327934052323203</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E32">
         <v>1.63006850917975</v>
@@ -2988,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3002,7 +3005,7 @@
         <v>1.724897025074506</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>1.462709860729388</v>
@@ -3038,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3052,7 +3055,7 @@
         <v>1.713714740951758</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>1.462709860729388</v>
@@ -3088,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3102,7 +3105,7 @@
         <v>1.769842852372705</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35">
         <v>1.462709860729388</v>
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3152,7 +3155,7 @@
         <v>1.758660568249956</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36">
         <v>1.510847732595075</v>
@@ -3188,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3202,7 +3205,7 @@
         <v>1.322532456829009</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37">
         <v>1.606867498612421</v>
@@ -3238,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3252,7 +3255,7 @@
         <v>1.316690094712042</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38">
         <v>1.606867498612421</v>
@@ -3288,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3302,7 +3305,7 @@
         <v>1.304788679670904</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E39">
         <v>1.606867498612421</v>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3352,7 +3355,7 @@
         <v>1.698715924927888</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40">
         <v>1.451820073210847</v>
@@ -3388,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3402,7 +3405,7 @@
         <v>1.703822090603589</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41">
         <v>1.451820073210847</v>
@@ -3438,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3452,7 +3455,7 @@
         <v>1.759241709824535</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E42">
         <v>1.451820073210847</v>
@@ -3488,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3502,7 +3505,7 @@
         <v>1.748453032479565</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E43">
         <v>1.501243727217277</v>
@@ -3538,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3552,7 +3555,7 @@
         <v>1.313033413258619</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E44">
         <v>1.595925230190177</v>
@@ -3588,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3602,7 +3605,7 @@
         <v>1.307138570237948</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E45">
         <v>1.595925230190177</v>
@@ -3638,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3652,7 +3655,7 @@
         <v>1.293872651700511</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46">
         <v>1.595925230190177</v>
@@ -3688,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3702,7 +3705,7 @@
         <v>1.708440278144118</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47">
         <v>1.445287539361757</v>
@@ -3752,7 +3755,7 @@
         <v>1.75288232747506</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E48">
         <v>1.445287539361757</v>
@@ -3802,7 +3805,7 @@
         <v>1.742329765811383</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49">
         <v>1.495482504593743</v>
@@ -3852,7 +3855,7 @@
         <v>1.307335154816763</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50">
         <v>1.589361214250248</v>
@@ -3902,7 +3905,7 @@
         <v>1.301408829705253</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E51">
         <v>1.589361214250248</v>
@@ -3952,7 +3955,7 @@
         <v>1.287324376806003</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>1.589361214250248</v>
@@ -4002,7 +4005,7 @@
         <v>1.741577671463358</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E53">
         <v>1.433675083310133</v>
@@ -4052,7 +4055,7 @@
         <v>1.793586527085793</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>1.433675083310133</v>
@@ -4102,7 +4105,7 @@
         <v>1.731444837126847</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55">
         <v>1.485241157810864</v>
@@ -4152,7 +4155,7 @@
         <v>1.297205735321128</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>1.577692794555001</v>
@@ -4202,7 +4205,7 @@
         <v>1.291223446565996</v>
       </c>
       <c r="D57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>1.577692794555001</v>
@@ -4252,7 +4255,7 @@
         <v>1.275683938932566</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58">
         <v>1.577692794555001</v>
@@ -4352,7 +4355,7 @@
         <v>1.725587143730334</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E60">
         <v>1.417249169921011</v>
@@ -4402,7 +4405,7 @@
         <v>1.777556418838578</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E61">
         <v>1.417249169921011</v>
@@ -4452,7 +4455,7 @@
         <v>1.716048017106683</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E62">
         <v>1.470754689617085</v>
@@ -4502,7 +4505,7 @@
         <v>1.282877589184112</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63">
         <v>1.561187720137498</v>
@@ -4552,7 +4555,7 @@
         <v>1.276816139400598</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E64">
         <v>1.561187720137498</v>
@@ -4602,7 +4605,7 @@
         <v>1.259218445029255</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65">
         <v>1.561187720137498</v>
@@ -4652,7 +4655,7 @@
         <v>1.799190602173319</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>1.767682200441425</v>
@@ -4702,7 +4705,7 @@
         <v>1.704528128435052</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E67">
         <v>1.395616765595412</v>
@@ -4738,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4752,7 +4755,7 @@
         <v>1.756445277267813</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E68">
         <v>1.395616765595412</v>
@@ -4788,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4802,7 +4805,7 @@
         <v>1.695770895943651</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E69">
         <v>1.451676472790171</v>
@@ -4838,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4852,7 +4855,7 @@
         <v>1.264007877459131</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E70">
         <v>1.539451063260933</v>
@@ -4888,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4902,7 +4905,7 @@
         <v>1.257842175124651</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E71">
         <v>1.539451063260933</v>
@@ -4938,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4952,7 +4955,7 @@
         <v>1.237533914428172</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E72">
         <v>1.539451063260933</v>
@@ -4988,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5038,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5052,7 +5055,7 @@
         <v>1.678683818930752</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74">
         <v>1.369068774396689</v>
@@ -5088,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5102,7 +5105,7 @@
         <v>1.730536996700383</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E75">
         <v>1.369068774396689</v>
@@ -5138,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5152,7 +5155,7 @@
         <v>1.670886152386294</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E76">
         <v>1.428263063684791</v>
@@ -5188,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5202,7 +5205,7 @@
         <v>1.240850352606269</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E77">
         <v>1.51277512993595</v>
@@ -5238,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5252,7 +5255,7 @@
         <v>1.234556708145529</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E78">
         <v>1.51277512993595</v>
@@ -5288,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5302,7 +5305,7 @@
         <v>1.210921952166319</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E79">
         <v>1.51277512993595</v>
@@ -5338,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5352,7 +5355,7 @@
         <v>1.661963549027058</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80">
         <v>1.351893249619379</v>
@@ -5388,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5402,7 +5405,7 @@
         <v>1.713775339989997</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E81">
         <v>1.351893249619379</v>
@@ -5438,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5452,7 +5455,7 @@
         <v>1.654786684582984</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E82">
         <v>1.413115492435404</v>
@@ -5488,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5502,7 +5505,7 @@
         <v>1.225868328583652</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E83">
         <v>1.495516831545256</v>
@@ -5538,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5552,7 +5555,7 @@
         <v>1.219491910509528</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E84">
         <v>1.495516831545256</v>
@@ -5588,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5602,7 +5605,7 @@
         <v>1.193705040582317</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E85">
         <v>1.495516831545256</v>
@@ -5638,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5652,7 +5655,7 @@
         <v>1.600429769178104</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E86">
         <v>1.338006244585976</v>
@@ -5688,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5702,7 +5705,7 @@
         <v>1.648444633283697</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E87">
         <v>1.338006244585976</v>
@@ -5738,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="P87" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5752,7 +5755,7 @@
         <v>1.700222961583904</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E88">
         <v>1.338006244585976</v>
@@ -5788,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5802,7 +5805,7 @@
         <v>1.641769708780589</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E89">
         <v>1.400868157875824</v>
@@ -5838,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5852,7 +5855,7 @@
         <v>1.213754844674996</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E90">
         <v>1.48156290118639</v>
@@ -5888,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5902,7 +5905,7 @@
         <v>1.20731150127541</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E91">
         <v>1.48156290118639</v>
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5952,7 +5955,7 @@
         <v>1.179784572886182</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E92">
         <v>1.48156290118639</v>
@@ -5988,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6002,7 +6005,7 @@
         <v>1.642770386608872</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>1.332177501095747</v>
@@ -6052,7 +6055,7 @@
         <v>1.636306139581315</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E94">
         <v>1.395727627472394</v>
@@ -6102,7 +6105,7 @@
         <v>1.208670494931713</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E95">
         <v>1.475706067366088</v>
@@ -6152,7 +6155,7 @@
         <v>1.202199061202053</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E96">
         <v>1.475706067366088</v>
@@ -6202,7 +6205,7 @@
         <v>1.173941784230917</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97">
         <v>1.475706067366088</v>
@@ -6252,7 +6255,7 @@
         <v>1.635648220856852</v>
       </c>
       <c r="D98" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E98">
         <v>1.324861414989093</v>
@@ -6288,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6302,7 +6305,7 @@
         <v>1.687394874868875</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E99">
         <v>1.324861414989093</v>
@@ -6338,7 +6341,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6352,7 +6355,7 @@
         <v>1.629448410676523</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E100">
         <v>1.38927536840002</v>
@@ -6388,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6402,7 +6405,7 @@
         <v>1.202288752351933</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E101">
         <v>1.468354723013138</v>
@@ -6438,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6452,7 +6455,7 @@
         <v>1.195782060375976</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E102">
         <v>1.468354723013138</v>
@@ -6488,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6502,7 +6505,7 @@
         <v>1.166608069001115</v>
       </c>
       <c r="D103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E103">
         <v>1.468354723013138</v>
@@ -6538,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6552,7 +6555,7 @@
         <v>1.636237432923918</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104">
         <v>1.325466669958976</v>
@@ -6588,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6602,7 +6605,7 @@
         <v>1.687985545381652</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>1.325466669958976</v>
@@ -6638,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6652,7 +6655,7 @@
         <v>1.630015746057932</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106">
         <v>1.389809159530085</v>
@@ -6688,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6702,7 +6705,7 @@
         <v>1.202816709699155</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107">
         <v>1.468962894874441</v>
@@ -6738,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6752,7 +6755,7 @@
         <v>1.19631293461462</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108">
         <v>1.468962894874441</v>
@@ -6788,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6802,7 +6805,7 @@
         <v>1.167214782416708</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E109">
         <v>1.468962894874441</v>
@@ -6838,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6888,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -6902,7 +6905,7 @@
         <v>1.686969731933735</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E111">
         <v>1.32442577469753</v>
@@ -6952,7 +6955,7 @@
         <v>1.688566437853383</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E112">
         <v>1.388891165154931</v>
@@ -7002,7 +7005,7 @@
         <v>1.116820833577004</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E113">
         <v>1.46791698325029</v>
@@ -7052,7 +7055,7 @@
         <v>1.189838416471486</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E114">
         <v>1.46791698325029</v>
@@ -7102,7 +7105,7 @@
         <v>1.16617137897391</v>
       </c>
       <c r="D115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E115">
         <v>1.46791698325029</v>
@@ -7202,7 +7205,7 @@
         <v>1.679044765444968</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E117">
         <v>1.316305130023856</v>
@@ -7238,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7252,7 +7255,7 @@
         <v>1.681071963371414</v>
       </c>
       <c r="D118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E118">
         <v>1.381729343587304</v>
@@ -7288,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7302,7 +7305,7 @@
         <v>1.109345926913525</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E119">
         <v>1.459757202939633</v>
@@ -7338,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7352,7 +7355,7 @@
         <v>1.116606291492413</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E120">
         <v>1.459757202939633</v>
@@ -7388,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7402,7 +7405,7 @@
         <v>1.158031166481744</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E121">
         <v>1.459757202939633</v>
@@ -7438,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7452,7 +7455,7 @@
         <v>1.667785062291963</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122">
         <v>1.323675609160295</v>
@@ -7488,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7538,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7552,7 +7555,7 @@
         <v>1.705523534148037</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E124">
         <v>1.306151805217721</v>
@@ -7588,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7602,7 +7605,7 @@
         <v>1.0999999749233</v>
       </c>
       <c r="D125" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E125">
         <v>1.449554946447687</v>
@@ -7638,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7652,7 +7655,7 @@
         <v>1.107015681073126</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E126">
         <v>1.449554946447687</v>
@@ -7688,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7702,7 +7705,7 @@
         <v>1.074450234602739</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E127">
         <v>1.449554946447687</v>
@@ -7738,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7752,7 +7755,7 @@
         <v>1.728036618426774</v>
       </c>
       <c r="D128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128">
         <v>1.311858607036529</v>
@@ -7788,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7838,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7852,7 +7855,7 @@
         <v>1.735732764200063</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E130">
         <v>1.301215982596513</v>
@@ -7902,7 +7905,7 @@
         <v>1.095456639402092</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E131">
         <v>1.444595336729509</v>
@@ -7952,7 +7955,7 @@
         <v>1.102353410067069</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E132">
         <v>1.444595336729509</v>
@@ -8002,7 +8005,7 @@
         <v>1.069526305530016</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E133">
         <v>1.444595336729509</v>
@@ -8102,7 +8105,7 @@
         <v>1.767688434264066</v>
       </c>
       <c r="D135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E135">
         <v>1.290978663803567</v>
@@ -8152,7 +8155,7 @@
         <v>1.08603337246497</v>
       </c>
       <c r="D136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E136">
         <v>1.434308681460452</v>
@@ -8202,7 +8205,7 @@
         <v>1.092683460749394</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E137">
         <v>1.434308681460452</v>
@@ -8252,7 +8255,7 @@
         <v>1.059313654975125</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E138">
         <v>1.434308681460452</v>
@@ -8688,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8738,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8788,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8838,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8888,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -8902,7 +8905,7 @@
         <v>1.823420612308294</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E151">
         <v>2.204728303692967</v>
@@ -8938,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8988,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9038,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9088,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9138,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9188,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9238,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9288,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9302,7 +9305,7 @@
         <v>2.07884565528049</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E159">
         <v>2.424795934638657</v>
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9388,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9438,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="P161" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9452,7 +9455,7 @@
         <v>2.074698477808512</v>
       </c>
       <c r="D162" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E162">
         <v>2.228712809543505</v>
@@ -9488,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9538,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9588,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="P164" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9638,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9752,7 +9755,7 @@
         <v>2.045995448659537</v>
       </c>
       <c r="D168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E168">
         <v>2.697722827185737</v>
@@ -9902,7 +9905,7 @@
         <v>2.025703573192318</v>
       </c>
       <c r="D171" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E171">
         <v>2.585859069325287</v>
@@ -9988,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10002,7 +10005,7 @@
         <v>2.002237248721763</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E173">
         <v>2.933150127071722</v>
@@ -10038,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10088,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10102,7 +10105,7 @@
         <v>2.14690100237887</v>
       </c>
       <c r="D175" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E175">
         <v>3.035145626224377</v>
@@ -10138,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10188,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10202,7 +10205,7 @@
         <v>2.113865641885164</v>
       </c>
       <c r="D177" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E177">
         <v>2.99862999271211</v>
@@ -10238,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10338,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10352,7 +10355,7 @@
         <v>2.224552854469621</v>
       </c>
       <c r="D180" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E180">
         <v>2.747562112891602</v>
@@ -10388,7 +10391,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10402,7 +10405,7 @@
         <v>2.234582155562626</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E181">
         <v>2.747562112891602</v>
@@ -10438,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10452,7 +10455,7 @@
         <v>2.532227490792448</v>
       </c>
       <c r="D182" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E182">
         <v>2.747562112891602</v>
@@ -10488,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10538,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10588,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10602,7 +10605,7 @@
         <v>2.219578642489605</v>
       </c>
       <c r="D185" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E185">
         <v>2.748307309478141</v>
@@ -10638,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10652,7 +10655,7 @@
         <v>2.229273046142372</v>
       </c>
       <c r="D186" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E186">
         <v>2.748307309478141</v>
@@ -10688,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10702,7 +10705,7 @@
         <v>2.526938081221619</v>
       </c>
       <c r="D187" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E187">
         <v>2.748307309478141</v>
@@ -10738,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10788,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10838,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10852,7 +10855,7 @@
         <v>2.223095119495316</v>
       </c>
       <c r="D190" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E190">
         <v>2.585306324177835</v>
@@ -10888,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10902,7 +10905,7 @@
         <v>2.233026276055397</v>
       </c>
       <c r="D191" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E191">
         <v>2.585306324177835</v>
@@ -10938,7 +10941,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10952,7 +10955,7 @@
         <v>2.530677384493038</v>
       </c>
       <c r="D192" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E192">
         <v>2.585306324177835</v>
@@ -10988,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11038,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11088,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11102,7 +11105,7 @@
         <v>2.351296670264901</v>
       </c>
       <c r="D195" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E195">
         <v>2.34477901699545</v>
@@ -11138,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11152,7 +11155,7 @@
         <v>2.531296670264901</v>
       </c>
       <c r="D196" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E196">
         <v>2.34477901699545</v>
@@ -11188,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="P196" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11238,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="P197" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11288,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11338,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11352,7 +11355,7 @@
         <v>2.354338556588907</v>
       </c>
       <c r="D200" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E200">
         <v>2.692933327062218</v>
@@ -11388,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="P200" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11402,7 +11405,7 @@
         <v>2.534338556588906</v>
       </c>
       <c r="D201" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E201">
         <v>2.692933327062218</v>
@@ -11438,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="P201" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11488,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11538,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11588,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="P204" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11602,7 +11605,7 @@
         <v>2.353252705775172</v>
       </c>
       <c r="D205" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E205">
         <v>3.037215179660817</v>
@@ -11638,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="P205" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11652,7 +11655,7 @@
         <v>2.533252705775172</v>
       </c>
       <c r="D206" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E206">
         <v>3.037215179660817</v>
@@ -11688,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="P206" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11702,7 +11705,7 @@
         <v>-1.066638455738899</v>
       </c>
       <c r="D207" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E207">
         <v>-1.465413797453388</v>
@@ -11738,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="P207" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11752,7 +11755,7 @@
         <v>-1.0366384557389</v>
       </c>
       <c r="D208" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E208">
         <v>-1.465413797453388</v>
@@ -11788,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="P208" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11802,7 +11805,7 @@
         <v>-0.9510556888450674</v>
       </c>
       <c r="D209" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E209">
         <v>-1.465413797453388</v>
@@ -11838,7 +11841,7 @@
         <v>1</v>
       </c>
       <c r="P209" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11852,7 +11855,7 @@
         <v>-1.819265145803461</v>
       </c>
       <c r="D210" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E210">
         <v>-1.307592851757549</v>
@@ -11888,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="P210" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11902,7 +11905,7 @@
         <v>-1.771950960365871</v>
       </c>
       <c r="D211" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E211">
         <v>-1.297263464992842</v>
@@ -11938,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="P211" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11952,7 +11955,7 @@
         <v>-1.016934078228135</v>
       </c>
       <c r="D212" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E212">
         <v>-1.07654556696558</v>
@@ -11988,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12002,7 +12005,7 @@
         <v>-1.083441760674821</v>
       </c>
       <c r="D213" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E213">
         <v>-1.481089607902267</v>
@@ -12038,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12052,7 +12055,7 @@
         <v>-1.053441760674821</v>
       </c>
       <c r="D214" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E214">
         <v>-1.481089607902267</v>
@@ -12088,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12102,7 +12105,7 @@
         <v>-0.9668769824535648</v>
       </c>
       <c r="D215" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E215">
         <v>-1.481089607902267</v>
@@ -12138,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12152,7 +12155,7 @@
         <v>-1.83581385521005</v>
       </c>
       <c r="D216" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E216">
         <v>-1.323195920626619</v>
@@ -12188,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12202,7 +12205,7 @@
         <v>-1.787408546075322</v>
       </c>
       <c r="D217" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E217">
         <v>-1.311375331475824</v>
@@ -12238,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="P217" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12288,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="P218" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12302,7 +12305,7 @@
         <v>-1.07759404974841</v>
       </c>
       <c r="D219" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E219">
         <v>-1.503621288834554</v>
@@ -12338,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12352,7 +12355,7 @@
         <v>-0.9896177741137624</v>
       </c>
       <c r="D220" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E220">
         <v>-1.503621288834554</v>
@@ -12388,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="P220" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12402,7 +12405,7 @@
         <v>-1.859600200509798</v>
       </c>
       <c r="D221" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E221">
         <v>-1.345623046194952</v>
@@ -12438,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="P221" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12452,7 +12455,7 @@
         <v>-1.809626560915746</v>
       </c>
       <c r="D222" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E222">
         <v>-1.33165907208308</v>
@@ -12488,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12502,7 +12505,7 @@
         <v>-1.047695097971209</v>
       </c>
       <c r="D223" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E223">
         <v>-1.119714428935569</v>
@@ -12538,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="P223" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12552,7 +12555,7 @@
         <v>-1.107622621715292</v>
       </c>
       <c r="D224" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E224">
         <v>-1.53163495662184</v>
@@ -12602,7 +12605,7 @@
         <v>-1.017891429537125</v>
       </c>
       <c r="D225" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E225">
         <v>-1.53163495662184</v>
@@ -12652,7 +12655,7 @@
         <v>-1.889173794113544</v>
       </c>
       <c r="D226" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E226">
         <v>-1.373506720164198</v>
@@ -12702,7 +12705,7 @@
         <v>-1.837250247248916</v>
       </c>
       <c r="D227" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E227">
         <v>-1.356877872782539</v>
@@ -12802,7 +12805,7 @@
         <v>-1.136466558905362</v>
       </c>
       <c r="D229" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E229">
         <v>-1.55854347811301</v>
@@ -12838,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="P229" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12852,7 +12855,7 @@
         <v>-1.045049682086217</v>
       </c>
       <c r="D230" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E230">
         <v>-1.55854347811301</v>
@@ -12888,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -12902,7 +12905,7 @@
         <v>-1.91758070195225</v>
       </c>
       <c r="D231" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E231">
         <v>-1.400290376126407</v>
@@ -12938,7 +12941,7 @@
         <v>1</v>
       </c>
       <c r="P231" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -12952,7 +12955,7 @@
         <v>-1.863784172153202</v>
       </c>
       <c r="D232" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E232">
         <v>-1.38110178540104</v>
@@ -12988,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13002,7 +13005,7 @@
         <v>-1.091913194675672</v>
       </c>
       <c r="D233" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E233">
         <v>-0.942243215869925</v>
@@ -13038,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13052,7 +13055,7 @@
         <v>-1.06938217480964</v>
       </c>
       <c r="D234" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E234">
         <v>-0.942243215869925</v>
@@ -13088,7 +13091,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13102,7 +13105,7 @@
         <v>-1.09938217480964</v>
       </c>
       <c r="D235" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E235">
         <v>-0.942243215869925</v>
@@ -13138,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="P235" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13152,7 +13155,7 @@
         <v>-1.069955605077879</v>
       </c>
       <c r="D236" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E236">
         <v>-1.583220381123139</v>
@@ -13202,7 +13205,7 @@
         <v>-1.943631724851574</v>
       </c>
       <c r="D237" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E237">
         <v>-1.42485276914577</v>
@@ -13252,7 +13255,7 @@
         <v>-1.888117545191031</v>
       </c>
       <c r="D238" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E238">
         <v>-1.403316723609694</v>
@@ -13302,7 +13305,7 @@
         <v>-1.111780678073619</v>
       </c>
       <c r="D239" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E239">
         <v>-0.8811636624809664</v>
@@ -13352,7 +13355,7 @@
         <v>-1.088104558299923</v>
       </c>
       <c r="D240" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E240">
         <v>-0.8811636624809664</v>
@@ -13402,7 +13405,7 @@
         <v>-1.118104558299923</v>
       </c>
       <c r="D241" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E241">
         <v>-0.8811636624809664</v>
@@ -13452,7 +13455,7 @@
         <v>-1.100958399511376</v>
       </c>
       <c r="D242" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E242">
         <v>-1.613938092389432</v>
@@ -13488,7 +13491,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -13502,7 +13505,7 @@
         <v>-1.976059935121095</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E243">
         <v>-1.455427938828461</v>
@@ -13538,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="P243" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -13552,7 +13555,7 @@
         <v>-1.918407631706518</v>
       </c>
       <c r="D244" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E244">
         <v>-1.430969790828538</v>
@@ -13588,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -13602,7 +13605,7 @@
         <v>-1.136511642828615</v>
       </c>
       <c r="D245" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E245">
         <v>-1.028859339414037</v>
@@ -13638,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="P245" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -13652,7 +13655,7 @@
         <v>-1.111410107218897</v>
       </c>
       <c r="D246" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E246">
         <v>-1.028859339414037</v>
@@ -13688,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -13702,7 +13705,7 @@
         <v>-1.141410107218897</v>
       </c>
       <c r="D247" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E247">
         <v>-1.028859339414037</v>
@@ -13738,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="P247" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -13752,7 +13755,7 @@
         <v>-1.117512484565025</v>
       </c>
       <c r="D248" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E248">
         <v>-1.630339955971323</v>
@@ -13788,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -13802,7 +13805,7 @@
         <v>-1.993375127533532</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E249">
         <v>-1.471753691674473</v>
@@ -13838,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="P249" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -13852,7 +13855,7 @@
         <v>-1.934581163080772</v>
       </c>
       <c r="D250" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E250">
         <v>-1.445735273589034</v>
@@ -13888,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -13902,7 +13905,7 @@
         <v>-1.149716855503595</v>
       </c>
       <c r="D251" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E251">
         <v>-1.032336626753983</v>
@@ -13938,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -13952,7 +13955,7 @@
         <v>-1.123854212535088</v>
       </c>
       <c r="D252" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E252">
         <v>-1.032336626753983</v>
@@ -13988,7 +13991,7 @@
         <v>1</v>
       </c>
       <c r="P252" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14002,7 +14005,7 @@
         <v>-1.153854212535088</v>
       </c>
       <c r="D253" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E253">
         <v>-1.032336626753983</v>
@@ -14038,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14052,7 +14055,7 @@
         <v>-1.135440729342402</v>
       </c>
       <c r="D254" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E254">
         <v>-1.64810334332546</v>
@@ -14088,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14102,7 +14105,7 @@
         <v>-2.012127659427111</v>
       </c>
       <c r="D255" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E255">
         <v>-1.489434650316991</v>
@@ -14138,7 +14141,7 @@
         <v>1</v>
       </c>
       <c r="P255" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14152,7 +14155,7 @@
         <v>-1.95209726430005</v>
       </c>
       <c r="D256" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E256">
         <v>-1.461726443643339</v>
@@ -14188,7 +14191,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14202,7 +14205,7 @@
         <v>-1.164018236969687</v>
       </c>
       <c r="D257" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E257">
         <v>-1.112656534851095</v>
@@ -14238,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="P257" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14252,7 +14255,7 @@
         <v>-1.137331306884979</v>
       </c>
       <c r="D258" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E258">
         <v>-1.112656534851095</v>
@@ -14288,7 +14291,7 @@
         <v>1</v>
       </c>
       <c r="P258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14302,7 +14305,7 @@
         <v>-1.167331306884979</v>
       </c>
       <c r="D259" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E259">
         <v>-1.112656534851095</v>
@@ -14338,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="P259" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14352,7 +14355,7 @@
         <v>-2.029751754240792</v>
       </c>
       <c r="D260" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E260">
         <v>-1.506051653998461</v>
@@ -14402,7 +14405,7 @@
         <v>-1.968559330884256</v>
       </c>
       <c r="D261" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E261">
         <v>-1.476755342077862</v>
@@ -14452,7 +14455,7 @@
         <v>-1.177459030157264</v>
       </c>
       <c r="D262" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E262">
         <v>-1.113758929914932</v>
@@ -14502,7 +14505,7 @@
         <v>-1.149997414586239</v>
       </c>
       <c r="D263" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E263">
         <v>-1.113758929914932</v>
@@ -14552,7 +14555,7 @@
         <v>-1.179997414586239</v>
       </c>
       <c r="D264" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E264">
         <v>-1.113758929914932</v>
@@ -14602,7 +14605,7 @@
         <v>-2.049264235927141</v>
       </c>
       <c r="D265" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E265">
         <v>-1.524449136731304</v>
@@ -14638,7 +14641,7 @@
         <v>1</v>
       </c>
       <c r="P265" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -14652,7 +14655,7 @@
         <v>-1.986785275316561</v>
       </c>
       <c r="D266" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E266">
         <v>-1.493394557230178</v>
@@ -14688,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="P266" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -14702,7 +14705,7 @@
         <v>-1.192339977729051</v>
       </c>
       <c r="D267" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E267">
         <v>-0.9807727745942727</v>
@@ -14738,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="P267" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -14752,7 +14755,7 @@
         <v>-1.16402067065533</v>
       </c>
       <c r="D268" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E268">
         <v>-0.9807727745942727</v>
@@ -14788,7 +14791,7 @@
         <v>1</v>
       </c>
       <c r="P268" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -14802,7 +14805,7 @@
         <v>-1.19402067065533</v>
       </c>
       <c r="D269" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E269">
         <v>-0.9807727745942727</v>
@@ -14838,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="P269" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -14852,7 +14855,7 @@
         <v>-2.083260847634321</v>
       </c>
       <c r="D270" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E270">
         <v>-1.55650308491236</v>
@@ -14888,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="P270" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -14902,7 +14905,7 @@
         <v>-2.018540352185904</v>
       </c>
       <c r="D271" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E271">
         <v>-1.52238507446619</v>
@@ -14938,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="P271" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -14952,7 +14955,7 @@
         <v>-1.218267064020021</v>
       </c>
       <c r="D272" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E272">
         <v>-1.15072047992809</v>
@@ -14988,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="P272" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15002,7 +15005,7 @@
         <v>-1.188453400387743</v>
       </c>
       <c r="D273" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E273">
         <v>-1.15072047992809</v>
@@ -15038,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="P273" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15052,7 +15055,7 @@
         <v>-1.218453400387743</v>
       </c>
       <c r="D274" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E274">
         <v>-1.15072047992809</v>
@@ -15088,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15102,7 +15105,7 @@
         <v>-2.129173370599524</v>
       </c>
       <c r="D275" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E275">
         <v>-1.599792035136694</v>
@@ -15138,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15152,7 +15155,7 @@
         <v>-2.061425675834721</v>
       </c>
       <c r="D276" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E276">
         <v>-1.561536852291463</v>
@@ -15188,7 +15191,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15202,7 +15205,7 @@
         <v>-1.253281669446231</v>
       </c>
       <c r="D277" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E277">
         <v>-1.285422798224685</v>
@@ -15238,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15252,7 +15255,7 @@
         <v>-1.221449872936362</v>
       </c>
       <c r="D278" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E278">
         <v>-1.285422798224685</v>
@@ -15288,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15302,7 +15305,7 @@
         <v>-1.251449872936362</v>
       </c>
       <c r="D279" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E279">
         <v>-1.285422798224685</v>
@@ -15338,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15352,7 +15355,7 @@
         <v>-2.169540849194301</v>
       </c>
       <c r="D280" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E280">
         <v>-1.637852800668912</v>
@@ -15388,7 +15391,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -15402,7 +15405,7 @@
         <v>-2.099131562434238</v>
       </c>
       <c r="D281" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E281">
         <v>-1.595960108763492</v>
@@ -15438,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="P281" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:16">
@@ -15452,7 +15455,7 @@
         <v>-1.284067416858071</v>
       </c>
       <c r="D282" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E282">
         <v>-1.430231131562097</v>
@@ -15488,7 +15491,7 @@
         <v>1</v>
       </c>
       <c r="P282" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -15502,7 +15505,7 @@
         <v>-1.250461225684695</v>
       </c>
       <c r="D283" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E283">
         <v>-1.430231131562097</v>
@@ -15538,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="P283" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="284" spans="1:16">
@@ -15552,7 +15555,7 @@
         <v>-1.280461225684695</v>
       </c>
       <c r="D284" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E284">
         <v>-1.430231131562097</v>
@@ -15588,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="P284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:16">
@@ -15602,7 +15605,7 @@
         <v>-2.189959023684696</v>
       </c>
       <c r="D285" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E285">
         <v>-1.657104222331285</v>
@@ -15638,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="P285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:16">
@@ -15652,7 +15655,7 @@
         <v>-2.11820348366153</v>
       </c>
       <c r="D286" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E286">
         <v>-1.613371650966291</v>
@@ -15688,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="P286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:16">
@@ -15702,7 +15705,7 @@
         <v>-1.299639079601296</v>
       </c>
       <c r="D287" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E287">
         <v>-1.362715372273368</v>
@@ -15738,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -15752,7 +15755,7 @@
         <v>-1.265135386252518</v>
       </c>
       <c r="D288" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E288">
         <v>-1.362715372273368</v>
@@ -15788,7 +15791,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -15802,7 +15805,7 @@
         <v>-1.295135386252518</v>
       </c>
       <c r="D289" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E289">
         <v>-1.362715372273368</v>
@@ -15838,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -15852,7 +15855,7 @@
         <v>-2.214173184477514</v>
       </c>
       <c r="D290" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E290">
         <v>-1.679934716793084</v>
@@ -15888,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -15902,7 +15905,7 @@
         <v>-2.140821106380096</v>
       </c>
       <c r="D291" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E291">
         <v>-1.634020210059946</v>
@@ -15938,7 +15941,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -15952,7 +15955,7 @@
         <v>-1.318105703326807</v>
       </c>
       <c r="D292" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E292">
         <v>-1.489781742375517</v>
@@ -15988,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16002,7 +16005,7 @@
         <v>-1.282537651261862</v>
       </c>
       <c r="D293" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E293">
         <v>-1.489781742375517</v>
@@ -16038,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16052,7 +16055,7 @@
         <v>-1.312537651261862</v>
       </c>
       <c r="D294" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E294">
         <v>-1.489781742375517</v>
@@ -16088,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16102,7 +16105,7 @@
         <v>-2.241121102143395</v>
       </c>
       <c r="D295" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E295">
         <v>-1.705342753449486</v>
@@ -16138,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16152,7 +16155,7 @@
         <v>-2.165992238265808</v>
       </c>
       <c r="D296" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E296">
         <v>-1.656999972816785</v>
@@ -16188,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16202,7 +16205,7 @@
         <v>-1.338657192184084</v>
       </c>
       <c r="D297" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E297">
         <v>-1.427033480143279</v>
@@ -16238,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16252,7 +16255,7 @@
         <v>-1.301904616265692</v>
       </c>
       <c r="D298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E298">
         <v>-1.427033480143279</v>
@@ -16288,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -16302,7 +16305,7 @@
         <v>-1.331904616265692</v>
       </c>
       <c r="D299" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E299">
         <v>-1.427033480143279</v>
@@ -16338,7 +16341,7 @@
         <v>1</v>
       </c>
       <c r="P299" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="300" spans="1:16">
@@ -16352,7 +16355,7 @@
         <v>1.347720014974502</v>
       </c>
       <c r="D300" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E300">
         <v>1.579062118830282</v>
@@ -16388,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="P300" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="301" spans="1:16">
@@ -16402,7 +16405,7 @@
         <v>1.334700016044109</v>
       </c>
       <c r="D301" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E301">
         <v>1.593089491417174</v>
@@ -16438,7 +16441,7 @@
         <v>1</v>
       </c>
       <c r="P301" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="302" spans="1:16">
@@ -16452,7 +16455,7 @@
         <v>1.841747387561394</v>
       </c>
       <c r="D302" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E302">
         <v>1.890874754800249</v>
@@ -16488,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="P302" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="303" spans="1:16">
@@ -16502,7 +16505,7 @@
         <v>1.862485279427185</v>
       </c>
       <c r="D303" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E303">
         <v>1.890874754800249</v>
@@ -16538,7 +16541,7 @@
         <v>1</v>
       </c>
       <c r="P303" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:16">
@@ -16552,7 +16555,7 @@
         <v>1.441706845387347</v>
       </c>
       <c r="D304" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E304">
         <v>1.664215600520115</v>
@@ -16588,7 +16591,7 @@
         <v>1</v>
       </c>
       <c r="P304" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="305" spans="1:16">
@@ -16602,7 +16605,7 @@
         <v>1.435400191486443</v>
       </c>
       <c r="D305" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E305">
         <v>1.704389685327122</v>
@@ -16638,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="P305" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:16">
@@ -16652,7 +16655,7 @@
         <v>1.856584782452771</v>
       </c>
       <c r="D306" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E306">
         <v>1.861880930194354</v>
@@ -16688,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="P306" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" spans="1:16">
@@ -16702,7 +16705,7 @@
         <v>1.9645987906652</v>
       </c>
       <c r="D307" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E307">
         <v>1.861880930194354</v>
@@ -16738,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="P307" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:16">
@@ -16752,7 +16755,7 @@
         <v>2.014804950663784</v>
       </c>
       <c r="D308" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E308">
         <v>1.689180786611569</v>
@@ -16788,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="P308" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:16">
@@ -16802,7 +16805,7 @@
         <v>1.927301606872644</v>
       </c>
       <c r="D309" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E309">
         <v>1.689180786611569</v>
@@ -16838,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="P309" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="310" spans="1:16">
@@ -16852,7 +16855,7 @@
         <v>1.922617032689892</v>
       </c>
       <c r="D310" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E310">
         <v>1.689180786611569</v>
@@ -16888,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="P310" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="311" spans="1:16">
@@ -16902,7 +16905,7 @@
         <v>1.696992868637676</v>
       </c>
       <c r="D311" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E311">
         <v>1.791368704585461</v>
@@ -16938,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -16988,7 +16991,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17038,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17088,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17138,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17188,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17238,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17252,7 +17255,7 @@
         <v>1.869784887916945</v>
       </c>
       <c r="D318" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E318">
         <v>1.868536559812515</v>
@@ -17288,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17302,7 +17305,7 @@
         <v>1.892281544125805</v>
       </c>
       <c r="D319" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E319">
         <v>1.868536559812515</v>
@@ -17338,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17352,7 +17355,7 @@
         <v>1.879784887916945</v>
       </c>
       <c r="D320" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E320">
         <v>1.868536559812515</v>
@@ -17388,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -17402,7 +17405,7 @@
         <v>1.830509026107986</v>
       </c>
       <c r="D321" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E321">
         <v>1.588842690067986</v>
@@ -17438,7 +17441,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -17452,7 +17455,7 @@
         <v>1.823342590879987</v>
       </c>
       <c r="D322" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E322">
         <v>1.588842690067986</v>
@@ -17488,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -17502,7 +17505,7 @@
         <v>1.597009323671986</v>
       </c>
       <c r="D323" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E323">
         <v>1.690676056463986</v>
@@ -17538,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -17552,7 +17555,7 @@
         <v>1.564008728543987</v>
       </c>
       <c r="D324" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E324">
         <v>1.690841103059988</v>
@@ -17588,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -17602,7 +17605,7 @@
         <v>1.612175362147987</v>
       </c>
       <c r="D325" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E325">
         <v>1.690841103059988</v>
@@ -17638,7 +17641,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -17652,7 +17655,7 @@
         <v>1.608508629355987</v>
       </c>
       <c r="D326" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E326">
         <v>1.690841103059988</v>
@@ -17688,7 +17691,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -17702,7 +17705,7 @@
         <v>1.611175163771987</v>
       </c>
       <c r="D327" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E327">
         <v>1.690841103059988</v>
@@ -17738,7 +17741,7 @@
         <v>1</v>
       </c>
       <c r="P327" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -17788,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="P328" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -17802,7 +17805,7 @@
         <v>1.787174370267988</v>
       </c>
       <c r="D329" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E329">
         <v>1.578675659711986</v>
@@ -17838,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -17852,7 +17855,7 @@
         <v>1.812507439099989</v>
       </c>
       <c r="D330" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E330">
         <v>1.578675659711986</v>
@@ -17888,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -17902,7 +17905,7 @@
         <v>1.783507637475988</v>
       </c>
       <c r="D331" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E331">
         <v>1.578675659711986</v>
@@ -17938,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -17952,7 +17955,7 @@
         <v>1.797174370267989</v>
       </c>
       <c r="D332" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E332">
         <v>1.578675659711986</v>
@@ -17988,7 +17991,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18002,7 +18005,7 @@
         <v>1.796508232603987</v>
       </c>
       <c r="D333" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E333">
         <v>1.578675659711986</v>
@@ -18038,7 +18041,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18052,7 +18055,7 @@
         <v>1.60619577124814</v>
       </c>
       <c r="D334" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E334">
         <v>1.409496709559184</v>
@@ -18088,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18102,7 +18105,7 @@
         <v>1.639829926132983</v>
       </c>
       <c r="D335" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E335">
         <v>1.409496709559184</v>
@@ -18138,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18152,7 +18155,7 @@
         <v>1.641634855442047</v>
       </c>
       <c r="D336" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E336">
         <v>1.409496709559184</v>
@@ -18188,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18202,7 +18205,7 @@
         <v>1.294651169712725</v>
       </c>
       <c r="D337" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E337">
         <v>1.17011455017335</v>
@@ -18238,7 +18241,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18252,7 +18255,7 @@
         <v>1.309805629866267</v>
       </c>
       <c r="D338" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E338">
         <v>1.17011455017335</v>
@@ -18288,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18302,7 +18305,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D339" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E339">
         <v>1.17011455017335</v>
@@ -18338,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18352,7 +18355,7 @@
         <v>1.302846240403662</v>
       </c>
       <c r="D340" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E340">
         <v>1.17011455017335</v>
@@ -18388,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -18402,7 +18405,7 @@
         <v>1.306789315595589</v>
       </c>
       <c r="D341" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E341">
         <v>1.17011455017335</v>
@@ -18438,7 +18441,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -18452,7 +18455,7 @@
         <v>1.225269010326891</v>
       </c>
       <c r="D342" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E342">
         <v>1.17011455017335</v>
@@ -18488,7 +18491,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -18502,7 +18505,7 @@
         <v>1.444294269397325</v>
       </c>
       <c r="D343" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E343">
         <v>1.256000185094495</v>
@@ -18552,7 +18555,7 @@
         <v>1.501117816501946</v>
       </c>
       <c r="D344" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E344">
         <v>1.256000185094495</v>
@@ -18602,7 +18605,7 @@
         <v>1.083058995014017</v>
       </c>
       <c r="D345" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E345">
         <v>1.093353102453659</v>
@@ -18652,7 +18655,7 @@
         <v>1.408730452400234</v>
       </c>
       <c r="D346" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E346">
         <v>1.224172692200284</v>
@@ -18688,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -18702,7 +18705,7 @@
         <v>1.47198161896276</v>
       </c>
       <c r="D347" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E347">
         <v>1.224172692200284</v>
@@ -18738,7 +18741,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -18788,7 +18791,7 @@
         <v>1</v>
       </c>
       <c r="P348" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -18802,7 +18805,7 @@
         <v>1.382122760311682</v>
       </c>
       <c r="D349" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E349">
         <v>1.191863351807043</v>
@@ -18838,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="P349" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -18852,7 +18855,7 @@
         <v>1.442404318382183</v>
       </c>
       <c r="D350" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E350">
         <v>1.191863351807043</v>
@@ -18888,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="P350" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -18938,7 +18941,7 @@
         <v>1</v>
       </c>
       <c r="P351" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="352" spans="1:16">
@@ -18952,7 +18955,7 @@
         <v>1.370401955803482</v>
       </c>
       <c r="D352" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E352">
         <v>1.1776309463328</v>
@@ -19002,7 +19005,7 @@
         <v>1.429375388370835</v>
       </c>
       <c r="D353" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E353">
         <v>1.1776309463328</v>
@@ -19052,7 +19055,7 @@
         <v>1.010452200278918</v>
       </c>
       <c r="D354" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E354">
         <v>1.015068140738506</v>
@@ -19102,7 +19105,7 @@
         <v>1.025068140738506</v>
       </c>
       <c r="D355" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E355">
         <v>1.015068140738506</v>
@@ -19152,7 +19155,7 @@
         <v>1.355513343522262</v>
       </c>
       <c r="D356" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E356">
         <v>1.159551917134175</v>
@@ -19188,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19202,7 +19205,7 @@
         <v>1.4128251006118</v>
       </c>
       <c r="D357" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E357">
         <v>1.159551917134175</v>
@@ -19238,7 +19241,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19252,7 +19255,7 @@
         <v>0.9937025114625451</v>
       </c>
       <c r="D358" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E358">
         <v>1.019315457208822</v>
@@ -19288,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="P358" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19302,7 +19305,7 @@
         <v>1.009315457208822</v>
       </c>
       <c r="D359" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E359">
         <v>1.019315457208822</v>
@@ -19338,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19352,7 +19355,7 @@
         <v>1.344301537527252</v>
       </c>
       <c r="D360" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E360">
         <v>1.145937581283092</v>
@@ -19402,7 +19405,7 @@
         <v>1.400361976983419</v>
       </c>
       <c r="D361" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E361">
         <v>1.145937581283092</v>
@@ -19552,7 +19555,7 @@
         <v>1.32595157423566</v>
       </c>
       <c r="D364" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E364">
         <v>1.123655483000445</v>
@@ -19588,7 +19591,7 @@
         <v>1</v>
       </c>
       <c r="P364" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -19602,7 +19605,7 @@
         <v>1.379964026717319</v>
       </c>
       <c r="D365" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E365">
         <v>1.123655483000445</v>
@@ -19638,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="P365" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -19652,7 +19655,7 @@
         <v>0.9604455210151182</v>
       </c>
       <c r="D366" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E366">
         <v>0.9494825324195202</v>
@@ -19688,7 +19691,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -19702,7 +19705,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D367" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E367">
         <v>0.9494825324195202</v>
@@ -19738,7 +19741,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -19752,7 +19755,7 @@
         <v>0.9780380495261229</v>
       </c>
       <c r="D368" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E368">
         <v>0.9494825324195202</v>
@@ -19788,7 +19791,7 @@
         <v>1</v>
       </c>
       <c r="P368" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -19802,7 +19805,7 @@
         <v>0.93948253241952</v>
       </c>
       <c r="D369" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E369">
         <v>0.9494825324195202</v>
@@ -19838,7 +19841,7 @@
         <v>1</v>
       </c>
       <c r="P369" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -19852,7 +19855,7 @@
         <v>1.346901155844391</v>
       </c>
       <c r="D370" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E370">
         <v>1.225539647019887</v>
@@ -19888,7 +19891,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -19902,7 +19905,7 @@
         <v>1.331298641136886</v>
       </c>
       <c r="D371" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E371">
         <v>1.225539647019887</v>
@@ -19938,7 +19941,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -19952,7 +19955,7 @@
         <v>1.154256377900131</v>
       </c>
       <c r="D372" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E372">
         <v>1.26001537201713</v>
@@ -19988,7 +19991,7 @@
         <v>1</v>
       </c>
       <c r="P372" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20002,7 +20005,7 @@
         <v>1.14857562348788</v>
       </c>
       <c r="D373" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E373">
         <v>1.274334617604878</v>
@@ -20038,7 +20041,7 @@
         <v>1</v>
       </c>
       <c r="P373" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20052,7 +20055,7 @@
         <v>1.324412857309625</v>
       </c>
       <c r="D374" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E374">
         <v>1.205852605838874</v>
@@ -20088,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20102,7 +20105,7 @@
         <v>1.043943419081145</v>
       </c>
       <c r="D375" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E375">
         <v>1.269702413198143</v>
@@ -20138,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20152,7 +20155,7 @@
         <v>1.36666643673015</v>
       </c>
       <c r="D376" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E376">
         <v>1.400907442613152</v>
@@ -20188,7 +20191,7 @@
         <v>1</v>
       </c>
       <c r="P376" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20202,7 +20205,7 @@
         <v>1.3381061852594</v>
       </c>
       <c r="D377" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E377">
         <v>1.400907442613152</v>
@@ -20238,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="P377" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -20252,7 +20255,7 @@
         <v>1.337921514632137</v>
       </c>
       <c r="D378" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E378">
         <v>1.216329758597064</v>
@@ -20302,7 +20305,7 @@
         <v>1.321935254573682</v>
       </c>
       <c r="D379" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E379">
         <v>1.216329758597064</v>
@@ -20352,7 +20355,7 @@
         <v>1.144547620521072</v>
       </c>
       <c r="D380" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E380">
         <v>1.250153116497689</v>
@@ -20402,7 +20405,7 @@
         <v>1.138751742503535</v>
       </c>
       <c r="D381" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E381">
         <v>1.264357238480152</v>
@@ -20452,7 +20455,7 @@
         <v>1.314166856439233</v>
       </c>
       <c r="D382" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E382">
         <v>1.195568230433388</v>
@@ -20502,7 +20505,7 @@
         <v>1.035309148684748</v>
       </c>
       <c r="D383" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E383">
         <v>1.260914644661365</v>
@@ -20652,7 +20655,7 @@
         <v>1.326338641239302</v>
       </c>
       <c r="D386" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E386">
         <v>1.204449888450566</v>
@@ -20688,7 +20691,7 @@
         <v>1</v>
       </c>
       <c r="P386" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -20702,7 +20705,7 @@
         <v>1.309857386591409</v>
       </c>
       <c r="D387" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E387">
         <v>1.204449888450566</v>
@@ -20738,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="P387" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -20752,7 +20755,7 @@
         <v>1.132024257408305</v>
       </c>
       <c r="D388" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E388">
         <v>1.237431755549148</v>
@@ -20788,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="P388" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -20802,7 +20805,7 @@
         <v>1.126079881013937</v>
       </c>
       <c r="D389" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E389">
         <v>1.25148737915478</v>
@@ -20838,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="P389" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -20852,7 +20855,7 @@
         <v>1.300950500901255</v>
       </c>
       <c r="D390" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E390">
         <v>1.182302375436465</v>
@@ -20888,7 +20891,7 @@
         <v>1</v>
       </c>
       <c r="P390" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -20902,7 +20905,7 @@
         <v>1.024171770422406</v>
       </c>
       <c r="D391" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E391">
         <v>1.249579268563249</v>
@@ -20938,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="P391" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -20952,7 +20955,7 @@
         <v>1.347949275999877</v>
       </c>
       <c r="D392" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E392">
         <v>1.407134279718192</v>
@@ -20988,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="P392" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21002,7 +21005,7 @@
         <v>1.319301150535088</v>
       </c>
       <c r="D393" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E393">
         <v>1.407134279718192</v>
@@ -21038,7 +21041,7 @@
         <v>1</v>
       </c>
       <c r="P393" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21052,7 +21055,7 @@
         <v>1.31894662096582</v>
       </c>
       <c r="D394" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E394">
         <v>1.196868329195712</v>
@@ -21088,7 +21091,7 @@
         <v>1</v>
       </c>
       <c r="P394" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21102,7 +21105,7 @@
         <v>1.302149468015641</v>
       </c>
       <c r="D395" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E395">
         <v>1.196868329195712</v>
@@ -21138,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="P395" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21152,7 +21155,7 @@
         <v>1.12403203036048</v>
       </c>
       <c r="D396" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E396">
         <v>1.229313169180409</v>
@@ -21188,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21202,7 +21205,7 @@
         <v>1.117992884475426</v>
       </c>
       <c r="D397" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E397">
         <v>1.243274023295355</v>
@@ -21238,7 +21241,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21252,7 +21255,7 @@
         <v>1.017064058620981</v>
       </c>
       <c r="D398" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E398">
         <v>1.242345197440909</v>
@@ -21288,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21338,7 +21341,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21388,7 +21391,7 @@
         <v>1</v>
       </c>
       <c r="P400" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="401" spans="1:16">
@@ -21402,7 +21405,7 @@
         <v>1.309314370259902</v>
       </c>
       <c r="D401" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E401">
         <v>1.212105582664171</v>
@@ -21438,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -21452,7 +21455,7 @@
         <v>1.113617673828013</v>
       </c>
       <c r="D402" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E402">
         <v>1.218734158789721</v>
@@ -21488,7 +21491,7 @@
         <v>1</v>
       </c>
       <c r="P402" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="403" spans="1:16">
@@ -21502,7 +21505,7 @@
         <v>1.107455037549294</v>
       </c>
       <c r="D403" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E403">
         <v>1.232571522511002</v>
@@ -21538,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="P403" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="404" spans="1:16">
@@ -21552,7 +21555,7 @@
         <v>1.00780227909606</v>
       </c>
       <c r="D404" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E404">
         <v>1.232918764057767</v>
@@ -21588,7 +21591,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -21638,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -21688,7 +21691,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -21738,7 +21741,7 @@
         <v>1</v>
       </c>
       <c r="P407" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="408" spans="1:16">
@@ -21752,7 +21755,7 @@
         <v>1.096911392393543</v>
       </c>
       <c r="D408" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E408">
         <v>1.20176374642348</v>
@@ -21788,7 +21791,7 @@
         <v>1</v>
       </c>
       <c r="P408" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -21802,7 +21805,7 @@
         <v>1.090550657915995</v>
       </c>
       <c r="D409" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E409">
         <v>1.215403011945933</v>
@@ -21838,7 +21841,7 @@
         <v>1</v>
       </c>
       <c r="P409" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -21852,7 +21855,7 @@
         <v>0.9929449141839808</v>
       </c>
       <c r="D410" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E410">
         <v>1.217797268213918</v>
@@ -21888,7 +21891,7 @@
         <v>1</v>
       </c>
       <c r="P410" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -21938,7 +21941,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -21988,7 +21991,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22002,7 +22005,7 @@
         <v>1.076787728620787</v>
       </c>
       <c r="D413" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E413">
         <v>1.194722566962074</v>
@@ -22038,7 +22041,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22052,7 +22055,7 @@
         <v>1.070188373624195</v>
       </c>
       <c r="D414" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E414">
         <v>1.194722566962074</v>
@@ -22088,7 +22091,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22102,7 +22105,7 @@
         <v>0.9750483752556411</v>
       </c>
       <c r="D415" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E415">
         <v>1.199582568593519</v>
@@ -22138,7 +22141,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22152,7 +22155,7 @@
         <v>1.06618192359011</v>
       </c>
       <c r="D416" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E416">
         <v>1.199582568593519</v>
@@ -22188,7 +22191,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22202,7 +22205,7 @@
         <v>1.301445795242007</v>
       </c>
       <c r="D417" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E417">
         <v>1.466305796873452</v>
@@ -22238,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="P417" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22252,7 +22255,7 @@
         <v>1.325778053569659</v>
       </c>
       <c r="D418" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E418">
         <v>1.466305796873452</v>
@@ -22288,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="P418" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22302,7 +22305,7 @@
         <v>1.061021828820504</v>
       </c>
       <c r="D419" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E419">
         <v>1.178520456495379</v>
@@ -22338,7 +22341,7 @@
         <v>1</v>
       </c>
       <c r="P419" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22352,7 +22355,7 @@
         <v>1.05423552639545</v>
       </c>
       <c r="D420" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E420">
         <v>1.178520456495379</v>
@@ -22388,7 +22391,7 @@
         <v>1</v>
       </c>
       <c r="P420" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22402,7 +22405,7 @@
         <v>0.9610273181210012</v>
       </c>
       <c r="D421" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E421">
         <v>1.18531224822093</v>
@@ -22438,7 +22441,7 @@
         <v>1</v>
       </c>
       <c r="P421" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22452,7 +22455,7 @@
         <v>1.052098550645983</v>
       </c>
       <c r="D422" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E422">
         <v>1.18531224822093</v>
@@ -22488,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="P422" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -22502,7 +22505,7 @@
         <v>1.288172527821214</v>
       </c>
       <c r="D423" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E423">
         <v>1.460679389446836</v>
@@ -22538,7 +22541,7 @@
         <v>1</v>
       </c>
       <c r="P423" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -22552,7 +22555,7 @@
         <v>1.312816365196303</v>
       </c>
       <c r="D424" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E424">
         <v>1.460679389446836</v>
@@ -22588,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="P424" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -22702,7 +22705,7 @@
         <v>0.8755952802088971</v>
       </c>
       <c r="D427" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E427">
         <v>1.122137607315365</v>
@@ -22752,7 +22755,7 @@
         <v>1.266605330685716</v>
       </c>
       <c r="D428" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E428">
         <v>1.559580979333694</v>
@@ -22838,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="P429" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -22852,7 +22855,7 @@
         <v>0.8602148664207081</v>
       </c>
       <c r="D430" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E430">
         <v>1.107098980500247</v>
@@ -22888,7 +22891,7 @@
         <v>1</v>
       </c>
       <c r="P430" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -22902,7 +22905,7 @@
         <v>1.280896373713855</v>
       </c>
       <c r="D431" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E431">
         <v>1.524099754797897</v>
@@ -22938,7 +22941,7 @@
         <v>1</v>
       </c>
       <c r="P431" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23102,7 +23105,7 @@
         <v>1.302688953291221</v>
       </c>
       <c r="D435" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E435">
         <v>1.419681456386476</v>
@@ -23188,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="P436" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23238,7 +23241,7 @@
         <v>1</v>
       </c>
       <c r="P437" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23288,7 +23291,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23302,7 +23305,7 @@
         <v>1.257626439327654</v>
       </c>
       <c r="D439" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E439">
         <v>1.411664944525371</v>
@@ -23338,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23352,7 +23355,7 @@
         <v>1.840766780529548</v>
       </c>
       <c r="D440" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E440">
         <v>2.000338151296236</v>
@@ -23388,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23402,7 +23405,7 @@
         <v>2.174266578212954</v>
       </c>
       <c r="D441" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E441">
         <v>2.309284269167179</v>
@@ -23438,7 +23441,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23452,7 +23455,7 @@
         <v>2.096677111858851</v>
       </c>
       <c r="D442" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E442">
         <v>1.937337746663046</v>
@@ -23488,7 +23491,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23502,7 +23505,7 @@
         <v>1.86232005570882</v>
       </c>
       <c r="D443" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E443">
         <v>1.975355842250461</v>
@@ -23538,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="P443" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -23552,7 +23555,7 @@
         <v>1.842592596122513</v>
       </c>
       <c r="D444" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E444">
         <v>2.002261997256608</v>
@@ -23588,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="P444" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -23602,7 +23605,7 @@
         <v>2.176435500091845</v>
       </c>
       <c r="D445" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E445">
         <v>2.311735028352367</v>
@@ -23638,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="P445" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -23652,7 +23655,7 @@
         <v>2.099152378635891</v>
       </c>
       <c r="D446" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E446">
         <v>1.939947805195271</v>
@@ -23688,7 +23691,7 @@
         <v>1</v>
       </c>
       <c r="P446" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -23702,7 +23705,7 @@
         <v>1.864648276934749</v>
       </c>
       <c r="D447" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E447">
         <v>1.97756152551713</v>
@@ -23738,7 +23741,7 @@
         <v>1</v>
       </c>
       <c r="P447" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -23752,7 +23755,7 @@
         <v>1.84474004582061</v>
       </c>
       <c r="D448" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E448">
         <v>2.004524746267355</v>
@@ -23788,7 +23791,7 @@
         <v>1</v>
       </c>
       <c r="P448" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -23802,7 +23805,7 @@
         <v>2.178986497384215</v>
       </c>
       <c r="D449" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E449">
         <v>2.314617511168604</v>
@@ -23838,7 +23841,7 @@
         <v>1</v>
       </c>
       <c r="P449" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -23852,7 +23855,7 @@
         <v>2.102063686280291</v>
       </c>
       <c r="D450" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E450">
         <v>1.943017649394564</v>
@@ -23888,7 +23891,7 @@
         <v>1</v>
       </c>
       <c r="P450" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -23902,7 +23905,7 @@
         <v>1.867386635610175</v>
       </c>
       <c r="D451" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E451">
         <v>1.980155760051744</v>
@@ -23938,7 +23941,7 @@
         <v>1</v>
       </c>
       <c r="P451" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -23952,7 +23955,7 @@
         <v>2.182944230037506</v>
       </c>
       <c r="D452" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E452">
         <v>2.319089525466108</v>
@@ -23988,7 +23991,7 @@
         <v>1</v>
       </c>
       <c r="P452" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24002,7 +24005,7 @@
         <v>2.106580420720769</v>
       </c>
       <c r="D453" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E453">
         <v>1.947780344621405</v>
@@ -24038,7 +24041,7 @@
         <v>1</v>
       </c>
       <c r="P453" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24052,7 +24055,7 @@
         <v>1.871635049192803</v>
       </c>
       <c r="D454" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E454">
         <v>1.984180572919497</v>
@@ -24088,7 +24091,7 @@
         <v>1</v>
       </c>
       <c r="P454" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24102,7 +24105,7 @@
         <v>2.18904965856885</v>
       </c>
       <c r="D455" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E455">
         <v>2.325988314767062</v>
@@ -24138,7 +24141,7 @@
         <v>1</v>
       </c>
       <c r="P455" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24152,7 +24155,7 @@
         <v>2.113548197914732</v>
       </c>
       <c r="D456" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E456">
         <v>1.955127555226921</v>
@@ -24188,7 +24191,7 @@
         <v>1</v>
       </c>
       <c r="P456" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24202,7 +24205,7 @@
         <v>1.878188899028709</v>
       </c>
       <c r="D457" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E457">
         <v>2.015269716995014</v>
@@ -24238,7 +24241,7 @@
         <v>1</v>
       </c>
       <c r="P457" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24252,7 +24255,7 @@
         <v>1.88583444385064</v>
       </c>
       <c r="D458" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E458">
         <v>2.125307034142769</v>
@@ -24288,7 +24291,7 @@
         <v>1</v>
       </c>
       <c r="P458" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24302,7 +24305,7 @@
         <v>2.298073483752043</v>
       </c>
       <c r="D459" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E459">
         <v>2.037664496092738</v>
@@ -24338,7 +24341,7 @@
         <v>1</v>
       </c>
       <c r="P459" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24352,7 +24355,7 @@
         <v>1.897427651995606</v>
       </c>
       <c r="D460" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E460">
         <v>2.100495646236972</v>
@@ -24388,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="P460" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24402,7 +24405,7 @@
         <v>1.886668859096591</v>
       </c>
       <c r="D461" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E461">
         <v>2.126294507806616</v>
@@ -24438,7 +24441,7 @@
         <v>1</v>
       </c>
       <c r="P461" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24452,7 +24455,7 @@
         <v>2.29919426636051</v>
       </c>
       <c r="D462" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E462">
         <v>2.038997585538931</v>
@@ -24488,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="P462" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -24502,7 +24505,7 @@
         <v>1.898642244602138</v>
       </c>
       <c r="D463" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E463">
         <v>2.102411345144836</v>
@@ -24538,7 +24541,7 @@
         <v>1</v>
       </c>
       <c r="P463" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -24552,7 +24555,7 @@
         <v>1.887695818378956</v>
       </c>
       <c r="D464" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E464">
         <v>2.127509844235451</v>
@@ -24588,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -24638,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -24652,7 +24655,7 @@
         <v>1.900137108409605</v>
       </c>
       <c r="D466" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E466">
         <v>2.104769097816775</v>
@@ -24688,7 +24691,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -24702,7 +24705,7 @@
         <v>1.882492570308907</v>
       </c>
       <c r="D467" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E467">
         <v>2.121352154211724</v>
@@ -24738,7 +24741,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -24788,7 +24791,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -24802,7 +24805,7 @@
         <v>1.911660475077831</v>
       </c>
       <c r="D469" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E469">
         <v>2.092823179170745</v>
@@ -24838,7 +24841,7 @@
         <v>1</v>
       </c>
       <c r="P469" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -24852,7 +24855,7 @@
         <v>1.879971436092785</v>
       </c>
       <c r="D470" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E470">
         <v>2.118368563423415</v>
@@ -24888,7 +24891,7 @@
         <v>1</v>
       </c>
       <c r="P470" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -24938,7 +24941,7 @@
         <v>1</v>
       </c>
       <c r="P471" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -24952,7 +24955,7 @@
         <v>1.90788623273062</v>
       </c>
       <c r="D472" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E472">
         <v>2.087035013041425</v>
@@ -24988,7 +24991,7 @@
         <v>1</v>
       </c>
       <c r="P472" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25052,7 +25055,7 @@
         <v>1.89858988459332</v>
       </c>
       <c r="D474" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E474">
         <v>2.07277816293363</v>
@@ -25102,7 +25105,7 @@
         <v>2.27342525786704</v>
       </c>
       <c r="D475" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E475">
         <v>2.050890844436287</v>
@@ -25138,7 +25141,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25152,7 +25155,7 @@
         <v>1.889192027490578</v>
       </c>
       <c r="D476" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E476">
         <v>2.058365638997408</v>
@@ -25188,7 +25191,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25202,7 +25205,7 @@
         <v>2.266210657543448</v>
       </c>
       <c r="D477" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E477">
         <v>2.042055342718407</v>
@@ -25238,7 +25241,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25252,7 +25255,7 @@
         <v>1.881151085279702</v>
       </c>
       <c r="D478" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E478">
         <v>2.046034075448713</v>
@@ -25288,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25302,7 +25305,7 @@
         <v>2.259792939301354</v>
       </c>
       <c r="D479" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E479">
         <v>2.034195758263333</v>
@@ -25338,7 +25341,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25352,7 +25355,7 @@
         <v>1.873998297987854</v>
       </c>
       <c r="D480" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E480">
         <v>2.061056685064424</v>
@@ -25388,7 +25391,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25402,7 +25405,7 @@
         <v>2.247400638043782</v>
       </c>
       <c r="D481" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E481">
         <v>2.019019283595469</v>
@@ -25438,7 +25441,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25452,7 +25455,7 @@
         <v>1.860186614207387</v>
       </c>
       <c r="D482" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E482">
         <v>2.039929722127505</v>
@@ -25488,7 +25491,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25502,7 +25505,7 @@
         <v>2.218696305669633</v>
       </c>
       <c r="D483" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E483">
         <v>1.983865960247392</v>
@@ -25538,7 +25541,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25552,7 +25555,7 @@
         <v>1.828194560944569</v>
       </c>
       <c r="D484" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E484">
         <v>1.990993261207699</v>
@@ -25588,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -25602,7 +25605,7 @@
         <v>1.830127541068264</v>
       </c>
       <c r="D485" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E485">
         <v>2.018032125375022</v>
@@ -25638,7 +25641,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -25688,7 +25691,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -25702,7 +25705,7 @@
         <v>1.78228507381279</v>
       </c>
       <c r="D487" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E487">
         <v>2.022800472072064</v>
@@ -25738,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="P487" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -25752,7 +25755,7 @@
         <v>1.783722556644772</v>
       </c>
       <c r="D488" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E488">
         <v>1.972929321636883</v>
@@ -25788,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="P488" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -25802,7 +25805,7 @@
         <v>2.163345062458509</v>
       </c>
       <c r="D489" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E489">
         <v>1.877414831999107</v>
@@ -25838,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="P489" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -25852,7 +25855,7 @@
         <v>1.693507313006611</v>
       </c>
       <c r="D490" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E490">
         <v>1.978388335287718</v>
@@ -25888,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="P490" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -25902,7 +25905,7 @@
         <v>1.734543015346852</v>
       </c>
       <c r="D491" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E491">
         <v>1.925129818487629</v>
@@ -25938,7 +25941,7 @@
         <v>1</v>
       </c>
       <c r="P491" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -25952,7 +25955,7 @@
         <v>1.684218514250647</v>
       </c>
       <c r="D492" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E492">
         <v>1.570048693213578</v>
@@ -25988,7 +25991,7 @@
         <v>1</v>
       </c>
       <c r="P492" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -26002,7 +26005,7 @@
         <v>2.132031608016207</v>
       </c>
       <c r="D493" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E493">
         <v>1.840169754028087</v>
@@ -26038,7 +26041,7 @@
         <v>1</v>
       </c>
       <c r="P493" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26052,7 +26055,7 @@
         <v>1.660262632299145</v>
       </c>
       <c r="D494" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E494">
         <v>1.929555899725715</v>
@@ -26088,7 +26091,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26102,7 +26105,7 @@
         <v>1.680468679922261</v>
       </c>
       <c r="D495" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E495">
         <v>1.872572875128523</v>
@@ -26138,7 +26141,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26152,7 +26155,7 @@
         <v>1.634006631356384</v>
       </c>
       <c r="D496" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E496">
         <v>1.60382087481427</v>
@@ -26188,7 +26191,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26202,7 +26205,7 @@
         <v>2.09863804467423</v>
       </c>
       <c r="D497" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E497">
         <v>1.800450537718246</v>
@@ -26238,7 +26241,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26252,7 +26255,7 @@
         <v>1.624809554037398</v>
       </c>
       <c r="D498" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E498">
         <v>1.877479593897257</v>
@@ -26288,7 +26291,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26302,7 +26305,7 @@
         <v>1.622802262168714</v>
       </c>
       <c r="D499" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E499">
         <v>1.752483946759322</v>
@@ -26338,7 +26341,7 @@
         <v>1</v>
       </c>
       <c r="P499" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26352,7 +26355,7 @@
         <v>1.580459243442377</v>
       </c>
       <c r="D500" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E500">
         <v>1.752483946759322</v>
@@ -26388,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="P500" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26402,7 +26405,7 @@
         <v>2.071221135479056</v>
       </c>
       <c r="D501" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E501">
         <v>1.767840117089625</v>
@@ -26438,7 +26441,7 @@
         <v>1</v>
       </c>
       <c r="P501" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26452,7 +26455,7 @@
         <v>1.595701734142962</v>
       </c>
       <c r="D502" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E502">
         <v>1.834723709073065</v>
@@ -26488,7 +26491,7 @@
         <v>1</v>
       </c>
       <c r="P502" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26538,7 +26541,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26588,7 +26591,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -26602,7 +26605,7 @@
         <v>2.041322179557651</v>
       </c>
       <c r="D505" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E505">
         <v>1.73227748229324</v>
@@ -26638,7 +26641,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -26652,7 +26655,7 @@
         <v>1.563958789750633</v>
       </c>
       <c r="D506" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E506">
         <v>1.788097143451137</v>
@@ -26688,7 +26691,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -26702,7 +26705,7 @@
         <v>1.472686344256899</v>
       </c>
       <c r="D507" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E507">
         <v>1.788097143451137</v>
@@ -26738,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -26752,7 +26755,7 @@
         <v>1.523825085403519</v>
       </c>
       <c r="D508" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E508">
         <v>1.630370751283219</v>
@@ -26788,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -26802,7 +26805,7 @@
         <v>1.56168905637971</v>
       </c>
       <c r="D509" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E509">
         <v>1.630370751283219</v>
@@ -26838,7 +26841,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -26852,7 +26855,7 @@
         <v>1.565051671294496</v>
       </c>
       <c r="D510" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E510">
         <v>1.630370751283219</v>
@@ -26888,7 +26891,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -26902,7 +26905,7 @@
         <v>1.866585623391427</v>
       </c>
       <c r="D511" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E511">
         <v>1.689366599623595</v>
@@ -26938,7 +26941,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -26952,7 +26955,7 @@
         <v>2.005245252276134</v>
       </c>
       <c r="D512" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E512">
         <v>1.689366599623595</v>
@@ -26988,7 +26991,7 @@
         <v>1</v>
       </c>
       <c r="P512" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -27002,7 +27005,7 @@
         <v>1.4318415411232</v>
       </c>
       <c r="D513" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E513">
         <v>1.73183620839538</v>
@@ -27038,7 +27041,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -27052,7 +27055,7 @@
         <v>1.461524840934997</v>
       </c>
       <c r="D514" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E514">
         <v>1.564205583165584</v>
@@ -27088,7 +27091,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -27102,7 +27105,7 @@
         <v>1.496369157204806</v>
       </c>
       <c r="D515" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E515">
         <v>1.564205583165584</v>
@@ -27138,7 +27141,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -27152,7 +27155,7 @@
         <v>1.508949665433811</v>
       </c>
       <c r="D516" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E516">
         <v>1.564205583165584</v>
@@ -27188,7 +27191,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -27202,7 +27205,7 @@
         <v>1.973924573324424</v>
       </c>
       <c r="D517" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E517">
         <v>1.612872963807592</v>
@@ -27252,7 +27255,7 @@
         <v>1.396381565393731</v>
       </c>
       <c r="D518" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E518">
         <v>1.682992506417824</v>
@@ -27302,7 +27305,7 @@
         <v>1.467141600577559</v>
       </c>
       <c r="D519" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E519">
         <v>1.682992506417824</v>
@@ -27352,7 +27355,7 @@
         <v>1.407438029705613</v>
       </c>
       <c r="D520" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E520">
         <v>1.521706666475579</v>
@@ -27402,7 +27405,7 @@
         <v>1.439660791349507</v>
       </c>
       <c r="D521" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E521">
         <v>1.521706666475579</v>
@@ -27452,7 +27455,7 @@
         <v>1.460243940015513</v>
       </c>
       <c r="D522" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E522">
         <v>1.521706666475579</v>
@@ -27502,7 +27505,7 @@
         <v>1.940579116805523</v>
       </c>
       <c r="D523" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E523">
         <v>1.574239241056619</v>
@@ -27538,7 +27541,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -27552,7 +27555,7 @@
         <v>1.781069303182167</v>
       </c>
       <c r="D524" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E524">
         <v>1.574239241056619</v>
@@ -27588,7 +27591,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -27602,7 +27605,7 @@
         <v>1.358629220348103</v>
       </c>
       <c r="D525" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E525">
         <v>1.630991221802445</v>
@@ -27638,7 +27641,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -27652,7 +27655,7 @@
         <v>1.349854686289714</v>
       </c>
       <c r="D526" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E526">
         <v>1.479202912629048</v>
@@ -27688,7 +27691,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -27702,7 +27705,7 @@
         <v>1.379286418533347</v>
       </c>
       <c r="D527" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E527">
         <v>1.479202912629048</v>
@@ -27738,7 +27741,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -27752,7 +27755,7 @@
         <v>1.408389551684359</v>
       </c>
       <c r="D528" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E528">
         <v>1.479202912629048</v>
@@ -27788,7 +27791,7 @@
         <v>1</v>
       </c>
       <c r="P528" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -27802,7 +27805,7 @@
         <v>1.74645545085387</v>
       </c>
       <c r="D529" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E529">
         <v>1.54184264617284</v>
@@ -27852,7 +27855,7 @@
         <v>1.326971711279163</v>
       </c>
       <c r="D530" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E530">
         <v>1.58738515872694</v>
@@ -28052,7 +28055,7 @@
         <v>1.276676327166428</v>
       </c>
       <c r="D534" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E534">
         <v>1.518106691894613</v>
@@ -28088,7 +28091,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28102,7 +28105,7 @@
         <v>1.224852607973696</v>
       </c>
       <c r="D535" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E535">
         <v>1.33929930838555</v>
@@ -28138,7 +28141,7 @@
         <v>1</v>
       </c>
       <c r="P535" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -28152,7 +28155,7 @@
         <v>1.248225566013237</v>
       </c>
       <c r="D536" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E536">
         <v>1.33929930838555</v>
@@ -28188,7 +28191,7 @@
         <v>1</v>
       </c>
       <c r="P536" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -28202,7 +28205,7 @@
         <v>1.263762437199394</v>
       </c>
       <c r="D537" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E537">
         <v>1.33929930838555</v>
@@ -28238,7 +28241,7 @@
         <v>1</v>
       </c>
       <c r="P537" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -28252,7 +28255,7 @@
         <v>1.212947744952629</v>
       </c>
       <c r="D538" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E538">
         <v>1.430324909390002</v>
@@ -28288,7 +28291,7 @@
         <v>1</v>
       </c>
       <c r="P538" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -28302,7 +28305,7 @@
         <v>1.146309428698562</v>
       </c>
       <c r="D539" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E539">
         <v>1.238758183620087</v>
@@ -28338,7 +28341,7 @@
         <v>1</v>
       </c>
       <c r="P539" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -28352,7 +28355,7 @@
         <v>1.216483509339664</v>
       </c>
       <c r="D540" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E540">
         <v>1.238758183620087</v>
@@ -28388,7 +28391,7 @@
         <v>1</v>
       </c>
       <c r="P540" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -28402,7 +28405,7 @@
         <v>1.171021231954409</v>
       </c>
       <c r="D541" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E541">
         <v>1.238758183620087</v>
@@ -28438,7 +28441,7 @@
         <v>1</v>
       </c>
       <c r="P541" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -28488,7 +28491,7 @@
         <v>1</v>
       </c>
       <c r="P542" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -28538,7 +28541,7 @@
         <v>1</v>
       </c>
       <c r="P543" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -28588,7 +28591,7 @@
         <v>1</v>
       </c>
       <c r="P544" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -28602,7 +28605,7 @@
         <v>0.913889681656368</v>
       </c>
       <c r="D545" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E545">
         <v>0.9422215166785484</v>
@@ -28638,7 +28641,7 @@
         <v>1</v>
       </c>
       <c r="P545" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -28652,7 +28655,7 @@
         <v>0.9595249171276929</v>
       </c>
       <c r="D546" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E546">
         <v>0.9422215166785484</v>
@@ -28688,7 +28691,7 @@
         <v>1</v>
       </c>
       <c r="P546" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -28702,7 +28705,7 @@
         <v>0.9589976550364385</v>
       </c>
       <c r="D547" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E547">
         <v>0.9422215166785484</v>
@@ -28738,7 +28741,7 @@
         <v>1</v>
       </c>
       <c r="P547" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -28752,7 +28755,7 @@
         <v>0.8504189521355614</v>
       </c>
       <c r="D548" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E548">
         <v>0.937857691146331</v>
@@ -28788,7 +28791,7 @@
         <v>1</v>
       </c>
       <c r="P548" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -28802,7 +28805,7 @@
         <v>0.9017680975637474</v>
       </c>
       <c r="D549" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E549">
         <v>0.937857691146331</v>
@@ -28838,7 +28841,7 @@
         <v>1</v>
       </c>
       <c r="P549" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -28852,7 +28855,7 @@
         <v>0.908653475416529</v>
       </c>
       <c r="D550" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E550">
         <v>0.937857691146331</v>
@@ -28888,7 +28891,7 @@
         <v>1</v>
       </c>
       <c r="P550" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -28938,7 +28941,7 @@
         <v>1</v>
       </c>
       <c r="P551" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -28988,7 +28991,7 @@
         <v>1</v>
       </c>
       <c r="P552" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -29038,7 +29041,7 @@
         <v>1</v>
       </c>
       <c r="P553" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -29052,7 +29055,7 @@
         <v>0.7994059700977925</v>
       </c>
       <c r="D554" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E554">
         <v>0.9510460107817367</v>
@@ -29088,7 +29091,7 @@
         <v>1</v>
       </c>
       <c r="P554" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -29102,7 +29105,7 @@
         <v>0.8553475251011551</v>
       </c>
       <c r="D555" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E555">
         <v>0.9510460107817367</v>
@@ -29138,7 +29141,7 @@
         <v>1</v>
       </c>
       <c r="P555" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -29152,7 +29155,7 @@
         <v>0.8681906234838945</v>
       </c>
       <c r="D556" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E556">
         <v>0.9510460107817367</v>
@@ -29188,7 +29191,7 @@
         <v>1</v>
       </c>
       <c r="P556" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29238,7 +29241,7 @@
         <v>1</v>
       </c>
       <c r="P557" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29252,7 +29255,7 @@
         <v>0.7963844516425689</v>
       </c>
       <c r="D558" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E558">
         <v>0.9293442447455118</v>
@@ -29288,7 +29291,7 @@
         <v>1</v>
       </c>
       <c r="P558" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29302,7 +29305,7 @@
         <v>0.9077462565202601</v>
       </c>
       <c r="D559" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E559">
         <v>0.9293442447455118</v>
@@ -29338,7 +29341,7 @@
         <v>1</v>
       </c>
       <c r="P559" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29352,7 +29355,7 @@
         <v>0.8525980168231655</v>
       </c>
       <c r="D560" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E560">
         <v>0.9293442447455118</v>
@@ -29388,7 +29391,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29402,7 +29405,7 @@
         <v>0.8657939932736682</v>
       </c>
       <c r="D561" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E561">
         <v>0.9293442447455118</v>
@@ -29438,7 +29441,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29488,7 +29491,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29538,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29588,7 +29591,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -29638,7 +29641,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -29688,7 +29691,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -29738,7 +29741,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -29788,7 +29791,7 @@
         <v>1</v>
       </c>
       <c r="P568" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -29838,7 +29841,7 @@
         <v>1</v>
       </c>
       <c r="P569" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -29888,7 +29891,7 @@
         <v>1</v>
       </c>
       <c r="P570" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -29938,7 +29941,7 @@
         <v>1</v>
       </c>
       <c r="P571" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -29988,7 +29991,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30038,7 +30041,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30088,7 +30091,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30138,7 +30141,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30188,7 +30191,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30238,7 +30241,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30288,7 +30291,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30338,7 +30341,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30388,7 +30391,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30438,7 +30441,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30488,7 +30491,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30502,7 +30505,7 @@
         <v>0.751468861471289</v>
       </c>
       <c r="D583" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E583">
         <v>0.9385035221553486</v>
@@ -30538,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30552,7 +30555,7 @@
         <v>0.7709845877750583</v>
       </c>
       <c r="D584" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E584">
         <v>0.9385035221553486</v>
@@ -30588,7 +30591,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -30602,7 +30605,7 @@
         <v>0.8117259226040443</v>
       </c>
       <c r="D585" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E585">
         <v>0.9385035221553486</v>
@@ -30638,7 +30641,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -30652,7 +30655,7 @@
         <v>0.830167515424916</v>
       </c>
       <c r="D586" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E586">
         <v>0.9385035221553486</v>
@@ -30688,7 +30691,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -30702,7 +30705,7 @@
         <v>0.8384277846341899</v>
       </c>
       <c r="D587" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E587">
         <v>0.9385035221553486</v>
@@ -30738,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31102,7 +31105,7 @@
         <v>0.8616555364163685</v>
       </c>
       <c r="D595" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E595">
         <v>0.9487042537756789</v>
@@ -31152,7 +31155,7 @@
         <v>0.8685708400378545</v>
       </c>
       <c r="D596" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E596">
         <v>0.9487042537756789</v>
@@ -31202,7 +31205,7 @@
         <v>0.9283666743289771</v>
       </c>
       <c r="D597" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E597">
         <v>0.9487042537756789</v>
@@ -31252,7 +31255,7 @@
         <v>0.9119931158630705</v>
       </c>
       <c r="D598" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E598">
         <v>0.9487042537756789</v>
@@ -31302,7 +31305,7 @@
         <v>0.917566191902035</v>
       </c>
       <c r="D599" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E599">
         <v>0.9487042537756789</v>
@@ -31352,7 +31355,7 @@
         <v>0.8850151504748149</v>
       </c>
       <c r="D600" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E600">
         <v>0.9487042537756789</v>
@@ -31402,7 +31405,7 @@
         <v>0.9303840608049012</v>
       </c>
       <c r="D601" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E601">
         <v>0.9487042537756789</v>
@@ -31452,7 +31455,7 @@
         <v>0.9319931158630701</v>
       </c>
       <c r="D602" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E602">
         <v>0.9487042537756789</v>
@@ -31538,7 +31541,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31588,7 +31591,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31638,7 +31641,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -31688,7 +31691,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -31738,7 +31741,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -31788,7 +31791,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -31838,7 +31841,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -31888,7 +31891,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -31938,7 +31941,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -31988,7 +31991,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32038,7 +32041,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32088,7 +32091,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32138,7 +32141,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32188,7 +32191,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32238,7 +32241,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32288,7 +32291,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32338,7 +32341,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32388,7 +32391,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32438,7 +32441,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32488,7 +32491,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32538,7 +32541,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -32588,7 +32591,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -32638,7 +32641,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -32688,7 +32691,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -32738,7 +32741,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -32788,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -32838,7 +32841,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -32888,7 +32891,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -32938,7 +32941,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -32988,7 +32991,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33038,7 +33041,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33088,7 +33091,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33138,7 +33141,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33188,7 +33191,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33238,7 +33241,7 @@
         <v>1</v>
       </c>
       <c r="P637" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -33288,7 +33291,7 @@
         <v>1</v>
       </c>
       <c r="P638" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -33302,7 +33305,7 @@
         <v>0.9426739735459577</v>
       </c>
       <c r="D639" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E639">
         <v>1.155481591635229</v>
@@ -33338,7 +33341,7 @@
         <v>1</v>
       </c>
       <c r="P639" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -33352,7 +33355,7 @@
         <v>0.9523699059372155</v>
       </c>
       <c r="D640" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E640">
         <v>0.9617333668754942</v>
@@ -33388,7 +33391,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33402,7 +33405,7 @@
         <v>0.9489115468641032</v>
       </c>
       <c r="D641" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E641">
         <v>0.9617333668754942</v>
@@ -33438,7 +33441,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33452,7 +33455,7 @@
         <v>0.994540984964766</v>
       </c>
       <c r="D642" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E642">
         <v>0.9617333668754942</v>
@@ -33488,7 +33491,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -33502,7 +33505,7 @@
         <v>0.9895196820815877</v>
       </c>
       <c r="D643" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E643">
         <v>0.9617333668754942</v>
@@ -33538,7 +33541,7 @@
         <v>1</v>
       </c>
       <c r="P643" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -33552,7 +33555,7 @@
         <v>0.9598379516124478</v>
       </c>
       <c r="D644" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E644">
         <v>0.9617333668754942</v>
@@ -33588,7 +33591,7 @@
         <v>1</v>
       </c>
       <c r="P644" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -33602,7 +33605,7 @@
         <v>1.006089726852713</v>
       </c>
       <c r="D645" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E645">
         <v>0.9617333668754942</v>
@@ -33638,7 +33641,7 @@
         <v>1</v>
       </c>
       <c r="P645" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -33652,7 +33655,7 @@
         <v>0.9848592544956265</v>
       </c>
       <c r="D646" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E646">
         <v>0.9617333668754942</v>
@@ -33688,7 +33691,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -33952,7 +33955,7 @@
         <v>0.9734565125913943</v>
       </c>
       <c r="D652" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E652">
         <v>1.185400334942146</v>
@@ -34002,7 +34005,7 @@
         <v>0.9846444558037319</v>
       </c>
       <c r="D653" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E653">
         <v>1.181231801994401</v>
@@ -34052,7 +34055,7 @@
         <v>0.9774953331205798</v>
       </c>
       <c r="D654" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E654">
         <v>1.181231801994401</v>
@@ -34102,7 +34105,7 @@
         <v>1.023910040074443</v>
       </c>
       <c r="D655" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E655">
         <v>1.181231801994401</v>
@@ -34152,7 +34155,7 @@
         <v>1.015119446695905</v>
       </c>
       <c r="D656" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E656">
         <v>1.181231801994401</v>
@@ -34202,7 +34205,7 @@
         <v>0.9864585657359251</v>
       </c>
       <c r="D657" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E657">
         <v>1.181231801994401</v>
@@ -34252,7 +34255,7 @@
         <v>1.007646508948263</v>
       </c>
       <c r="D658" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E658">
         <v>1.181231801994401</v>
@@ -34302,7 +34305,7 @@
         <v>1.015249159114463</v>
       </c>
       <c r="D659" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E659">
         <v>0.9834565125913941</v>
@@ -34388,7 +34391,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34438,7 +34441,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34488,7 +34491,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34538,7 +34541,7 @@
         <v>1</v>
       </c>
       <c r="P663" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -34588,7 +34591,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -34602,7 +34605,7 @@
         <v>0.9989502799212269</v>
       </c>
       <c r="D665" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E665">
         <v>1.210178715943846</v>
@@ -34638,7 +34641,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -34652,7 +34655,7 @@
         <v>1.011373890427612</v>
       </c>
       <c r="D666" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E666">
         <v>1.203864024011701</v>
@@ -34688,7 +34691,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -34702,7 +34705,7 @@
         <v>1.00116811706971</v>
       </c>
       <c r="D667" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E667">
         <v>1.203864024011701</v>
@@ -34738,7 +34741,7 @@
         <v>1</v>
       </c>
       <c r="P667" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -34752,7 +34755,7 @@
         <v>1.048233175230966</v>
       </c>
       <c r="D668" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E668">
         <v>1.203864024011701</v>
@@ -34788,7 +34791,7 @@
         <v>1</v>
       </c>
       <c r="P668" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -34802,7 +34805,7 @@
         <v>1.036320896056939</v>
       </c>
       <c r="D669" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E669">
         <v>1.203864024011701</v>
@@ -34838,7 +34841,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -34852,7 +34855,7 @@
         <v>1.008505471666571</v>
       </c>
       <c r="D670" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E670">
         <v>1.203864024011701</v>
@@ -34888,7 +34891,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -34902,7 +34905,7 @@
         <v>1.030929082172957</v>
       </c>
       <c r="D671" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E671">
         <v>1.203864024011701</v>
@@ -34938,7 +34941,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -34952,7 +34955,7 @@
         <v>1.040417750840599</v>
       </c>
       <c r="D672" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E672">
         <v>0.9957763031857296</v>
@@ -34988,7 +34991,7 @@
         <v>1</v>
       </c>
       <c r="P672" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35038,7 +35041,7 @@
         <v>1</v>
       </c>
       <c r="P673" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35088,7 +35091,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35138,7 +35141,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35188,7 +35191,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35202,7 +35205,7 @@
         <v>1.019721542843001</v>
       </c>
       <c r="D677" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E677">
         <v>1.230367111793835</v>
@@ -35238,7 +35241,7 @@
         <v>1</v>
       </c>
       <c r="P677" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35252,7 +35255,7 @@
         <v>1.033151923746106</v>
       </c>
       <c r="D678" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E678">
         <v>1.222303818646338</v>
@@ -35288,7 +35291,7 @@
         <v>1</v>
       </c>
       <c r="P678" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35302,7 +35305,7 @@
         <v>1.020455718354215</v>
       </c>
       <c r="D679" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E679">
         <v>1.222303818646338</v>
@@ -35338,7 +35341,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -35352,7 +35355,7 @@
         <v>1.053594956548007</v>
       </c>
       <c r="D680" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E680">
         <v>1.222303818646338</v>
@@ -35388,7 +35391,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -35402,7 +35405,7 @@
         <v>1.026468375060656</v>
       </c>
       <c r="D681" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E681">
         <v>1.222303818646338</v>
@@ -35438,7 +35441,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -35452,7 +35455,7 @@
         <v>1.049898755963761</v>
       </c>
       <c r="D682" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E682">
         <v>1.222303818646338</v>
@@ -35488,7 +35491,7 @@
         <v>1</v>
       </c>
       <c r="P682" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -35502,7 +35505,7 @@
         <v>1.060924074184289</v>
       </c>
       <c r="D683" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E683">
         <v>1.017873442550878</v>
@@ -35538,7 +35541,7 @@
         <v>1</v>
       </c>
       <c r="P683" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -35588,7 +35591,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -35638,7 +35641,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -35688,7 +35691,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -35738,7 +35741,7 @@
         <v>1</v>
       </c>
       <c r="P687" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -35752,7 +35755,7 @@
         <v>1.047332978384417</v>
       </c>
       <c r="D688" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E688">
         <v>1.257203736644038</v>
@@ -35788,7 +35791,7 @@
         <v>1</v>
       </c>
       <c r="P688" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -35802,7 +35805,7 @@
         <v>1.062101668663253</v>
       </c>
       <c r="D689" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E689">
         <v>1.2468160114229</v>
@@ -35838,7 +35841,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -35852,7 +35855,7 @@
         <v>1.046094908499815</v>
       </c>
       <c r="D690" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E690">
         <v>1.2468160114229</v>
@@ -35888,7 +35891,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -35902,7 +35905,7 @@
         <v>1.076557527942143</v>
       </c>
       <c r="D691" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E691">
         <v>1.2468160114229</v>
@@ -35938,7 +35941,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -35952,7 +35955,7 @@
         <v>1.050346631817136</v>
       </c>
       <c r="D692" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E692">
         <v>1.2468160114229</v>
@@ -35988,7 +35991,7 @@
         <v>1</v>
       </c>
       <c r="P692" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36002,7 +36005,7 @@
         <v>1.075115322095972</v>
       </c>
       <c r="D693" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E693">
         <v>1.2468160114229</v>
@@ -36038,7 +36041,7 @@
         <v>1</v>
       </c>
       <c r="P693" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36052,7 +36055,7 @@
         <v>1.043673116249803</v>
       </c>
       <c r="D694" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E694">
         <v>1.123802357990182</v>
@@ -36088,7 +36091,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36102,7 +36105,7 @@
         <v>2.896153804967225</v>
       </c>
       <c r="D695" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E695">
         <v>2.453793284427995</v>
@@ -36138,7 +36141,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36152,10 +36155,10 @@
         <v>3.139280458423625</v>
       </c>
       <c r="D696" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E696">
-        <v>2.93919188133351</v>
+        <v>3.093454506514468</v>
       </c>
       <c r="F696">
         <v>-1</v>
@@ -36164,10 +36167,10 @@
         <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.00824080811866649</v>
+        <v>0.008546545493485533</v>
       </c>
       <c r="I696">
-        <v>0.2000885770901148</v>
+        <v>0.04582595190915706</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
@@ -36179,16 +36182,66 @@
         <v>5.86</v>
       </c>
       <c r="M696">
+        <v>4.68</v>
+      </c>
+      <c r="N696">
+        <v>5.82</v>
+      </c>
+      <c r="O696">
+        <v>1</v>
+      </c>
+      <c r="P696" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="697" spans="1:16">
+      <c r="A697" s="1">
+        <v>2</v>
+      </c>
+      <c r="B697" t="s">
+        <v>143</v>
+      </c>
+      <c r="C697">
+        <v>2.93919188133351</v>
+      </c>
+      <c r="D697" t="s">
+        <v>245</v>
+      </c>
+      <c r="E697">
+        <v>3.093454506514468</v>
+      </c>
+      <c r="F697">
+        <v>-1</v>
+      </c>
+      <c r="G697">
+        <v>0.00824080811866649</v>
+      </c>
+      <c r="H697">
+        <v>0.008546545493485533</v>
+      </c>
+      <c r="I697">
+        <v>-0.1542626251809578</v>
+      </c>
+      <c r="J697">
+        <v>0.5825951909157121</v>
+      </c>
+      <c r="K697">
         <v>4.55</v>
       </c>
-      <c r="N696">
+      <c r="L697">
         <v>5.59</v>
       </c>
-      <c r="O696">
-        <v>1</v>
-      </c>
-      <c r="P696" t="s">
-        <v>238</v>
+      <c r="M697">
+        <v>4.68</v>
+      </c>
+      <c r="N697">
+        <v>5.82</v>
+      </c>
+      <c r="O697">
+        <v>1</v>
+      </c>
+      <c r="P697" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -751,7 +751,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-19</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -36158,7 +36158,7 @@
         <v>245</v>
       </c>
       <c r="E696">
-        <v>3.093454506514468</v>
+        <v>3.006065227877111</v>
       </c>
       <c r="F696">
         <v>-1</v>
@@ -36167,10 +36167,10 @@
         <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.008546545493485533</v>
+        <v>0.008633934772122891</v>
       </c>
       <c r="I696">
-        <v>0.04582595190915706</v>
+        <v>0.1332152305465137</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
@@ -36182,7 +36182,7 @@
         <v>5.86</v>
       </c>
       <c r="M696">
-        <v>4.68</v>
+        <v>4.83</v>
       </c>
       <c r="N696">
         <v>5.82</v>
@@ -36208,7 +36208,7 @@
         <v>245</v>
       </c>
       <c r="E697">
-        <v>3.093454506514468</v>
+        <v>3.006065227877111</v>
       </c>
       <c r="F697">
         <v>-1</v>
@@ -36217,10 +36217,10 @@
         <v>0.00824080811866649</v>
       </c>
       <c r="H697">
-        <v>0.008546545493485533</v>
+        <v>0.008633934772122891</v>
       </c>
       <c r="I697">
-        <v>-0.1542626251809578</v>
+        <v>-0.06687334654360111</v>
       </c>
       <c r="J697">
         <v>0.5825951909157121</v>
@@ -36232,7 +36232,7 @@
         <v>5.59</v>
       </c>
       <c r="M697">
-        <v>4.68</v>
+        <v>4.83</v>
       </c>
       <c r="N697">
         <v>5.82</v>

--- a/s60_signal/position-02600-601600.xlsx
+++ b/s60_signal/position-02600-601600.xlsx
@@ -751,7 +751,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-19</t>
+    <t>2021-07-20</t>
   </si>
   <si>
     <t>2017-03-09</t>
@@ -36158,7 +36158,7 @@
         <v>245</v>
       </c>
       <c r="E696">
-        <v>3.006065227877111</v>
+        <v>3.013365929424353</v>
       </c>
       <c r="F696">
         <v>-1</v>
@@ -36167,10 +36167,10 @@
         <v>0.008580719541576375</v>
       </c>
       <c r="H696">
-        <v>0.008633934772122891</v>
+        <v>0.008326634070575647</v>
       </c>
       <c r="I696">
-        <v>0.1332152305465137</v>
+        <v>0.1259145289992718</v>
       </c>
       <c r="J696">
         <v>0.5825951909157121</v>
@@ -36182,10 +36182,10 @@
         <v>5.86</v>
       </c>
       <c r="M696">
-        <v>4.83</v>
+        <v>4.56</v>
       </c>
       <c r="N696">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="O696">
         <v>1</v>
@@ -36208,7 +36208,7 @@
         <v>245</v>
       </c>
       <c r="E697">
-        <v>3.006065227877111</v>
+        <v>3.013365929424353</v>
       </c>
       <c r="F697">
         <v>-1</v>
@@ -36217,10 +36217,10 @@
         <v>0.00824080811866649</v>
       </c>
       <c r="H697">
-        <v>0.008633934772122891</v>
+        <v>0.008326634070575647</v>
       </c>
       <c r="I697">
-        <v>-0.06687334654360111</v>
+        <v>-0.07417404809084305</v>
       </c>
       <c r="J697">
         <v>0.5825951909157121</v>
@@ -36232,10 +36232,10 @@
         <v>5.59</v>
       </c>
       <c r="M697">
-        <v>4.83</v>
+        <v>4.56</v>
       </c>
       <c r="N697">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="O697">
         <v>1</v>
